--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="267">
   <si>
     <t>League</t>
   </si>
@@ -229,6 +229,9 @@
     <t>UEFA Europa Conference League</t>
   </si>
   <si>
+    <t>English National League</t>
+  </si>
+  <si>
     <t>Ecuadorian Serie A</t>
   </si>
   <si>
@@ -268,6 +271,9 @@
     <t>15:00:00</t>
   </si>
   <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -325,6 +331,9 @@
     <t>Al-Fateh (KSA)</t>
   </si>
   <si>
+    <t>FC Halifax Town</t>
+  </si>
+  <si>
     <t>Imbabura Sporting Club</t>
   </si>
   <si>
@@ -334,15 +343,15 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
     <t>Fenerbahce</t>
   </si>
   <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
     <t>Atalanta</t>
   </si>
   <si>
@@ -400,6 +409,9 @@
     <t>Al-Raed (KSA)</t>
   </si>
   <si>
+    <t>Oldham</t>
+  </si>
+  <si>
     <t>Univ Catolica (Ecu)</t>
   </si>
   <si>
@@ -409,15 +421,15 @@
     <t>AC Milan</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
     <t>Olympiakos</t>
   </si>
   <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
@@ -475,6 +487,9 @@
     <t>33185205</t>
   </si>
   <si>
+    <t>33199082</t>
+  </si>
+  <si>
     <t>33195236</t>
   </si>
   <si>
@@ -484,15 +499,15 @@
     <t>33185564</t>
   </si>
   <si>
+    <t>33185426</t>
+  </si>
+  <si>
+    <t>33185562</t>
+  </si>
+  <si>
     <t>33185238</t>
   </si>
   <si>
-    <t>33185562</t>
-  </si>
-  <si>
-    <t>33185426</t>
-  </si>
-  <si>
     <t>33185560</t>
   </si>
   <si>
@@ -550,6 +565,9 @@
     <t>1.227471344</t>
   </si>
   <si>
+    <t>1.227720946</t>
+  </si>
+  <si>
     <t>1.227651625</t>
   </si>
   <si>
@@ -559,15 +577,15 @@
     <t>1.227478826</t>
   </si>
   <si>
+    <t>1.227478376</t>
+  </si>
+  <si>
+    <t>1.227478946</t>
+  </si>
+  <si>
     <t>1.227472240</t>
   </si>
   <si>
-    <t>1.227478946</t>
-  </si>
-  <si>
-    <t>1.227478376</t>
-  </si>
-  <si>
     <t>1.227479066</t>
   </si>
   <si>
@@ -622,6 +640,9 @@
     <t>1.227471354</t>
   </si>
   <si>
+    <t>1.227720991</t>
+  </si>
+  <si>
     <t>1.227651670</t>
   </si>
   <si>
@@ -631,15 +652,15 @@
     <t>1.227478810</t>
   </si>
   <si>
+    <t>1.227478360</t>
+  </si>
+  <si>
+    <t>1.227478930</t>
+  </si>
+  <si>
     <t>1.227472224</t>
   </si>
   <si>
-    <t>1.227478930</t>
-  </si>
-  <si>
-    <t>1.227478360</t>
-  </si>
-  <si>
     <t>1.227479050</t>
   </si>
   <si>
@@ -697,24 +718,36 @@
     <t>1.227471343</t>
   </si>
   <si>
+    <t>1.227721030</t>
+  </si>
+  <si>
+    <t>1.227651709</t>
+  </si>
+  <si>
     <t>1.227479185</t>
   </si>
   <si>
     <t>1.227478825</t>
   </si>
   <si>
+    <t>1.227478375</t>
+  </si>
+  <si>
+    <t>1.227478945</t>
+  </si>
+  <si>
     <t>1.227472239</t>
   </si>
   <si>
-    <t>1.227478945</t>
-  </si>
-  <si>
-    <t>1.227478375</t>
-  </si>
-  <si>
     <t>1.227479065</t>
   </si>
   <si>
+    <t>1.227625424</t>
+  </si>
+  <si>
+    <t>1.227620064</t>
+  </si>
+  <si>
     <t>1.227599606</t>
   </si>
   <si>
@@ -751,22 +784,34 @@
     <t>1.227471353</t>
   </si>
   <si>
+    <t>1.227720955</t>
+  </si>
+  <si>
+    <t>1.227651634</t>
+  </si>
+  <si>
     <t>1.227479195</t>
   </si>
   <si>
     <t>1.227478835</t>
   </si>
   <si>
+    <t>1.227478385</t>
+  </si>
+  <si>
+    <t>1.227478955</t>
+  </si>
+  <si>
     <t>1.227472249</t>
   </si>
   <si>
-    <t>1.227478955</t>
-  </si>
-  <si>
-    <t>1.227478385</t>
-  </si>
-  <si>
     <t>1.227479075</t>
+  </si>
+  <si>
+    <t>1.227625349</t>
+  </si>
+  <si>
+    <t>1.227619989</t>
   </si>
   <si>
     <t>1.227599648</t>
@@ -1127,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM26"/>
+  <dimension ref="A1:BM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,16 +1380,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>7.6</v>
@@ -1389,121 +1434,121 @@
         <v>9.4</v>
       </c>
       <c r="T2">
-        <v>1.03</v>
+        <v>1.43</v>
       </c>
       <c r="U2">
         <v>21</v>
       </c>
       <c r="V2">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="W2">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="X2">
         <v>3.95</v>
       </c>
       <c r="Y2">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AA2">
         <v>13.5</v>
       </c>
       <c r="AB2">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="AC2">
         <v>1000</v>
       </c>
       <c r="AD2">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE2">
         <v>13</v>
       </c>
       <c r="AF2">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="AG2">
         <v>11.5</v>
       </c>
       <c r="AH2">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="AI2">
         <v>17</v>
       </c>
       <c r="AJ2">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>1.03</v>
+        <v>8.6</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="BA2">
         <v>1000</v>
       </c>
       <c r="BB2">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="BC2">
         <v>7.2</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BG2">
         <v>2017903</v>
@@ -1515,16 +1560,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="BK2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="BL2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="BM2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1532,25 +1577,25 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F3">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G3">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I3">
         <v>5.6</v>
@@ -1559,19 +1604,19 @@
         <v>3.2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L3">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M3">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="N3">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
         <v>1.12</v>
@@ -1586,97 +1631,97 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="U3">
         <v>980</v>
       </c>
       <c r="V3">
-        <v>2.66</v>
+        <v>1.03</v>
       </c>
       <c r="W3">
         <v>980</v>
       </c>
       <c r="X3">
-        <v>2.64</v>
+        <v>1.03</v>
       </c>
       <c r="Y3">
         <v>1000</v>
       </c>
       <c r="Z3">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="AA3">
         <v>1000</v>
       </c>
       <c r="AB3">
-        <v>2.7</v>
+        <v>1.03</v>
       </c>
       <c r="AC3">
         <v>980</v>
       </c>
       <c r="AD3">
-        <v>2.98</v>
+        <v>1.03</v>
       </c>
       <c r="AE3">
         <v>980</v>
       </c>
       <c r="AF3">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="AG3">
         <v>980</v>
       </c>
       <c r="AH3">
-        <v>6</v>
+        <v>1.03</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>2.78</v>
+        <v>1.03</v>
       </c>
       <c r="AK3">
         <v>1000</v>
       </c>
       <c r="AL3">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="AM3">
         <v>980</v>
       </c>
       <c r="AN3">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO3">
         <v>980</v>
       </c>
       <c r="AP3">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
       </c>
       <c r="AR3">
-        <v>3.55</v>
+        <v>1.03</v>
       </c>
       <c r="AS3">
         <v>1000</v>
       </c>
       <c r="AT3">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AU3">
         <v>1000</v>
       </c>
       <c r="AV3">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="AW3">
         <v>1000</v>
       </c>
       <c r="AX3">
-        <v>9.6</v>
+        <v>1.03</v>
       </c>
       <c r="AY3">
         <v>1000</v>
@@ -1700,7 +1745,7 @@
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BG3">
         <v>37456793</v>
@@ -1712,16 +1757,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BK3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="BL3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="BM3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1729,37 +1774,37 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F4">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G4">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="H4">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J4">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K4">
-        <v>5.9</v>
+        <v>330</v>
       </c>
       <c r="L4">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="M4">
         <v>3.05</v>
@@ -1768,7 +1813,7 @@
         <v>1.49</v>
       </c>
       <c r="O4">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="P4">
         <v>1.12</v>
@@ -1789,85 +1834,85 @@
         <v>980</v>
       </c>
       <c r="V4">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="W4">
         <v>980</v>
       </c>
       <c r="X4">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="Y4">
         <v>1000</v>
       </c>
       <c r="Z4">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AC4">
         <v>980</v>
       </c>
       <c r="AD4">
-        <v>2.9</v>
+        <v>3.95</v>
       </c>
       <c r="AE4">
         <v>980</v>
       </c>
       <c r="AF4">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AG4">
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AI4">
         <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="AK4">
         <v>1000</v>
       </c>
       <c r="AL4">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AM4">
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AS4">
         <v>1000</v>
       </c>
       <c r="AT4">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="AU4">
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AW4">
         <v>1000</v>
@@ -1897,7 +1942,7 @@
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BG4">
         <v>503208</v>
@@ -1909,16 +1954,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BK4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="BL4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="BM4" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1926,16 +1971,16 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>1.65</v>
@@ -1968,7 +2013,7 @@
         <v>1.94</v>
       </c>
       <c r="P5">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q5">
         <v>1.94</v>
@@ -1980,7 +2025,7 @@
         <v>2.22</v>
       </c>
       <c r="T5">
-        <v>13</v>
+        <v>4.9</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -2010,7 +2055,7 @@
         <v>10.5</v>
       </c>
       <c r="AD5">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE5">
         <v>11</v>
@@ -2019,7 +2064,7 @@
         <v>17</v>
       </c>
       <c r="AG5">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH5">
         <v>6.2</v>
@@ -2043,7 +2088,7 @@
         <v>5.2</v>
       </c>
       <c r="AO5">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP5">
         <v>6.2</v>
@@ -2094,7 +2139,7 @@
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BG5">
         <v>12157288</v>
@@ -2106,16 +2151,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BK5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="BL5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="BM5" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2123,22 +2168,22 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>1.67</v>
       </c>
       <c r="G6">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H6">
         <v>4.8</v>
@@ -2153,19 +2198,19 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="M6">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="N6">
+        <v>1.7</v>
+      </c>
+      <c r="O6">
+        <v>1.87</v>
+      </c>
+      <c r="P6">
         <v>1.68</v>
-      </c>
-      <c r="O6">
-        <v>1.88</v>
-      </c>
-      <c r="P6">
-        <v>1.67</v>
       </c>
       <c r="Q6">
         <v>1.92</v>
@@ -2174,7 +2219,7 @@
         <v>2.08</v>
       </c>
       <c r="S6">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="T6">
         <v>1.45</v>
@@ -2291,7 +2336,7 @@
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BG6">
         <v>2364082</v>
@@ -2303,16 +2348,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BK6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="BL6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BM6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2320,46 +2365,46 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H7">
         <v>3.1</v>
       </c>
       <c r="I7">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J7">
         <v>3.6</v>
       </c>
       <c r="K7">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="M7">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="N7">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P7">
         <v>1.66</v>
@@ -2374,7 +2419,7 @@
         <v>2.5</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U7">
         <v>16</v>
@@ -2404,7 +2449,7 @@
         <v>12.5</v>
       </c>
       <c r="AD7">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE7">
         <v>8.199999999999999</v>
@@ -2476,7 +2521,7 @@
         <v>18</v>
       </c>
       <c r="BB7">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BC7">
         <v>27</v>
@@ -2488,7 +2533,7 @@
         <v>980</v>
       </c>
       <c r="BF7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="BG7">
         <v>44790</v>
@@ -2500,16 +2545,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BK7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="BL7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="BM7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2517,22 +2562,22 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G8">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2541,22 +2586,22 @@
         <v>11.5</v>
       </c>
       <c r="J8">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="M8">
         <v>2.02</v>
       </c>
       <c r="N8">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O8">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="P8">
         <v>2.3</v>
@@ -2583,13 +2628,13 @@
         <v>30</v>
       </c>
       <c r="X8">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y8">
         <v>95</v>
       </c>
       <c r="Z8">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA8">
         <v>980</v>
@@ -2637,7 +2682,7 @@
         <v>36</v>
       </c>
       <c r="AP8">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ8">
         <v>210</v>
@@ -2646,13 +2691,13 @@
         <v>10</v>
       </c>
       <c r="AS8">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AT8">
         <v>15</v>
       </c>
       <c r="AU8">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AV8">
         <v>40</v>
@@ -2667,7 +2712,7 @@
         <v>980</v>
       </c>
       <c r="AZ8">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="BA8">
         <v>8.199999999999999</v>
@@ -2676,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="BC8">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="BD8">
         <v>12.5</v>
@@ -2685,7 +2730,7 @@
         <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BG8">
         <v>676467</v>
@@ -2697,16 +2742,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BK8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="BL8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="BM8" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2714,175 +2759,175 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G9">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="H9">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I9">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="J9">
-        <v>2.78</v>
+        <v>1.2</v>
       </c>
       <c r="K9">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L9">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M9">
         <v>2.18</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O9">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="P9">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="Q9">
         <v>1000</v>
       </c>
       <c r="R9">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="S9">
         <v>1000</v>
       </c>
       <c r="T9">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="U9">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="V9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="W9">
         <v>1000</v>
       </c>
       <c r="X9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="Y9">
         <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AC9">
         <v>1000</v>
       </c>
       <c r="AD9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AE9">
         <v>1000</v>
       </c>
       <c r="AF9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AG9">
         <v>1000</v>
       </c>
       <c r="AH9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AK9">
         <v>1000</v>
       </c>
       <c r="AL9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AM9">
         <v>1000</v>
       </c>
       <c r="AN9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AO9">
         <v>1000</v>
       </c>
       <c r="AP9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AS9">
         <v>1000</v>
       </c>
       <c r="AT9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AU9">
         <v>1000</v>
       </c>
       <c r="AV9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AW9">
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="BA9">
         <v>1000</v>
       </c>
       <c r="BB9">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="BC9">
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BG9">
         <v>5170870</v>
@@ -2894,16 +2939,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BK9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BL9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="BM9" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2911,151 +2956,151 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="G10">
-        <v>2.52</v>
+        <v>980</v>
       </c>
       <c r="H10">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I10">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J10">
-        <v>2.88</v>
+        <v>1.96</v>
       </c>
       <c r="K10">
+        <v>980</v>
+      </c>
+      <c r="L10">
+        <v>1.37</v>
+      </c>
+      <c r="M10">
         <v>4.5</v>
       </c>
-      <c r="L10">
-        <v>1.34</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
       <c r="N10">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="O10">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="P10">
+        <v>1.12</v>
+      </c>
+      <c r="Q10">
+        <v>1000</v>
+      </c>
+      <c r="R10">
+        <v>1.12</v>
+      </c>
+      <c r="S10">
+        <v>1000</v>
+      </c>
+      <c r="T10">
+        <v>1.49</v>
+      </c>
+      <c r="U10">
+        <v>1000</v>
+      </c>
+      <c r="V10">
         <v>1.01</v>
       </c>
-      <c r="Q10">
-        <v>1000</v>
-      </c>
-      <c r="R10">
+      <c r="W10">
+        <v>1000</v>
+      </c>
+      <c r="X10">
         <v>1.01</v>
       </c>
-      <c r="S10">
-        <v>1000</v>
-      </c>
-      <c r="T10">
-        <v>1.37</v>
-      </c>
-      <c r="U10">
-        <v>15</v>
-      </c>
-      <c r="V10">
-        <v>1.03</v>
-      </c>
-      <c r="W10">
-        <v>1000</v>
-      </c>
-      <c r="X10">
-        <v>1.03</v>
-      </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE10">
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK10">
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM10">
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -3079,7 +3124,7 @@
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BG10">
         <v>41860831</v>
@@ -3091,16 +3136,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BK10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BL10" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BM10" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3108,16 +3153,16 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>1.38</v>
@@ -3138,7 +3183,7 @@
         <v>6.6</v>
       </c>
       <c r="L11">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="M11">
         <v>2.9</v>
@@ -3150,28 +3195,28 @@
         <v>1.69</v>
       </c>
       <c r="P11">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q11">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="R11">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="S11">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="T11">
         <v>1.61</v>
       </c>
       <c r="U11">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="V11">
         <v>1.33</v>
       </c>
       <c r="W11">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="X11">
         <v>1.23</v>
@@ -3189,19 +3234,19 @@
         <v>4.3</v>
       </c>
       <c r="AC11">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD11">
         <v>4.6</v>
       </c>
       <c r="AE11">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AF11">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AG11">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AH11">
         <v>1.22</v>
@@ -3219,13 +3264,13 @@
         <v>4.3</v>
       </c>
       <c r="AM11">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AN11">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="AO11">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AP11">
         <v>1.22</v>
@@ -3246,7 +3291,7 @@
         <v>15.5</v>
       </c>
       <c r="AV11">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AW11">
         <v>34</v>
@@ -3276,7 +3321,7 @@
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BG11">
         <v>5344868</v>
@@ -3288,16 +3333,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="BK11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="BL11" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="BM11" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3305,16 +3350,16 @@
         <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F12">
         <v>2.12</v>
@@ -3323,7 +3368,7 @@
         <v>2.56</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I12">
         <v>4.1</v>
@@ -3347,16 +3392,16 @@
         <v>1.94</v>
       </c>
       <c r="P12">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="Q12">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="R12">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S12">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="T12">
         <v>3.55</v>
@@ -3473,7 +3518,7 @@
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BG12">
         <v>7196232</v>
@@ -3485,16 +3530,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="BK12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="BL12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="BM12" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3502,196 +3547,196 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13">
-        <v>1.23</v>
+        <v>1.94</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H13">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="I13">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="J13">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>320</v>
+        <v>950</v>
       </c>
       <c r="L13">
         <v>1.2</v>
       </c>
       <c r="M13">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="N13">
+        <v>1.05</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>1.12</v>
+      </c>
+      <c r="Q13">
+        <v>1000</v>
+      </c>
+      <c r="R13">
+        <v>1.12</v>
+      </c>
+      <c r="S13">
+        <v>1000</v>
+      </c>
+      <c r="T13">
+        <v>1.48</v>
+      </c>
+      <c r="U13">
+        <v>1000</v>
+      </c>
+      <c r="V13">
+        <v>2.36</v>
+      </c>
+      <c r="W13">
+        <v>1000</v>
+      </c>
+      <c r="X13">
+        <v>2.76</v>
+      </c>
+      <c r="Y13">
+        <v>1000</v>
+      </c>
+      <c r="Z13">
+        <v>2.92</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>1000</v>
+      </c>
+      <c r="AD13">
+        <v>2.7</v>
+      </c>
+      <c r="AE13">
+        <v>1000</v>
+      </c>
+      <c r="AF13">
+        <v>5.6</v>
+      </c>
+      <c r="AG13">
+        <v>1000</v>
+      </c>
+      <c r="AH13">
+        <v>5.1</v>
+      </c>
+      <c r="AI13">
+        <v>1000</v>
+      </c>
+      <c r="AJ13">
+        <v>3.75</v>
+      </c>
+      <c r="AK13">
+        <v>1000</v>
+      </c>
+      <c r="AL13">
+        <v>4.9</v>
+      </c>
+      <c r="AM13">
+        <v>1000</v>
+      </c>
+      <c r="AN13">
+        <v>8</v>
+      </c>
+      <c r="AO13">
+        <v>1000</v>
+      </c>
+      <c r="AP13">
+        <v>16.5</v>
+      </c>
+      <c r="AQ13">
+        <v>1000</v>
+      </c>
+      <c r="AR13">
+        <v>3.5</v>
+      </c>
+      <c r="AS13">
+        <v>1000</v>
+      </c>
+      <c r="AT13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU13">
+        <v>1000</v>
+      </c>
+      <c r="AV13">
+        <v>5.9</v>
+      </c>
+      <c r="AW13">
+        <v>1000</v>
+      </c>
+      <c r="AX13">
+        <v>8.4</v>
+      </c>
+      <c r="AY13">
+        <v>1000</v>
+      </c>
+      <c r="AZ13">
+        <v>1.01</v>
+      </c>
+      <c r="BA13">
+        <v>1000</v>
+      </c>
+      <c r="BB13">
+        <v>1.01</v>
+      </c>
+      <c r="BC13">
+        <v>1000</v>
+      </c>
+      <c r="BD13">
         <v>1.03</v>
       </c>
-      <c r="O13">
-        <v>6.4</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BG13">
-        <v>13638535</v>
+        <v>4231683</v>
       </c>
       <c r="BH13">
-        <v>7005170</v>
+        <v>69819</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BK13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3699,1181 +3744,1181 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F14">
-        <v>2.52</v>
+        <v>1.26</v>
       </c>
       <c r="G14">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="H14">
-        <v>2.98</v>
+        <v>1.26</v>
       </c>
       <c r="I14">
-        <v>3.05</v>
+        <v>980</v>
       </c>
       <c r="J14">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="K14">
-        <v>3.7</v>
+        <v>330</v>
       </c>
       <c r="L14">
-        <v>2.24</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>2.28</v>
+        <v>55</v>
       </c>
       <c r="N14">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="O14">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="P14">
-        <v>1.64</v>
+        <v>1.12</v>
       </c>
       <c r="Q14">
-        <v>1.69</v>
+        <v>1000</v>
       </c>
       <c r="R14">
-        <v>2.46</v>
+        <v>1.12</v>
       </c>
       <c r="S14">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="T14">
-        <v>16</v>
+        <v>1.1</v>
       </c>
       <c r="U14">
+        <v>980</v>
+      </c>
+      <c r="V14">
+        <v>1.1</v>
+      </c>
+      <c r="W14">
+        <v>980</v>
+      </c>
+      <c r="X14">
+        <v>1.1</v>
+      </c>
+      <c r="Y14">
+        <v>1000</v>
+      </c>
+      <c r="Z14">
+        <v>1.1</v>
+      </c>
+      <c r="AA14">
+        <v>1000</v>
+      </c>
+      <c r="AB14">
+        <v>1.1</v>
+      </c>
+      <c r="AC14">
+        <v>980</v>
+      </c>
+      <c r="AD14">
+        <v>1.1</v>
+      </c>
+      <c r="AE14">
+        <v>980</v>
+      </c>
+      <c r="AF14">
+        <v>1.1</v>
+      </c>
+      <c r="AG14">
+        <v>980</v>
+      </c>
+      <c r="AH14">
+        <v>1.1</v>
+      </c>
+      <c r="AI14">
+        <v>1000</v>
+      </c>
+      <c r="AJ14">
+        <v>3.6</v>
+      </c>
+      <c r="AK14">
+        <v>1000</v>
+      </c>
+      <c r="AL14">
+        <v>1.1</v>
+      </c>
+      <c r="AM14">
+        <v>980</v>
+      </c>
+      <c r="AN14">
+        <v>1.1</v>
+      </c>
+      <c r="AO14">
+        <v>980</v>
+      </c>
+      <c r="AP14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ14">
+        <v>1000</v>
+      </c>
+      <c r="AR14">
+        <v>2.88</v>
+      </c>
+      <c r="AS14">
+        <v>1000</v>
+      </c>
+      <c r="AT14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU14">
+        <v>1000</v>
+      </c>
+      <c r="AV14">
+        <v>7.4</v>
+      </c>
+      <c r="AW14">
+        <v>1000</v>
+      </c>
+      <c r="AX14">
         <v>19.5</v>
       </c>
-      <c r="V14">
-        <v>13</v>
-      </c>
-      <c r="W14">
-        <v>16</v>
-      </c>
-      <c r="X14">
-        <v>19.5</v>
-      </c>
-      <c r="Y14">
-        <v>24</v>
-      </c>
-      <c r="Z14">
-        <v>26</v>
-      </c>
-      <c r="AA14">
-        <v>55</v>
-      </c>
-      <c r="AB14">
-        <v>11.5</v>
-      </c>
-      <c r="AC14">
-        <v>14</v>
-      </c>
-      <c r="AD14">
-        <v>7.6</v>
-      </c>
-      <c r="AE14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF14">
-        <v>11.5</v>
-      </c>
-      <c r="AG14">
-        <v>14.5</v>
-      </c>
-      <c r="AH14">
-        <v>19</v>
-      </c>
-      <c r="AI14">
-        <v>34</v>
-      </c>
-      <c r="AJ14">
-        <v>15</v>
-      </c>
-      <c r="AK14">
-        <v>19</v>
-      </c>
-      <c r="AL14">
-        <v>10.5</v>
-      </c>
-      <c r="AM14">
-        <v>13</v>
-      </c>
-      <c r="AN14">
-        <v>14.5</v>
-      </c>
-      <c r="AO14">
-        <v>18</v>
-      </c>
-      <c r="AP14">
-        <v>23</v>
-      </c>
-      <c r="AQ14">
-        <v>42</v>
-      </c>
-      <c r="AR14">
-        <v>22</v>
-      </c>
-      <c r="AS14">
-        <v>38</v>
-      </c>
-      <c r="AT14">
-        <v>21</v>
-      </c>
-      <c r="AU14">
-        <v>27</v>
-      </c>
-      <c r="AV14">
-        <v>22</v>
-      </c>
-      <c r="AW14">
-        <v>38</v>
-      </c>
-      <c r="AX14">
-        <v>32</v>
-      </c>
       <c r="AY14">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="BA14">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="BB14">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC14">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="BD14">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="BE14">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BG14">
-        <v>52457652</v>
+        <v>13638535</v>
       </c>
       <c r="BH14">
-        <v>48783</v>
+        <v>7005170</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BK14" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="BL14" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="BM14" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F15">
-        <v>2.96</v>
+        <v>2.46</v>
       </c>
       <c r="G15">
+        <v>2.48</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>2.56</v>
-      </c>
       <c r="I15">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="J15">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K15">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L15">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P15">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="Q15">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R15">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="S15">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="T15">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="U15">
+        <v>18</v>
+      </c>
+      <c r="V15">
+        <v>13.5</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15">
+        <v>22</v>
+      </c>
+      <c r="Z15">
+        <v>42</v>
+      </c>
+      <c r="AA15">
+        <v>48</v>
+      </c>
+      <c r="AB15">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15">
+        <v>7.8</v>
+      </c>
+      <c r="AE15">
+        <v>8.4</v>
+      </c>
+      <c r="AF15">
+        <v>12</v>
+      </c>
+      <c r="AG15">
+        <v>13</v>
+      </c>
+      <c r="AH15">
+        <v>27</v>
+      </c>
+      <c r="AI15">
+        <v>30</v>
+      </c>
+      <c r="AJ15">
+        <v>15.5</v>
+      </c>
+      <c r="AK15">
+        <v>17</v>
+      </c>
+      <c r="AL15">
+        <v>10.5</v>
+      </c>
+      <c r="AM15">
+        <v>11.5</v>
+      </c>
+      <c r="AN15">
+        <v>14.5</v>
+      </c>
+      <c r="AO15">
         <v>16</v>
       </c>
-      <c r="V15">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="W15">
-        <v>11</v>
-      </c>
-      <c r="X15">
-        <v>14.5</v>
-      </c>
-      <c r="Y15">
+      <c r="AP15">
+        <v>34</v>
+      </c>
+      <c r="AQ15">
+        <v>38</v>
+      </c>
+      <c r="AR15">
+        <v>30</v>
+      </c>
+      <c r="AS15">
+        <v>34</v>
+      </c>
+      <c r="AT15">
+        <v>22</v>
+      </c>
+      <c r="AU15">
+        <v>24</v>
+      </c>
+      <c r="AV15">
+        <v>30</v>
+      </c>
+      <c r="AW15">
+        <v>32</v>
+      </c>
+      <c r="AX15">
+        <v>60</v>
+      </c>
+      <c r="AY15">
+        <v>75</v>
+      </c>
+      <c r="AZ15">
+        <v>15</v>
+      </c>
+      <c r="BA15">
+        <v>16</v>
+      </c>
+      <c r="BB15">
+        <v>20</v>
+      </c>
+      <c r="BC15">
+        <v>23</v>
+      </c>
+      <c r="BD15">
         <v>21</v>
       </c>
-      <c r="Z15">
-        <v>22</v>
-      </c>
-      <c r="AA15">
-        <v>44</v>
-      </c>
-      <c r="AB15">
-        <v>10.5</v>
-      </c>
-      <c r="AC15">
-        <v>12.5</v>
-      </c>
-      <c r="AD15">
-        <v>7.4</v>
-      </c>
-      <c r="AE15">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF15">
-        <v>11</v>
-      </c>
-      <c r="AG15">
-        <v>12.5</v>
-      </c>
-      <c r="AH15">
-        <v>21</v>
-      </c>
-      <c r="AI15">
-        <v>34</v>
-      </c>
-      <c r="AJ15">
-        <v>17</v>
-      </c>
-      <c r="AK15">
-        <v>24</v>
-      </c>
-      <c r="AL15">
-        <v>11.5</v>
-      </c>
-      <c r="AM15">
-        <v>16</v>
-      </c>
-      <c r="AN15">
-        <v>16</v>
-      </c>
-      <c r="AO15">
-        <v>18</v>
-      </c>
-      <c r="AP15">
-        <v>24</v>
-      </c>
-      <c r="AQ15">
-        <v>50</v>
-      </c>
-      <c r="AR15">
-        <v>26</v>
-      </c>
-      <c r="AS15">
-        <v>60</v>
-      </c>
-      <c r="AT15">
-        <v>21</v>
-      </c>
-      <c r="AU15">
-        <v>40</v>
-      </c>
-      <c r="AV15">
-        <v>26</v>
-      </c>
-      <c r="AW15">
-        <v>55</v>
-      </c>
-      <c r="AX15">
-        <v>36</v>
-      </c>
-      <c r="AY15">
-        <v>120</v>
-      </c>
-      <c r="AZ15">
-        <v>19</v>
-      </c>
-      <c r="BA15">
-        <v>36</v>
-      </c>
-      <c r="BB15">
-        <v>5.4</v>
-      </c>
-      <c r="BC15">
-        <v>27</v>
-      </c>
-      <c r="BD15">
-        <v>6.6</v>
-      </c>
       <c r="BE15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BG15">
-        <v>56967</v>
+        <v>52457652</v>
       </c>
       <c r="BH15">
-        <v>127991</v>
+        <v>48783</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BK15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="BL15" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="BM15" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F16">
-        <v>1.63</v>
+        <v>2.96</v>
       </c>
       <c r="G16">
-        <v>1.65</v>
+        <v>2.98</v>
       </c>
       <c r="H16">
-        <v>5.4</v>
+        <v>2.58</v>
       </c>
       <c r="I16">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="J16">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K16">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L16">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="M16">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="P16">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q16">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R16">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="S16">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="T16">
+        <v>13.5</v>
+      </c>
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>11</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="Y16">
         <v>16.5</v>
       </c>
-      <c r="U16">
-        <v>28</v>
-      </c>
-      <c r="V16">
-        <v>22</v>
-      </c>
-      <c r="W16">
-        <v>30</v>
-      </c>
-      <c r="X16">
-        <v>4.6</v>
-      </c>
-      <c r="Y16">
-        <v>60</v>
-      </c>
       <c r="Z16">
-        <v>4.8</v>
+        <v>32</v>
       </c>
       <c r="AA16">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AB16">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC16">
         <v>12</v>
       </c>
       <c r="AD16">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AE16">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AF16">
+        <v>11</v>
+      </c>
+      <c r="AG16">
+        <v>12</v>
+      </c>
+      <c r="AH16">
+        <v>25</v>
+      </c>
+      <c r="AI16">
+        <v>28</v>
+      </c>
+      <c r="AJ16">
+        <v>17.5</v>
+      </c>
+      <c r="AK16">
+        <v>19.5</v>
+      </c>
+      <c r="AL16">
+        <v>12</v>
+      </c>
+      <c r="AM16">
+        <v>13</v>
+      </c>
+      <c r="AN16">
+        <v>16</v>
+      </c>
+      <c r="AO16">
+        <v>17.5</v>
+      </c>
+      <c r="AP16">
+        <v>36</v>
+      </c>
+      <c r="AQ16">
+        <v>42</v>
+      </c>
+      <c r="AR16">
+        <v>42</v>
+      </c>
+      <c r="AS16">
+        <v>48</v>
+      </c>
+      <c r="AT16">
+        <v>30</v>
+      </c>
+      <c r="AU16">
+        <v>34</v>
+      </c>
+      <c r="AV16">
+        <v>40</v>
+      </c>
+      <c r="AW16">
+        <v>46</v>
+      </c>
+      <c r="AX16">
+        <v>38</v>
+      </c>
+      <c r="AY16">
+        <v>95</v>
+      </c>
+      <c r="AZ16">
+        <v>25</v>
+      </c>
+      <c r="BA16">
+        <v>29</v>
+      </c>
+      <c r="BB16">
         <v>18.5</v>
       </c>
-      <c r="AG16">
-        <v>26</v>
-      </c>
-      <c r="AH16">
-        <v>4.7</v>
-      </c>
-      <c r="AI16">
-        <v>75</v>
-      </c>
-      <c r="AJ16">
-        <v>10</v>
-      </c>
-      <c r="AK16">
-        <v>14</v>
-      </c>
-      <c r="AL16">
-        <v>9</v>
-      </c>
-      <c r="AM16">
-        <v>10.5</v>
-      </c>
-      <c r="AN16">
-        <v>17</v>
-      </c>
-      <c r="AO16">
+      <c r="BC16">
         <v>23</v>
       </c>
-      <c r="AP16">
-        <v>4.7</v>
-      </c>
-      <c r="AQ16">
-        <v>70</v>
-      </c>
-      <c r="AR16">
-        <v>15</v>
-      </c>
-      <c r="AS16">
-        <v>21</v>
-      </c>
-      <c r="AT16">
-        <v>13.5</v>
-      </c>
-      <c r="AU16">
-        <v>19</v>
-      </c>
-      <c r="AV16">
-        <v>19.5</v>
-      </c>
-      <c r="AW16">
-        <v>34</v>
-      </c>
-      <c r="AX16">
-        <v>4.7</v>
-      </c>
-      <c r="AY16">
-        <v>100</v>
-      </c>
-      <c r="AZ16">
-        <v>3.1</v>
-      </c>
-      <c r="BA16">
-        <v>8.4</v>
-      </c>
-      <c r="BB16">
-        <v>4.6</v>
-      </c>
-      <c r="BC16">
-        <v>65</v>
-      </c>
       <c r="BD16">
-        <v>5</v>
+        <v>18.5</v>
       </c>
       <c r="BE16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BG16">
-        <v>46726</v>
+        <v>56967</v>
       </c>
       <c r="BH16">
-        <v>55243</v>
+        <v>127991</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BK16" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BL16" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="BM16" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F17">
+        <v>1.96</v>
+      </c>
+      <c r="G17">
+        <v>1.99</v>
+      </c>
+      <c r="H17">
+        <v>4.2</v>
+      </c>
+      <c r="I17">
+        <v>4.3</v>
+      </c>
+      <c r="J17">
+        <v>3.8</v>
+      </c>
+      <c r="K17">
         <v>3.95</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>1.98</v>
-      </c>
-      <c r="I17">
-        <v>1.99</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>4.1</v>
-      </c>
       <c r="L17">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="N17">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="O17">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="P17">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q17">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R17">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="S17">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="T17">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="U17">
+        <v>16.5</v>
+      </c>
+      <c r="V17">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <v>17.5</v>
+      </c>
+      <c r="X17">
+        <v>28</v>
+      </c>
+      <c r="Y17">
+        <v>32</v>
+      </c>
+      <c r="Z17">
+        <v>17.5</v>
+      </c>
+      <c r="AA17">
+        <v>85</v>
+      </c>
+      <c r="AB17">
+        <v>9.6</v>
+      </c>
+      <c r="AC17">
+        <v>10.5</v>
+      </c>
+      <c r="AD17">
+        <v>8</v>
+      </c>
+      <c r="AE17">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>15</v>
+      </c>
+      <c r="AG17">
+        <v>16.5</v>
+      </c>
+      <c r="AH17">
+        <v>40</v>
+      </c>
+      <c r="AI17">
+        <v>46</v>
+      </c>
+      <c r="AJ17">
+        <v>11.5</v>
+      </c>
+      <c r="AK17">
+        <v>13</v>
+      </c>
+      <c r="AL17">
+        <v>9.4</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>16</v>
+      </c>
+      <c r="AO17">
+        <v>17.5</v>
+      </c>
+      <c r="AP17">
+        <v>42</v>
+      </c>
+      <c r="AQ17">
+        <v>55</v>
+      </c>
+      <c r="AR17">
+        <v>21</v>
+      </c>
+      <c r="AS17">
         <v>23</v>
       </c>
-      <c r="V17">
-        <v>11</v>
-      </c>
-      <c r="W17">
+      <c r="AT17">
+        <v>17.5</v>
+      </c>
+      <c r="AU17">
+        <v>19</v>
+      </c>
+      <c r="AV17">
+        <v>28</v>
+      </c>
+      <c r="AW17">
+        <v>32</v>
+      </c>
+      <c r="AX17">
+        <v>17.5</v>
+      </c>
+      <c r="AY17">
+        <v>85</v>
+      </c>
+      <c r="AZ17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BA17">
         <v>12</v>
       </c>
-      <c r="X17">
-        <v>12.5</v>
-      </c>
-      <c r="Y17">
-        <v>15.5</v>
-      </c>
-      <c r="Z17">
-        <v>21</v>
-      </c>
-      <c r="AA17">
-        <v>26</v>
-      </c>
-      <c r="AB17">
-        <v>16.5</v>
-      </c>
-      <c r="AC17">
-        <v>21</v>
-      </c>
-      <c r="AD17">
-        <v>8.6</v>
-      </c>
-      <c r="AE17">
-        <v>9.4</v>
-      </c>
-      <c r="AF17">
-        <v>9.4</v>
-      </c>
-      <c r="AG17">
-        <v>11</v>
-      </c>
-      <c r="AH17">
-        <v>16.5</v>
-      </c>
-      <c r="AI17">
-        <v>21</v>
-      </c>
-      <c r="AJ17">
-        <v>19.5</v>
-      </c>
-      <c r="AK17">
-        <v>32</v>
-      </c>
-      <c r="AL17">
-        <v>14</v>
-      </c>
-      <c r="AM17">
-        <v>17.5</v>
-      </c>
-      <c r="AN17">
+      <c r="BB17">
         <v>14.5</v>
       </c>
-      <c r="AO17">
-        <v>17</v>
-      </c>
-      <c r="AP17">
-        <v>19</v>
-      </c>
-      <c r="AQ17">
-        <v>32</v>
-      </c>
-      <c r="AR17">
-        <v>32</v>
-      </c>
-      <c r="AS17">
-        <v>75</v>
-      </c>
-      <c r="AT17">
-        <v>23</v>
-      </c>
-      <c r="AU17">
-        <v>44</v>
-      </c>
-      <c r="AV17">
-        <v>25</v>
-      </c>
-      <c r="AW17">
-        <v>48</v>
-      </c>
-      <c r="AX17">
-        <v>32</v>
-      </c>
-      <c r="AY17">
-        <v>80</v>
-      </c>
-      <c r="AZ17">
-        <v>7.6</v>
-      </c>
-      <c r="BA17">
-        <v>34</v>
-      </c>
-      <c r="BB17">
-        <v>5.6</v>
-      </c>
       <c r="BC17">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="BD17">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="BE17">
         <v>980</v>
       </c>
       <c r="BF17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BG17">
-        <v>48756</v>
+        <v>232095</v>
       </c>
       <c r="BH17">
-        <v>44787</v>
+        <v>10762</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BK17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="BL17" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="BM17" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F18">
-        <v>1.97</v>
+        <v>3.95</v>
       </c>
       <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1.98</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>4.2</v>
-      </c>
-      <c r="I18">
-        <v>4.3</v>
-      </c>
       <c r="J18">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L18">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="M18">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="O18">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="P18">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="Q18">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="R18">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="S18">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="T18">
+        <v>19</v>
+      </c>
+      <c r="U18">
+        <v>19.5</v>
+      </c>
+      <c r="V18">
+        <v>11.5</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+      <c r="X18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
         <v>13.5</v>
       </c>
-      <c r="U18">
-        <v>18.5</v>
-      </c>
-      <c r="V18">
-        <v>14.5</v>
-      </c>
-      <c r="W18">
-        <v>18.5</v>
-      </c>
-      <c r="X18">
+      <c r="Z18">
         <v>22</v>
       </c>
-      <c r="Y18">
-        <v>34</v>
-      </c>
-      <c r="Z18">
-        <v>6.8</v>
-      </c>
       <c r="AA18">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AB18">
-        <v>8.6</v>
+        <v>19</v>
       </c>
       <c r="AC18">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD18">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE18">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF18">
         <v>9.800000000000001</v>
       </c>
-      <c r="AF18">
-        <v>14</v>
-      </c>
       <c r="AG18">
+        <v>10.5</v>
+      </c>
+      <c r="AH18">
+        <v>17</v>
+      </c>
+      <c r="AI18">
         <v>18</v>
       </c>
-      <c r="AH18">
-        <v>6.4</v>
-      </c>
-      <c r="AI18">
-        <v>50</v>
-      </c>
       <c r="AJ18">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AK18">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AL18">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AM18">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AN18">
         <v>15</v>
       </c>
       <c r="AO18">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP18">
-        <v>6.6</v>
+        <v>25</v>
       </c>
       <c r="AQ18">
+        <v>26</v>
+      </c>
+      <c r="AR18">
         <v>60</v>
       </c>
-      <c r="AR18">
-        <v>18</v>
-      </c>
       <c r="AS18">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AT18">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AU18">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AV18">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="AW18">
+        <v>42</v>
+      </c>
+      <c r="AX18">
+        <v>60</v>
+      </c>
+      <c r="AY18">
+        <v>65</v>
+      </c>
+      <c r="AZ18">
+        <v>27</v>
+      </c>
+      <c r="BA18">
+        <v>30</v>
+      </c>
+      <c r="BB18">
+        <v>9.4</v>
+      </c>
+      <c r="BC18">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BD18">
         <v>36</v>
-      </c>
-      <c r="AX18">
-        <v>6.8</v>
-      </c>
-      <c r="AY18">
-        <v>95</v>
-      </c>
-      <c r="AZ18">
-        <v>4.7</v>
-      </c>
-      <c r="BA18">
-        <v>13</v>
-      </c>
-      <c r="BB18">
-        <v>6.4</v>
-      </c>
-      <c r="BC18">
-        <v>46</v>
-      </c>
-      <c r="BD18">
-        <v>7.2</v>
       </c>
       <c r="BE18">
         <v>980</v>
       </c>
       <c r="BF18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BG18">
-        <v>232095</v>
+        <v>48756</v>
       </c>
       <c r="BH18">
-        <v>10762</v>
+        <v>44787</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BK18" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="BL18" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="BM18" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F19">
-        <v>4.8</v>
+        <v>1.65</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="H19">
+        <v>5.6</v>
+      </c>
+      <c r="I19">
+        <v>5.7</v>
+      </c>
+      <c r="J19">
+        <v>4.6</v>
+      </c>
+      <c r="K19">
+        <v>4.7</v>
+      </c>
+      <c r="L19">
+        <v>2.4</v>
+      </c>
+      <c r="M19">
+        <v>2.74</v>
+      </c>
+      <c r="N19">
+        <v>1.58</v>
+      </c>
+      <c r="O19">
+        <v>1.71</v>
+      </c>
+      <c r="P19">
         <v>1.69</v>
       </c>
-      <c r="I19">
-        <v>1.7</v>
-      </c>
-      <c r="J19">
-        <v>4.8</v>
-      </c>
-      <c r="K19">
-        <v>4.9</v>
-      </c>
-      <c r="L19">
-        <v>3.15</v>
-      </c>
-      <c r="M19">
-        <v>3.25</v>
-      </c>
-      <c r="N19">
-        <v>1.45</v>
-      </c>
-      <c r="O19">
-        <v>1.47</v>
-      </c>
-      <c r="P19">
-        <v>1.51</v>
-      </c>
       <c r="Q19">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="R19">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="T19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U19">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="V19">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="W19">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="X19">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Y19">
+        <v>48</v>
+      </c>
+      <c r="Z19">
         <v>16.5</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
+        <v>130</v>
+      </c>
+      <c r="AB19">
+        <v>10.5</v>
+      </c>
+      <c r="AC19">
+        <v>12</v>
+      </c>
+      <c r="AD19">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>10.5</v>
+      </c>
+      <c r="AF19">
+        <v>19</v>
+      </c>
+      <c r="AG19">
+        <v>21</v>
+      </c>
+      <c r="AH19">
+        <v>38</v>
+      </c>
+      <c r="AI19">
+        <v>65</v>
+      </c>
+      <c r="AJ19">
+        <v>10</v>
+      </c>
+      <c r="AK19">
+        <v>11.5</v>
+      </c>
+      <c r="AL19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
         <v>17</v>
       </c>
-      <c r="AA19">
-        <v>22</v>
-      </c>
-      <c r="AB19">
-        <v>19.5</v>
-      </c>
-      <c r="AC19">
-        <v>34</v>
-      </c>
-      <c r="AD19">
-        <v>10.5</v>
-      </c>
-      <c r="AE19">
+      <c r="AO19">
+        <v>19</v>
+      </c>
+      <c r="AP19">
+        <v>36</v>
+      </c>
+      <c r="AQ19">
+        <v>60</v>
+      </c>
+      <c r="AR19">
+        <v>15</v>
+      </c>
+      <c r="AS19">
+        <v>17</v>
+      </c>
+      <c r="AT19">
         <v>13.5</v>
       </c>
-      <c r="AF19">
-        <v>9.6</v>
-      </c>
-      <c r="AG19">
-        <v>11</v>
-      </c>
-      <c r="AH19">
-        <v>13</v>
-      </c>
-      <c r="AI19">
-        <v>16.5</v>
-      </c>
-      <c r="AJ19">
-        <v>26</v>
-      </c>
-      <c r="AK19">
-        <v>50</v>
-      </c>
-      <c r="AL19">
-        <v>17.5</v>
-      </c>
-      <c r="AM19">
-        <v>22</v>
-      </c>
-      <c r="AN19">
-        <v>14.5</v>
-      </c>
-      <c r="AO19">
-        <v>17</v>
-      </c>
-      <c r="AP19">
-        <v>20</v>
-      </c>
-      <c r="AQ19">
-        <v>25</v>
-      </c>
-      <c r="AR19">
-        <v>38</v>
-      </c>
-      <c r="AS19">
-        <v>110</v>
-      </c>
-      <c r="AT19">
-        <v>26</v>
-      </c>
       <c r="AU19">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AV19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AX19">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AY19">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AZ19">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="BA19">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="BB19">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="BC19">
-        <v>5.8</v>
+        <v>55</v>
       </c>
       <c r="BD19">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BE19">
         <v>980</v>
       </c>
       <c r="BF19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BG19">
-        <v>215817</v>
+        <v>46726</v>
       </c>
       <c r="BH19">
-        <v>56323</v>
+        <v>55243</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="BK19" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="BL19" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="BM19" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4881,637 +4926,637 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20">
-        <v>1.87</v>
+        <v>4.9</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>4.3</v>
+        <v>1.68</v>
       </c>
       <c r="I20">
-        <v>6.2</v>
+        <v>1.69</v>
       </c>
       <c r="J20">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="K20">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L20">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O20">
-        <v>2.54</v>
+        <v>1.47</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BG20">
-        <v>4082025</v>
+        <v>215817</v>
       </c>
       <c r="BH20">
-        <v>8220578</v>
+        <v>56323</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BK20" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>241</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F21">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="G21">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="I21">
+        <v>5.4</v>
+      </c>
+      <c r="J21">
+        <v>3.3</v>
+      </c>
+      <c r="K21">
+        <v>3.65</v>
+      </c>
+      <c r="L21">
+        <v>1.65</v>
+      </c>
+      <c r="M21">
+        <v>1.83</v>
+      </c>
+      <c r="N21">
+        <v>2.2</v>
+      </c>
+      <c r="O21">
+        <v>2.54</v>
+      </c>
+      <c r="P21">
+        <v>2.08</v>
+      </c>
+      <c r="Q21">
+        <v>2.26</v>
+      </c>
+      <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <v>1.92</v>
+      </c>
+      <c r="T21">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U21">
+        <v>11</v>
+      </c>
+      <c r="V21">
+        <v>4.8</v>
+      </c>
+      <c r="W21">
         <v>980</v>
       </c>
-      <c r="J21">
-        <v>4.7</v>
-      </c>
-      <c r="K21">
-        <v>15</v>
-      </c>
-      <c r="L21">
-        <v>1.79</v>
-      </c>
-      <c r="M21">
-        <v>3.35</v>
-      </c>
-      <c r="N21">
-        <v>1.42</v>
-      </c>
-      <c r="O21">
-        <v>2.26</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BG21">
-        <v>6432339</v>
+        <v>4082025</v>
       </c>
       <c r="BH21">
-        <v>8225986</v>
+        <v>8220578</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="BK21" t="s">
-        <v>210</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>242</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>2.64</v>
+        <v>1.27</v>
       </c>
       <c r="G22">
-        <v>3.5</v>
+        <v>1.52</v>
       </c>
       <c r="H22">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="I22">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="J22">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L22">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="M22">
-        <v>1.76</v>
+        <v>990</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="O22">
-        <v>2.96</v>
+        <v>6.4</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BG22">
-        <v>9195442</v>
+        <v>6432339</v>
       </c>
       <c r="BH22">
-        <v>1067444</v>
+        <v>8225986</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="BK22" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F23">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="G23">
-        <v>1.64</v>
+        <v>3.55</v>
       </c>
       <c r="H23">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="I23">
-        <v>27</v>
+        <v>3.45</v>
       </c>
       <c r="J23">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="L23">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="M23">
-        <v>3.35</v>
+        <v>1.77</v>
       </c>
       <c r="N23">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="O23">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -5640,22 +5685,22 @@
         <v>0</v>
       </c>
       <c r="BF23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BG23">
-        <v>13749040</v>
+        <v>9195442</v>
       </c>
       <c r="BH23">
-        <v>330234</v>
+        <v>1067444</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="BK23" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BL23">
         <v>0</v>
@@ -5666,199 +5711,199 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="H24">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I24">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="J24">
-        <v>3.65</v>
+        <v>1.21</v>
       </c>
       <c r="K24">
-        <v>3.95</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>990</v>
       </c>
       <c r="N24">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="O24">
-        <v>2.38</v>
+        <v>6.4</v>
       </c>
       <c r="P24">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AY24">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="BB24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="BD24">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="BE24">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BG24">
-        <v>198128</v>
+        <v>13749040</v>
       </c>
       <c r="BH24">
-        <v>5326988</v>
+        <v>330234</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="BK24" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>251</v>
+        <v>219</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5866,392 +5911,589 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L25">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="M25">
+        <v>1.95</v>
+      </c>
+      <c r="N25">
+        <v>2.06</v>
+      </c>
+      <c r="O25">
+        <v>2.34</v>
+      </c>
+      <c r="P25">
+        <v>1.97</v>
+      </c>
+      <c r="Q25">
+        <v>2.06</v>
+      </c>
+      <c r="R25">
+        <v>1.94</v>
+      </c>
+      <c r="S25">
+        <v>2.04</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>15</v>
+      </c>
+      <c r="V25">
+        <v>13.5</v>
+      </c>
+      <c r="W25">
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <v>34</v>
+      </c>
+      <c r="Y25">
+        <v>55</v>
+      </c>
+      <c r="Z25">
+        <v>5.2</v>
+      </c>
+      <c r="AA25">
         <v>980</v>
       </c>
-      <c r="N25">
-        <v>1.03</v>
-      </c>
-      <c r="O25">
-        <v>6.4</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>198128</v>
       </c>
       <c r="BH25">
-        <v>0</v>
+        <v>5326988</v>
       </c>
       <c r="BI25">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>195</v>
       </c>
       <c r="BK25" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.2</v>
+      </c>
+      <c r="M26">
+        <v>980</v>
+      </c>
+      <c r="N26">
+        <v>1.03</v>
+      </c>
+      <c r="O26">
+        <v>6.4</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27">
         <v>1.51</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1.62</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>1.28</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>980</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>1.2</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>330</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>1.72</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>2.38</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>166</v>
-      </c>
-      <c r="BG26">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG27">
         <v>26076470</v>
       </c>
-      <c r="BH26">
+      <c r="BH27">
         <v>478919</v>
       </c>
-      <c r="BI26">
+      <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
+      <c r="BJ27" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="285">
   <si>
     <t>League</t>
   </si>
@@ -214,6 +214,9 @@
     <t>Ukrainian Premier League</t>
   </si>
   <si>
+    <t>Armenian Premier League</t>
+  </si>
+  <si>
     <t>Egyptian Premier</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>09:30:00</t>
   </si>
   <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -301,6 +307,9 @@
     <t>Zorya</t>
   </si>
   <si>
+    <t>Alashkert</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
@@ -379,6 +388,9 @@
     <t>Shakhtar</t>
   </si>
   <si>
+    <t>West Armenia</t>
+  </si>
+  <si>
     <t>Al Ittihad (EGY)</t>
   </si>
   <si>
@@ -457,6 +469,9 @@
     <t>33192612</t>
   </si>
   <si>
+    <t>33200575</t>
+  </si>
+  <si>
     <t>33192836</t>
   </si>
   <si>
@@ -535,6 +550,9 @@
     <t>1.227602750</t>
   </si>
   <si>
+    <t>1.227749552</t>
+  </si>
+  <si>
     <t>1.227605479</t>
   </si>
   <si>
@@ -604,12 +622,18 @@
     <t>1.227599613</t>
   </si>
   <si>
+    <t>1.227679123</t>
+  </si>
+  <si>
     <t>1.227625520</t>
   </si>
   <si>
     <t>1.227602795</t>
   </si>
   <si>
+    <t>1.227749597</t>
+  </si>
+  <si>
     <t>1.227605524</t>
   </si>
   <si>
@@ -688,6 +712,9 @@
     <t>1.227602834</t>
   </si>
   <si>
+    <t>1.227749636</t>
+  </si>
+  <si>
     <t>1.227605563</t>
   </si>
   <si>
@@ -748,12 +775,27 @@
     <t>1.227620064</t>
   </si>
   <si>
+    <t>1.227625514</t>
+  </si>
+  <si>
+    <t>1.227632624</t>
+  </si>
+  <si>
     <t>1.227599606</t>
   </si>
   <si>
+    <t>1.227679207</t>
+  </si>
+  <si>
+    <t>1.227625604</t>
+  </si>
+  <si>
     <t>1.227602759</t>
   </si>
   <si>
+    <t>1.227749561</t>
+  </si>
+  <si>
     <t>1.227605488</t>
   </si>
   <si>
@@ -814,7 +856,19 @@
     <t>1.227619989</t>
   </si>
   <si>
+    <t>1.227625439</t>
+  </si>
+  <si>
+    <t>1.227632549</t>
+  </si>
+  <si>
     <t>1.227599648</t>
+  </si>
+  <si>
+    <t>1.227679132</t>
+  </si>
+  <si>
+    <t>1.227625529</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM27"/>
+  <dimension ref="A1:BM28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,46 +1434,46 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="G2">
         <v>10.5</v>
       </c>
       <c r="H2">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>6.2</v>
       </c>
       <c r="L2">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="M2">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O2">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="P2">
         <v>1.12</v>
@@ -1428,40 +1482,40 @@
         <v>9.4</v>
       </c>
       <c r="R2">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="S2">
         <v>9.4</v>
       </c>
       <c r="T2">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="U2">
         <v>21</v>
       </c>
       <c r="V2">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="W2">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X2">
         <v>3.95</v>
       </c>
       <c r="Y2">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z2">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="AA2">
         <v>13.5</v>
       </c>
       <c r="AB2">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="AC2">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD2">
         <v>4.5</v>
@@ -1470,85 +1524,85 @@
         <v>13</v>
       </c>
       <c r="AF2">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="AG2">
         <v>11.5</v>
       </c>
       <c r="AH2">
-        <v>1.92</v>
+        <v>4.8</v>
       </c>
       <c r="AI2">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ2">
-        <v>2.88</v>
+        <v>1.03</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO2">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AP2">
-        <v>11.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>4.8</v>
+        <v>1.03</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="BA2">
         <v>1000</v>
       </c>
       <c r="BB2">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="BC2">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BD2">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BG2">
         <v>2017903</v>
@@ -1560,16 +1614,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BK2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="BL2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="BM2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1577,196 +1631,196 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="G3">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="I3">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L3">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="M3">
-        <v>2.12</v>
+        <v>110</v>
       </c>
       <c r="N3">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="P3">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="Q3">
         <v>1000</v>
       </c>
       <c r="R3">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S3">
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="U3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y3">
         <v>1000</v>
       </c>
       <c r="Z3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA3">
         <v>1000</v>
       </c>
       <c r="AB3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK3">
         <v>1000</v>
       </c>
       <c r="AL3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO3">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
       </c>
       <c r="AR3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS3">
         <v>1000</v>
       </c>
       <c r="AT3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU3">
         <v>1000</v>
       </c>
       <c r="AV3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW3">
         <v>1000</v>
       </c>
       <c r="AX3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
         <v>1000</v>
       </c>
       <c r="BB3">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>1.1</v>
+        <v>20</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="BG3">
-        <v>37456793</v>
+        <v>9686394</v>
       </c>
       <c r="BH3">
-        <v>7023879</v>
+        <v>25189384</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BK3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="BL3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="BM3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1774,196 +1828,196 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F4">
-        <v>2.74</v>
+        <v>1.92</v>
       </c>
       <c r="G4">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H4">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="J4">
+        <v>3.2</v>
+      </c>
+      <c r="K4">
+        <v>3.6</v>
+      </c>
+      <c r="L4">
+        <v>1.71</v>
+      </c>
+      <c r="M4">
+        <v>1.91</v>
+      </c>
+      <c r="N4">
+        <v>2.06</v>
+      </c>
+      <c r="O4">
+        <v>2.46</v>
+      </c>
+      <c r="P4">
+        <v>1.88</v>
+      </c>
+      <c r="Q4">
+        <v>2.2</v>
+      </c>
+      <c r="R4">
+        <v>1.84</v>
+      </c>
+      <c r="S4">
+        <v>2.14</v>
+      </c>
+      <c r="T4">
         <v>3.35</v>
-      </c>
-      <c r="K4">
-        <v>330</v>
-      </c>
-      <c r="L4">
-        <v>1.89</v>
-      </c>
-      <c r="M4">
-        <v>3.05</v>
-      </c>
-      <c r="N4">
-        <v>1.49</v>
-      </c>
-      <c r="O4">
-        <v>2.12</v>
-      </c>
-      <c r="P4">
-        <v>1.12</v>
-      </c>
-      <c r="Q4">
-        <v>1000</v>
-      </c>
-      <c r="R4">
-        <v>1.12</v>
-      </c>
-      <c r="S4">
-        <v>1000</v>
-      </c>
-      <c r="T4">
-        <v>1.49</v>
       </c>
       <c r="U4">
         <v>980</v>
       </c>
       <c r="V4">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="W4">
         <v>980</v>
       </c>
       <c r="X4">
-        <v>2.9</v>
+        <v>3.95</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z4">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="AC4">
         <v>980</v>
       </c>
       <c r="AD4">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="AE4">
         <v>980</v>
       </c>
       <c r="AF4">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="AG4">
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="AI4">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ4">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AK4">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL4">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AM4">
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
+        <v>3.8</v>
+      </c>
+      <c r="AS4">
+        <v>29</v>
+      </c>
+      <c r="AT4">
+        <v>7</v>
+      </c>
+      <c r="AU4">
+        <v>29</v>
+      </c>
+      <c r="AV4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AW4">
+        <v>55</v>
+      </c>
+      <c r="AX4">
         <v>4.3</v>
       </c>
-      <c r="AS4">
-        <v>1000</v>
-      </c>
-      <c r="AT4">
-        <v>4.3</v>
-      </c>
-      <c r="AU4">
-        <v>1000</v>
-      </c>
-      <c r="AV4">
-        <v>7</v>
-      </c>
-      <c r="AW4">
-        <v>1000</v>
-      </c>
-      <c r="AX4">
+      <c r="AY4">
+        <v>1000</v>
+      </c>
+      <c r="AZ4">
+        <v>3.65</v>
+      </c>
+      <c r="BA4">
         <v>21</v>
       </c>
-      <c r="AY4">
-        <v>1000</v>
-      </c>
-      <c r="AZ4">
-        <v>1.03</v>
-      </c>
-      <c r="BA4">
-        <v>1000</v>
-      </c>
       <c r="BB4">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="BC4">
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BG4">
-        <v>503208</v>
+        <v>37456793</v>
       </c>
       <c r="BH4">
-        <v>166903</v>
+        <v>7023879</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BK4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="BL4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="BM4" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1971,196 +2025,196 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F5">
-        <v>1.65</v>
+        <v>2.86</v>
       </c>
       <c r="G5">
-        <v>1.75</v>
+        <v>480</v>
       </c>
       <c r="H5">
-        <v>5.2</v>
+        <v>1.96</v>
       </c>
       <c r="I5">
-        <v>5.9</v>
+        <v>2.96</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K5">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="L5">
-        <v>2.06</v>
+        <v>1.31</v>
       </c>
       <c r="M5">
-        <v>2.32</v>
+        <v>13</v>
       </c>
       <c r="N5">
-        <v>1.76</v>
+        <v>1.08</v>
       </c>
       <c r="O5">
-        <v>1.94</v>
+        <v>4.3</v>
       </c>
       <c r="P5">
-        <v>1.82</v>
+        <v>1.12</v>
       </c>
       <c r="Q5">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="R5">
-        <v>2.06</v>
+        <v>1.12</v>
       </c>
       <c r="S5">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="T5">
-        <v>4.9</v>
+        <v>1.49</v>
       </c>
       <c r="U5">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="V5">
-        <v>16.5</v>
+        <v>1.1</v>
       </c>
       <c r="W5">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="X5">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="Y5">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="AA5">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="AC5">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD5">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AE5">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AF5">
-        <v>17</v>
+        <v>1.1</v>
       </c>
       <c r="AG5">
         <v>980</v>
       </c>
       <c r="AH5">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="AI5">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>8.6</v>
+        <v>1.1</v>
       </c>
       <c r="AK5">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AM5">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO5">
         <v>980</v>
       </c>
       <c r="AP5">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ5">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>13.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS5">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>14</v>
+        <v>1.1</v>
       </c>
       <c r="AU5">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="AW5">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>6.2</v>
+        <v>21</v>
       </c>
       <c r="AY5">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="BA5">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="BC5">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="BE5">
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BG5">
-        <v>12157288</v>
+        <v>503208</v>
       </c>
       <c r="BH5">
-        <v>10369569</v>
+        <v>166903</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BK5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="BL5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="BM5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2168,196 +2222,196 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F6">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G6">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="H6">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I6">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L6">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="M6">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P6">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q6">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R6">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="T6">
-        <v>1.45</v>
+        <v>13</v>
       </c>
       <c r="U6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V6">
-        <v>1.09</v>
+        <v>5.3</v>
       </c>
       <c r="W6">
         <v>23</v>
       </c>
       <c r="X6">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="Y6">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z6">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AA6">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB6">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="AC6">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD6">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="AE6">
         <v>11</v>
       </c>
       <c r="AF6">
-        <v>1.09</v>
+        <v>5.4</v>
       </c>
       <c r="AG6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH6">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AI6">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ6">
-        <v>4.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK6">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL6">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM6">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN6">
-        <v>1.31</v>
+        <v>6</v>
       </c>
       <c r="AO6">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AQ6">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AR6">
-        <v>1.09</v>
+        <v>14</v>
       </c>
       <c r="AS6">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AT6">
-        <v>1.09</v>
+        <v>14</v>
       </c>
       <c r="AU6">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AV6">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="AW6">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AX6">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AY6">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AZ6">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="BA6">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BB6">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="BC6">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="BD6">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BG6">
-        <v>2364082</v>
+        <v>12157288</v>
       </c>
       <c r="BH6">
-        <v>7431787</v>
+        <v>10369569</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="BK6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="BL6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="BM6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2365,1378 +2419,1378 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F7">
-        <v>2.42</v>
+        <v>1.67</v>
       </c>
       <c r="G7">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="H7">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="I7">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="J7">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="M7">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="O7">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="P7">
         <v>1.66</v>
       </c>
       <c r="Q7">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="R7">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T7">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="V7">
-        <v>13</v>
+        <v>5.3</v>
       </c>
       <c r="W7">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="X7">
-        <v>19</v>
+        <v>5.8</v>
       </c>
       <c r="Y7">
+        <v>48</v>
+      </c>
+      <c r="Z7">
+        <v>6.2</v>
+      </c>
+      <c r="AA7">
+        <v>130</v>
+      </c>
+      <c r="AB7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>12</v>
+      </c>
+      <c r="AD7">
+        <v>8.4</v>
+      </c>
+      <c r="AE7">
+        <v>11</v>
+      </c>
+      <c r="AF7">
+        <v>5.3</v>
+      </c>
+      <c r="AG7">
         <v>23</v>
       </c>
-      <c r="Z7">
-        <v>44</v>
-      </c>
-      <c r="AA7">
-        <v>50</v>
-      </c>
-      <c r="AB7">
-        <v>10.5</v>
-      </c>
-      <c r="AC7">
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>65</v>
+      </c>
+      <c r="AJ7">
+        <v>9.4</v>
+      </c>
+      <c r="AK7">
         <v>12.5</v>
       </c>
-      <c r="AD7">
-        <v>7.6</v>
-      </c>
-      <c r="AE7">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF7">
-        <v>12</v>
-      </c>
-      <c r="AG7">
-        <v>13.5</v>
-      </c>
-      <c r="AH7">
-        <v>28</v>
-      </c>
-      <c r="AI7">
-        <v>34</v>
-      </c>
-      <c r="AJ7">
-        <v>14.5</v>
-      </c>
-      <c r="AK7">
-        <v>17</v>
-      </c>
       <c r="AL7">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AM7">
         <v>11.5</v>
       </c>
       <c r="AN7">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="AO7">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AP7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="AQ7">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AR7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AS7">
+        <v>20</v>
+      </c>
+      <c r="AT7">
+        <v>4.9</v>
+      </c>
+      <c r="AU7">
+        <v>18.5</v>
+      </c>
+      <c r="AV7">
+        <v>5.5</v>
+      </c>
+      <c r="AW7">
         <v>34</v>
       </c>
-      <c r="AT7">
-        <v>22</v>
-      </c>
-      <c r="AU7">
-        <v>25</v>
-      </c>
-      <c r="AV7">
-        <v>30</v>
-      </c>
-      <c r="AW7">
-        <v>36</v>
-      </c>
       <c r="AX7">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="AY7">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AZ7">
-        <v>14</v>
+        <v>3.85</v>
       </c>
       <c r="BA7">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BC7">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="BD7">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="BE7">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BG7">
-        <v>44790</v>
+        <v>2364082</v>
       </c>
       <c r="BH7">
-        <v>63908</v>
+        <v>7431787</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="BK7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="BL7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="BM7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F8">
-        <v>1.42</v>
+        <v>2.46</v>
       </c>
       <c r="G8">
-        <v>1.44</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>3.05</v>
       </c>
       <c r="I8">
+        <v>3.15</v>
+      </c>
+      <c r="J8">
+        <v>3.6</v>
+      </c>
+      <c r="K8">
+        <v>3.7</v>
+      </c>
+      <c r="L8">
+        <v>2.22</v>
+      </c>
+      <c r="M8">
+        <v>2.28</v>
+      </c>
+      <c r="N8">
+        <v>1.79</v>
+      </c>
+      <c r="O8">
+        <v>1.82</v>
+      </c>
+      <c r="P8">
+        <v>1.66</v>
+      </c>
+      <c r="Q8">
+        <v>1.7</v>
+      </c>
+      <c r="R8">
+        <v>2.44</v>
+      </c>
+      <c r="S8">
+        <v>2.52</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>17</v>
+      </c>
+      <c r="V8">
+        <v>13.5</v>
+      </c>
+      <c r="W8">
+        <v>14.5</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>22</v>
+      </c>
+      <c r="Z8">
+        <v>46</v>
+      </c>
+      <c r="AA8">
+        <v>48</v>
+      </c>
+      <c r="AB8">
+        <v>12</v>
+      </c>
+      <c r="AC8">
+        <v>13</v>
+      </c>
+      <c r="AD8">
+        <v>7.8</v>
+      </c>
+      <c r="AE8">
+        <v>8.4</v>
+      </c>
+      <c r="AF8">
+        <v>12</v>
+      </c>
+      <c r="AG8">
+        <v>13</v>
+      </c>
+      <c r="AH8">
+        <v>28</v>
+      </c>
+      <c r="AI8">
+        <v>30</v>
+      </c>
+      <c r="AJ8">
+        <v>16</v>
+      </c>
+      <c r="AK8">
+        <v>16.5</v>
+      </c>
+      <c r="AL8">
+        <v>10.5</v>
+      </c>
+      <c r="AM8">
         <v>11.5</v>
       </c>
-      <c r="J8">
-        <v>4.8</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>1.86</v>
-      </c>
-      <c r="M8">
-        <v>2.02</v>
-      </c>
-      <c r="N8">
-        <v>1.99</v>
-      </c>
-      <c r="O8">
-        <v>2.16</v>
-      </c>
-      <c r="P8">
-        <v>2.3</v>
-      </c>
-      <c r="Q8">
-        <v>2.6</v>
-      </c>
-      <c r="R8">
-        <v>1.63</v>
-      </c>
-      <c r="S8">
-        <v>1.77</v>
-      </c>
-      <c r="T8">
-        <v>12</v>
-      </c>
-      <c r="U8">
-        <v>14.5</v>
-      </c>
-      <c r="V8">
+      <c r="AN8">
+        <v>15</v>
+      </c>
+      <c r="AO8">
+        <v>16.5</v>
+      </c>
+      <c r="AP8">
+        <v>34</v>
+      </c>
+      <c r="AQ8">
+        <v>38</v>
+      </c>
+      <c r="AR8">
+        <v>30</v>
+      </c>
+      <c r="AS8">
+        <v>34</v>
+      </c>
+      <c r="AT8">
+        <v>22</v>
+      </c>
+      <c r="AU8">
         <v>25</v>
       </c>
-      <c r="W8">
+      <c r="AV8">
         <v>30</v>
       </c>
-      <c r="X8">
-        <v>11.5</v>
-      </c>
-      <c r="Y8">
-        <v>95</v>
-      </c>
-      <c r="Z8">
-        <v>12</v>
-      </c>
-      <c r="AA8">
+      <c r="AW8">
+        <v>36</v>
+      </c>
+      <c r="AX8">
+        <v>55</v>
+      </c>
+      <c r="AY8">
+        <v>75</v>
+      </c>
+      <c r="AZ8">
+        <v>15.5</v>
+      </c>
+      <c r="BA8">
+        <v>17.5</v>
+      </c>
+      <c r="BB8">
+        <v>22</v>
+      </c>
+      <c r="BC8">
+        <v>24</v>
+      </c>
+      <c r="BD8">
+        <v>24</v>
+      </c>
+      <c r="BE8">
         <v>980</v>
       </c>
-      <c r="AB8">
-        <v>6.4</v>
-      </c>
-      <c r="AC8">
-        <v>7.4</v>
-      </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
-      <c r="AE8">
-        <v>11</v>
-      </c>
-      <c r="AF8">
-        <v>30</v>
-      </c>
-      <c r="AG8">
-        <v>42</v>
-      </c>
-      <c r="AH8">
-        <v>12</v>
-      </c>
-      <c r="AI8">
-        <v>240</v>
-      </c>
-      <c r="AJ8">
-        <v>6.6</v>
-      </c>
-      <c r="AK8">
-        <v>7.4</v>
-      </c>
-      <c r="AL8">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM8">
-        <v>11</v>
-      </c>
-      <c r="AN8">
-        <v>29</v>
-      </c>
-      <c r="AO8">
-        <v>36</v>
-      </c>
-      <c r="AP8">
-        <v>12.5</v>
-      </c>
-      <c r="AQ8">
-        <v>210</v>
-      </c>
-      <c r="AR8">
-        <v>10</v>
-      </c>
-      <c r="AS8">
-        <v>11.5</v>
-      </c>
-      <c r="AT8">
-        <v>15</v>
-      </c>
-      <c r="AU8">
-        <v>17</v>
-      </c>
-      <c r="AV8">
-        <v>40</v>
-      </c>
-      <c r="AW8">
-        <v>55</v>
-      </c>
-      <c r="AX8">
-        <v>12</v>
-      </c>
-      <c r="AY8">
-        <v>980</v>
-      </c>
-      <c r="AZ8">
-        <v>6.6</v>
-      </c>
-      <c r="BA8">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BB8">
-        <v>12</v>
-      </c>
-      <c r="BC8">
-        <v>400</v>
-      </c>
-      <c r="BD8">
-        <v>12.5</v>
-      </c>
-      <c r="BE8">
-        <v>1000</v>
-      </c>
       <c r="BF8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BG8">
-        <v>676467</v>
+        <v>44790</v>
       </c>
       <c r="BH8">
-        <v>52613879</v>
+        <v>63908</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BK8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BL8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="BM8" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>2.24</v>
+        <v>1.41</v>
       </c>
       <c r="G9">
+        <v>1.44</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>11.5</v>
+      </c>
+      <c r="J9">
+        <v>4.9</v>
+      </c>
+      <c r="K9">
+        <v>5.2</v>
+      </c>
+      <c r="L9">
+        <v>1.91</v>
+      </c>
+      <c r="M9">
+        <v>1.97</v>
+      </c>
+      <c r="N9">
+        <v>2.02</v>
+      </c>
+      <c r="O9">
+        <v>2.1</v>
+      </c>
+      <c r="P9">
+        <v>2.4</v>
+      </c>
+      <c r="Q9">
+        <v>2.52</v>
+      </c>
+      <c r="R9">
+        <v>1.66</v>
+      </c>
+      <c r="S9">
+        <v>1.72</v>
+      </c>
+      <c r="T9">
+        <v>12.5</v>
+      </c>
+      <c r="U9">
+        <v>17.5</v>
+      </c>
+      <c r="V9">
+        <v>24</v>
+      </c>
+      <c r="W9">
+        <v>34</v>
+      </c>
+      <c r="X9">
+        <v>12</v>
+      </c>
+      <c r="Y9">
+        <v>95</v>
+      </c>
+      <c r="Z9">
+        <v>12.5</v>
+      </c>
+      <c r="AA9">
         <v>980</v>
       </c>
-      <c r="H9">
-        <v>2.64</v>
-      </c>
-      <c r="I9">
-        <v>980</v>
-      </c>
-      <c r="J9">
-        <v>1.2</v>
-      </c>
-      <c r="K9">
-        <v>980</v>
-      </c>
-      <c r="L9">
-        <v>1.4</v>
-      </c>
-      <c r="M9">
-        <v>2.18</v>
-      </c>
-      <c r="N9">
-        <v>1.86</v>
-      </c>
-      <c r="O9">
-        <v>3.45</v>
-      </c>
-      <c r="P9">
-        <v>1.12</v>
-      </c>
-      <c r="Q9">
-        <v>1000</v>
-      </c>
-      <c r="R9">
-        <v>1.12</v>
-      </c>
-      <c r="S9">
-        <v>1000</v>
-      </c>
-      <c r="T9">
-        <v>1.48</v>
-      </c>
-      <c r="U9">
-        <v>14</v>
-      </c>
-      <c r="V9">
-        <v>1.07</v>
-      </c>
-      <c r="W9">
-        <v>1000</v>
-      </c>
-      <c r="X9">
-        <v>1.07</v>
-      </c>
-      <c r="Y9">
-        <v>1000</v>
-      </c>
-      <c r="Z9">
-        <v>1.07</v>
-      </c>
-      <c r="AA9">
-        <v>1000</v>
-      </c>
       <c r="AB9">
-        <v>1.07</v>
+        <v>6.4</v>
       </c>
       <c r="AC9">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>1.07</v>
+        <v>10</v>
       </c>
       <c r="AE9">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AF9">
-        <v>1.07</v>
+        <v>30</v>
       </c>
       <c r="AG9">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH9">
-        <v>1.07</v>
+        <v>12.5</v>
       </c>
       <c r="AI9">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ9">
-        <v>1.07</v>
+        <v>6.6</v>
       </c>
       <c r="AK9">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AL9">
-        <v>1.07</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM9">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AN9">
-        <v>1.07</v>
+        <v>30</v>
       </c>
       <c r="AO9">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP9">
-        <v>1.07</v>
+        <v>12</v>
       </c>
       <c r="AQ9">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AR9">
-        <v>1.07</v>
+        <v>10</v>
       </c>
       <c r="AS9">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AT9">
-        <v>1.07</v>
+        <v>15.5</v>
       </c>
       <c r="AU9">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AV9">
-        <v>1.07</v>
+        <v>13.5</v>
       </c>
       <c r="AW9">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AX9">
-        <v>1.07</v>
+        <v>12.5</v>
       </c>
       <c r="AY9">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AZ9">
-        <v>1.07</v>
+        <v>7.2</v>
       </c>
       <c r="BA9">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="BB9">
-        <v>1.07</v>
+        <v>12</v>
       </c>
       <c r="BC9">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="BD9">
-        <v>1.07</v>
+        <v>12.5</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BG9">
-        <v>5170870</v>
+        <v>676467</v>
       </c>
       <c r="BH9">
-        <v>38208152</v>
+        <v>52613879</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BK9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="BL9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="BM9" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F10">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
       <c r="G10">
-        <v>980</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
+        <v>2.94</v>
+      </c>
+      <c r="I10">
         <v>3.8</v>
       </c>
-      <c r="I10">
-        <v>6.8</v>
-      </c>
       <c r="J10">
-        <v>1.96</v>
+        <v>2.86</v>
       </c>
       <c r="K10">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L10">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="M10">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>1.28</v>
+        <v>2.34</v>
       </c>
       <c r="O10">
+        <v>2.8</v>
+      </c>
+      <c r="P10">
+        <v>1.94</v>
+      </c>
+      <c r="Q10">
+        <v>2.28</v>
+      </c>
+      <c r="R10">
+        <v>1.78</v>
+      </c>
+      <c r="S10">
+        <v>2.06</v>
+      </c>
+      <c r="T10">
+        <v>3.15</v>
+      </c>
+      <c r="U10">
+        <v>13</v>
+      </c>
+      <c r="V10">
+        <v>3.3</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <v>3.9</v>
+      </c>
+      <c r="Y10">
+        <v>25</v>
+      </c>
+      <c r="Z10">
+        <v>3.95</v>
+      </c>
+      <c r="AA10">
+        <v>75</v>
+      </c>
+      <c r="AB10">
+        <v>3.2</v>
+      </c>
+      <c r="AC10">
+        <v>10.5</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>3.65</v>
+      </c>
+      <c r="AG10">
+        <v>18</v>
+      </c>
+      <c r="AH10">
+        <v>3.85</v>
+      </c>
+      <c r="AI10">
+        <v>55</v>
+      </c>
+      <c r="AJ10">
         <v>3.7</v>
       </c>
-      <c r="P10">
-        <v>1.12</v>
-      </c>
-      <c r="Q10">
-        <v>1000</v>
-      </c>
-      <c r="R10">
-        <v>1.12</v>
-      </c>
-      <c r="S10">
-        <v>1000</v>
-      </c>
-      <c r="T10">
-        <v>1.49</v>
-      </c>
-      <c r="U10">
-        <v>1000</v>
-      </c>
-      <c r="V10">
-        <v>1.01</v>
-      </c>
-      <c r="W10">
-        <v>1000</v>
-      </c>
-      <c r="X10">
-        <v>1.01</v>
-      </c>
-      <c r="Y10">
-        <v>1000</v>
-      </c>
-      <c r="Z10">
-        <v>1.01</v>
-      </c>
-      <c r="AA10">
-        <v>1000</v>
-      </c>
-      <c r="AB10">
-        <v>1.01</v>
-      </c>
-      <c r="AC10">
-        <v>1000</v>
-      </c>
-      <c r="AD10">
-        <v>1.01</v>
-      </c>
-      <c r="AE10">
-        <v>1000</v>
-      </c>
-      <c r="AF10">
-        <v>1.01</v>
-      </c>
-      <c r="AG10">
-        <v>1000</v>
-      </c>
-      <c r="AH10">
-        <v>1.01</v>
-      </c>
-      <c r="AI10">
-        <v>1000</v>
-      </c>
-      <c r="AJ10">
-        <v>1.01</v>
-      </c>
       <c r="AK10">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL10">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AM10">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AN10">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AO10">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AP10">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AS10">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AT10">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AU10">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AV10">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AW10">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AX10">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BA10">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="BB10">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BC10">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="BD10">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BG10">
-        <v>41860831</v>
+        <v>5170870</v>
       </c>
       <c r="BH10">
-        <v>10539864</v>
+        <v>38208152</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BK10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="BL10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="BM10" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F11">
-        <v>1.38</v>
+        <v>1.94</v>
       </c>
       <c r="G11">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="H11">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="I11">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="J11">
-        <v>4.8</v>
+        <v>2.96</v>
       </c>
       <c r="K11">
-        <v>6.6</v>
+        <v>3.55</v>
       </c>
       <c r="L11">
+        <v>1.45</v>
+      </c>
+      <c r="M11">
+        <v>1.61</v>
+      </c>
+      <c r="N11">
+        <v>2.64</v>
+      </c>
+      <c r="O11">
+        <v>3.2</v>
+      </c>
+      <c r="P11">
+        <v>2.2</v>
+      </c>
+      <c r="Q11">
+        <v>2.64</v>
+      </c>
+      <c r="R11">
+        <v>1.61</v>
+      </c>
+      <c r="S11">
+        <v>1.83</v>
+      </c>
+      <c r="T11">
+        <v>3.85</v>
+      </c>
+      <c r="U11">
+        <v>8.6</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>13.5</v>
+      </c>
+      <c r="X11">
+        <v>1.29</v>
+      </c>
+      <c r="Y11">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>1.31</v>
+      </c>
+      <c r="AA11">
+        <v>1000</v>
+      </c>
+      <c r="AB11">
+        <v>5.3</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>3.8</v>
+      </c>
+      <c r="AE11">
+        <v>8.4</v>
+      </c>
+      <c r="AF11">
+        <v>2.62</v>
+      </c>
+      <c r="AG11">
+        <v>25</v>
+      </c>
+      <c r="AH11">
+        <v>1.31</v>
+      </c>
+      <c r="AI11">
+        <v>1000</v>
+      </c>
+      <c r="AJ11">
+        <v>4.3</v>
+      </c>
+      <c r="AK11">
+        <v>11.5</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <v>13</v>
+      </c>
+      <c r="AN11">
+        <v>2.48</v>
+      </c>
+      <c r="AO11">
+        <v>32</v>
+      </c>
+      <c r="AP11">
+        <v>1.31</v>
+      </c>
+      <c r="AQ11">
+        <v>1000</v>
+      </c>
+      <c r="AR11">
         <v>2.44</v>
       </c>
-      <c r="M11">
-        <v>2.9</v>
-      </c>
-      <c r="N11">
-        <v>1.52</v>
-      </c>
-      <c r="O11">
-        <v>1.69</v>
-      </c>
-      <c r="P11">
-        <v>1.84</v>
-      </c>
-      <c r="Q11">
-        <v>1.99</v>
-      </c>
-      <c r="R11">
-        <v>2.02</v>
-      </c>
-      <c r="S11">
-        <v>2.18</v>
-      </c>
-      <c r="T11">
-        <v>1.61</v>
-      </c>
-      <c r="U11">
-        <v>980</v>
-      </c>
-      <c r="V11">
+      <c r="AS11">
+        <v>27</v>
+      </c>
+      <c r="AT11">
         <v>1.33</v>
       </c>
-      <c r="W11">
-        <v>980</v>
-      </c>
-      <c r="X11">
-        <v>1.23</v>
-      </c>
-      <c r="Y11">
-        <v>1000</v>
-      </c>
-      <c r="Z11">
-        <v>1.23</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>4.3</v>
-      </c>
-      <c r="AC11">
-        <v>980</v>
-      </c>
-      <c r="AD11">
-        <v>4.6</v>
-      </c>
-      <c r="AE11">
-        <v>980</v>
-      </c>
-      <c r="AF11">
-        <v>1.35</v>
-      </c>
-      <c r="AG11">
-        <v>980</v>
-      </c>
-      <c r="AH11">
-        <v>1.22</v>
-      </c>
-      <c r="AI11">
-        <v>1000</v>
-      </c>
-      <c r="AJ11">
-        <v>4.1</v>
-      </c>
-      <c r="AK11">
-        <v>10.5</v>
-      </c>
-      <c r="AL11">
-        <v>4.3</v>
-      </c>
-      <c r="AM11">
-        <v>980</v>
-      </c>
-      <c r="AN11">
-        <v>1.53</v>
-      </c>
-      <c r="AO11">
-        <v>980</v>
-      </c>
-      <c r="AP11">
-        <v>1.22</v>
-      </c>
-      <c r="AQ11">
-        <v>1000</v>
-      </c>
-      <c r="AR11">
-        <v>4.5</v>
-      </c>
-      <c r="AS11">
-        <v>13.5</v>
-      </c>
-      <c r="AT11">
-        <v>4.7</v>
-      </c>
       <c r="AU11">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AV11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AW11">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX11">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>3.1</v>
+        <v>1.33</v>
       </c>
       <c r="BA11">
-        <v>5.7</v>
+        <v>29</v>
       </c>
       <c r="BB11">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BG11">
-        <v>5344868</v>
+        <v>41860831</v>
       </c>
       <c r="BH11">
-        <v>10732580</v>
+        <v>10539864</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BK11" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="BL11" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="BM11" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F12">
+        <v>1.34</v>
+      </c>
+      <c r="G12">
+        <v>1.39</v>
+      </c>
+      <c r="H12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>5.4</v>
+      </c>
+      <c r="K12">
+        <v>6.2</v>
+      </c>
+      <c r="L12">
+        <v>2.52</v>
+      </c>
+      <c r="M12">
+        <v>2.9</v>
+      </c>
+      <c r="N12">
+        <v>1.53</v>
+      </c>
+      <c r="O12">
+        <v>1.66</v>
+      </c>
+      <c r="P12">
+        <v>1.89</v>
+      </c>
+      <c r="Q12">
+        <v>2.02</v>
+      </c>
+      <c r="R12">
+        <v>1.98</v>
+      </c>
+      <c r="S12">
         <v>2.12</v>
       </c>
-      <c r="G12">
-        <v>2.56</v>
-      </c>
-      <c r="H12">
-        <v>2.82</v>
-      </c>
-      <c r="I12">
-        <v>4.1</v>
-      </c>
-      <c r="J12">
-        <v>3.15</v>
-      </c>
-      <c r="K12">
-        <v>4.8</v>
-      </c>
-      <c r="L12">
-        <v>2.06</v>
-      </c>
-      <c r="M12">
-        <v>2.54</v>
-      </c>
-      <c r="N12">
-        <v>1.65</v>
-      </c>
-      <c r="O12">
-        <v>1.94</v>
-      </c>
-      <c r="P12">
-        <v>1.68</v>
-      </c>
-      <c r="Q12">
-        <v>1.79</v>
-      </c>
-      <c r="R12">
-        <v>2.28</v>
-      </c>
-      <c r="S12">
-        <v>2.48</v>
-      </c>
       <c r="T12">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="V12">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="W12">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="X12">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="Y12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Z12">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="AA12">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="AC12">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AD12">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="AE12">
+        <v>15</v>
+      </c>
+      <c r="AF12">
+        <v>5.9</v>
+      </c>
+      <c r="AG12">
+        <v>980</v>
+      </c>
+      <c r="AH12">
+        <v>6.4</v>
+      </c>
+      <c r="AI12">
+        <v>150</v>
+      </c>
+      <c r="AJ12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK12">
         <v>10.5</v>
       </c>
-      <c r="AF12">
-        <v>3.45</v>
-      </c>
-      <c r="AG12">
-        <v>17.5</v>
-      </c>
-      <c r="AH12">
-        <v>3.9</v>
-      </c>
-      <c r="AI12">
-        <v>44</v>
-      </c>
-      <c r="AJ12">
-        <v>3.45</v>
-      </c>
-      <c r="AK12">
-        <v>18.5</v>
-      </c>
       <c r="AL12">
-        <v>3.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM12">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN12">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="AO12">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AP12">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="AQ12">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AR12">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="AS12">
+        <v>13</v>
+      </c>
+      <c r="AT12">
+        <v>12</v>
+      </c>
+      <c r="AU12">
+        <v>15.5</v>
+      </c>
+      <c r="AV12">
+        <v>5.7</v>
+      </c>
+      <c r="AW12">
         <v>36</v>
       </c>
-      <c r="AT12">
-        <v>3.7</v>
-      </c>
-      <c r="AU12">
-        <v>28</v>
-      </c>
-      <c r="AV12">
-        <v>3.9</v>
-      </c>
-      <c r="AW12">
-        <v>42</v>
-      </c>
       <c r="AX12">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="AY12">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ12">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="BA12">
-        <v>18.5</v>
+        <v>5.2</v>
       </c>
       <c r="BB12">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="BC12">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="BD12">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BG12">
-        <v>7196232</v>
+        <v>5344868</v>
       </c>
       <c r="BH12">
-        <v>6818039</v>
+        <v>10732580</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BK12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="BL12" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BM12" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F13">
+        <v>2.2</v>
+      </c>
+      <c r="G13">
+        <v>2.36</v>
+      </c>
+      <c r="H13">
+        <v>3.15</v>
+      </c>
+      <c r="I13">
+        <v>3.55</v>
+      </c>
+      <c r="J13">
+        <v>3.35</v>
+      </c>
+      <c r="K13">
+        <v>3.85</v>
+      </c>
+      <c r="L13">
+        <v>2.06</v>
+      </c>
+      <c r="M13">
+        <v>2.32</v>
+      </c>
+      <c r="N13">
+        <v>1.75</v>
+      </c>
+      <c r="O13">
         <v>1.94</v>
       </c>
-      <c r="G13">
-        <v>990</v>
-      </c>
-      <c r="H13">
-        <v>1.04</v>
-      </c>
-      <c r="I13">
-        <v>7.2</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>950</v>
-      </c>
-      <c r="L13">
-        <v>1.2</v>
-      </c>
-      <c r="M13">
+      <c r="P13">
+        <v>1.68</v>
+      </c>
+      <c r="Q13">
+        <v>1.79</v>
+      </c>
+      <c r="R13">
+        <v>2.28</v>
+      </c>
+      <c r="S13">
+        <v>2.48</v>
+      </c>
+      <c r="T13">
+        <v>3.75</v>
+      </c>
+      <c r="U13">
         <v>21</v>
       </c>
-      <c r="N13">
-        <v>1.05</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <v>1.12</v>
-      </c>
-      <c r="Q13">
-        <v>1000</v>
-      </c>
-      <c r="R13">
-        <v>1.12</v>
-      </c>
-      <c r="S13">
-        <v>1000</v>
-      </c>
-      <c r="T13">
-        <v>1.48</v>
-      </c>
-      <c r="U13">
-        <v>1000</v>
-      </c>
       <c r="V13">
-        <v>2.36</v>
+        <v>11</v>
       </c>
       <c r="W13">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="X13">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="Y13">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z13">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="AA13">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC13">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD13">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="AE13">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AF13">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="AG13">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH13">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="AI13">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ13">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AK13">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL13">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="AM13">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AN13">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="AO13">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AP13">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="AQ13">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR13">
+        <v>3.9</v>
+      </c>
+      <c r="AS13">
+        <v>36</v>
+      </c>
+      <c r="AT13">
+        <v>3.9</v>
+      </c>
+      <c r="AU13">
+        <v>28</v>
+      </c>
+      <c r="AV13">
+        <v>3.95</v>
+      </c>
+      <c r="AW13">
+        <v>42</v>
+      </c>
+      <c r="AX13">
+        <v>4.1</v>
+      </c>
+      <c r="AY13">
+        <v>1000</v>
+      </c>
+      <c r="AZ13">
         <v>3.5</v>
       </c>
-      <c r="AS13">
-        <v>1000</v>
-      </c>
-      <c r="AT13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU13">
-        <v>1000</v>
-      </c>
-      <c r="AV13">
-        <v>5.9</v>
-      </c>
-      <c r="AW13">
-        <v>1000</v>
-      </c>
-      <c r="AX13">
-        <v>8.4</v>
-      </c>
-      <c r="AY13">
-        <v>1000</v>
-      </c>
-      <c r="AZ13">
-        <v>1.01</v>
-      </c>
       <c r="BA13">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="BB13">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="BC13">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="BD13">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BG13">
-        <v>4231683</v>
+        <v>7196232</v>
       </c>
       <c r="BH13">
-        <v>69819</v>
+        <v>6818039</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BK13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BL13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="BM13" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3744,160 +3798,160 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>1.26</v>
+        <v>2.16</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H14">
-        <v>1.26</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>1.41</v>
+        <v>3.25</v>
       </c>
       <c r="K14">
-        <v>330</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>1.94</v>
       </c>
       <c r="N14">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="O14">
-        <v>6.4</v>
+        <v>2.46</v>
       </c>
       <c r="P14">
-        <v>1.12</v>
+        <v>1.89</v>
       </c>
       <c r="Q14">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="R14">
         <v>1.12</v>
       </c>
       <c r="S14">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="T14">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="U14">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="V14">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="W14">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="X14">
-        <v>1.1</v>
+        <v>1.77</v>
       </c>
       <c r="Y14">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z14">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AA14">
         <v>1000</v>
       </c>
       <c r="AB14">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="AC14">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD14">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="AE14">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AF14">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AG14">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH14">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="AI14">
         <v>1000</v>
       </c>
       <c r="AJ14">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="AK14">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL14">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AM14">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AN14">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO14">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP14">
-        <v>8.199999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AQ14">
         <v>1000</v>
       </c>
       <c r="AR14">
-        <v>2.88</v>
+        <v>1.18</v>
       </c>
       <c r="AS14">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AT14">
-        <v>8.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="AU14">
         <v>1000</v>
       </c>
       <c r="AV14">
-        <v>7.4</v>
+        <v>1.17</v>
       </c>
       <c r="AW14">
         <v>1000</v>
       </c>
       <c r="AX14">
-        <v>19.5</v>
+        <v>1.17</v>
       </c>
       <c r="AY14">
         <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="BA14">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="BB14">
         <v>1.01</v>
@@ -3906,34 +3960,34 @@
         <v>1000</v>
       </c>
       <c r="BD14">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BG14">
-        <v>13638535</v>
+        <v>4231683</v>
       </c>
       <c r="BH14">
-        <v>7005170</v>
+        <v>69819</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="BK14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BL14" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="BM14" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3941,512 +3995,512 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F15">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>2.48</v>
+        <v>6.6</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="I15">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="J15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K15">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L15">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="M15">
         <v>2.3</v>
       </c>
       <c r="N15">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="O15">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="P15">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Q15">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="R15">
-        <v>2.42</v>
+        <v>1.93</v>
       </c>
       <c r="S15">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="T15">
-        <v>16</v>
+        <v>4.9</v>
       </c>
       <c r="U15">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="V15">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="W15">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="X15">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="Y15">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Z15">
-        <v>42</v>
+        <v>2.02</v>
       </c>
       <c r="AA15">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AB15">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="AC15">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD15">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="AE15">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AF15">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="AG15">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH15">
-        <v>27</v>
+        <v>1.86</v>
       </c>
       <c r="AI15">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AJ15">
-        <v>15.5</v>
+        <v>1.1</v>
       </c>
       <c r="AK15">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL15">
+        <v>5.4</v>
+      </c>
+      <c r="AM15">
+        <v>980</v>
+      </c>
+      <c r="AN15">
+        <v>5.4</v>
+      </c>
+      <c r="AO15">
+        <v>980</v>
+      </c>
+      <c r="AP15">
+        <v>1.1</v>
+      </c>
+      <c r="AQ15">
+        <v>1000</v>
+      </c>
+      <c r="AR15">
+        <v>1.1</v>
+      </c>
+      <c r="AS15">
+        <v>1000</v>
+      </c>
+      <c r="AT15">
+        <v>1.1</v>
+      </c>
+      <c r="AU15">
+        <v>1000</v>
+      </c>
+      <c r="AV15">
+        <v>1.1</v>
+      </c>
+      <c r="AW15">
+        <v>1000</v>
+      </c>
+      <c r="AX15">
+        <v>1.1</v>
+      </c>
+      <c r="AY15">
+        <v>1000</v>
+      </c>
+      <c r="AZ15">
+        <v>1.1</v>
+      </c>
+      <c r="BA15">
+        <v>1000</v>
+      </c>
+      <c r="BB15">
+        <v>1.1</v>
+      </c>
+      <c r="BC15">
         <v>10.5</v>
       </c>
-      <c r="AM15">
-        <v>11.5</v>
-      </c>
-      <c r="AN15">
-        <v>14.5</v>
-      </c>
-      <c r="AO15">
-        <v>16</v>
-      </c>
-      <c r="AP15">
-        <v>34</v>
-      </c>
-      <c r="AQ15">
-        <v>38</v>
-      </c>
-      <c r="AR15">
-        <v>30</v>
-      </c>
-      <c r="AS15">
-        <v>34</v>
-      </c>
-      <c r="AT15">
-        <v>22</v>
-      </c>
-      <c r="AU15">
-        <v>24</v>
-      </c>
-      <c r="AV15">
-        <v>30</v>
-      </c>
-      <c r="AW15">
-        <v>32</v>
-      </c>
-      <c r="AX15">
-        <v>60</v>
-      </c>
-      <c r="AY15">
-        <v>75</v>
-      </c>
-      <c r="AZ15">
-        <v>15</v>
-      </c>
-      <c r="BA15">
-        <v>16</v>
-      </c>
-      <c r="BB15">
-        <v>20</v>
-      </c>
-      <c r="BC15">
-        <v>23</v>
-      </c>
       <c r="BD15">
-        <v>21</v>
+        <v>1.1</v>
       </c>
       <c r="BE15">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BG15">
-        <v>52457652</v>
+        <v>13638535</v>
       </c>
       <c r="BH15">
-        <v>48783</v>
+        <v>7005170</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BK15" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BL15" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="BM15" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F16">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="G16">
-        <v>2.98</v>
+        <v>2.52</v>
       </c>
       <c r="H16">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="J16">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="P16">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="Q16">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R16">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="S16">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="T16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>17</v>
+      </c>
+      <c r="V16">
         <v>13.5</v>
       </c>
-      <c r="U16">
-        <v>14</v>
-      </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
       <c r="W16">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16">
+        <v>22</v>
+      </c>
+      <c r="Z16">
+        <v>42</v>
+      </c>
+      <c r="AA16">
+        <v>48</v>
+      </c>
+      <c r="AB16">
+        <v>12</v>
+      </c>
+      <c r="AC16">
+        <v>13</v>
+      </c>
+      <c r="AD16">
+        <v>7.8</v>
+      </c>
+      <c r="AE16">
+        <v>8.6</v>
+      </c>
+      <c r="AF16">
+        <v>12</v>
+      </c>
+      <c r="AG16">
+        <v>13</v>
+      </c>
+      <c r="AH16">
+        <v>27</v>
+      </c>
+      <c r="AI16">
+        <v>30</v>
+      </c>
+      <c r="AJ16">
+        <v>15.5</v>
+      </c>
+      <c r="AK16">
+        <v>17</v>
+      </c>
+      <c r="AL16">
+        <v>10.5</v>
+      </c>
+      <c r="AM16">
+        <v>11.5</v>
+      </c>
+      <c r="AN16">
+        <v>14.5</v>
+      </c>
+      <c r="AO16">
+        <v>16</v>
+      </c>
+      <c r="AP16">
+        <v>34</v>
+      </c>
+      <c r="AQ16">
+        <v>38</v>
+      </c>
+      <c r="AR16">
+        <v>30</v>
+      </c>
+      <c r="AS16">
+        <v>34</v>
+      </c>
+      <c r="AT16">
+        <v>22</v>
+      </c>
+      <c r="AU16">
+        <v>24</v>
+      </c>
+      <c r="AV16">
+        <v>30</v>
+      </c>
+      <c r="AW16">
+        <v>32</v>
+      </c>
+      <c r="AX16">
+        <v>65</v>
+      </c>
+      <c r="AY16">
+        <v>75</v>
+      </c>
+      <c r="AZ16">
         <v>15</v>
       </c>
-      <c r="Y16">
+      <c r="BA16">
         <v>16.5</v>
       </c>
-      <c r="Z16">
-        <v>32</v>
-      </c>
-      <c r="AA16">
-        <v>38</v>
-      </c>
-      <c r="AB16">
-        <v>11</v>
-      </c>
-      <c r="AC16">
-        <v>12</v>
-      </c>
-      <c r="AD16">
-        <v>7.4</v>
-      </c>
-      <c r="AE16">
-        <v>8</v>
-      </c>
-      <c r="AF16">
-        <v>11</v>
-      </c>
-      <c r="AG16">
-        <v>12</v>
-      </c>
-      <c r="AH16">
-        <v>25</v>
-      </c>
-      <c r="AI16">
-        <v>28</v>
-      </c>
-      <c r="AJ16">
-        <v>17.5</v>
-      </c>
-      <c r="AK16">
-        <v>19.5</v>
-      </c>
-      <c r="AL16">
-        <v>12</v>
-      </c>
-      <c r="AM16">
-        <v>13</v>
-      </c>
-      <c r="AN16">
-        <v>16</v>
-      </c>
-      <c r="AO16">
-        <v>17.5</v>
-      </c>
-      <c r="AP16">
-        <v>36</v>
-      </c>
-      <c r="AQ16">
-        <v>42</v>
-      </c>
-      <c r="AR16">
-        <v>42</v>
-      </c>
-      <c r="AS16">
-        <v>48</v>
-      </c>
-      <c r="AT16">
-        <v>30</v>
-      </c>
-      <c r="AU16">
-        <v>34</v>
-      </c>
-      <c r="AV16">
-        <v>40</v>
-      </c>
-      <c r="AW16">
-        <v>46</v>
-      </c>
-      <c r="AX16">
-        <v>38</v>
-      </c>
-      <c r="AY16">
-        <v>95</v>
-      </c>
-      <c r="AZ16">
-        <v>25</v>
-      </c>
-      <c r="BA16">
-        <v>29</v>
-      </c>
       <c r="BB16">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BC16">
         <v>23</v>
       </c>
       <c r="BD16">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="BE16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BG16">
-        <v>56967</v>
+        <v>52457652</v>
       </c>
       <c r="BH16">
-        <v>127991</v>
+        <v>48783</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="BK16" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BL16" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="BM16" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F17">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="G17">
+        <v>3.05</v>
+      </c>
+      <c r="H17">
+        <v>2.56</v>
+      </c>
+      <c r="I17">
+        <v>2.6</v>
+      </c>
+      <c r="J17">
+        <v>3.55</v>
+      </c>
+      <c r="K17">
+        <v>3.6</v>
+      </c>
+      <c r="L17">
+        <v>1.98</v>
+      </c>
+      <c r="M17">
+        <v>2.02</v>
+      </c>
+      <c r="N17">
         <v>1.99</v>
       </c>
-      <c r="H17">
-        <v>4.2</v>
-      </c>
-      <c r="I17">
-        <v>4.3</v>
-      </c>
-      <c r="J17">
-        <v>3.8</v>
-      </c>
-      <c r="K17">
-        <v>3.95</v>
-      </c>
-      <c r="L17">
-        <v>2.12</v>
-      </c>
-      <c r="M17">
-        <v>2.26</v>
-      </c>
-      <c r="N17">
-        <v>1.79</v>
-      </c>
       <c r="O17">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="P17">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q17">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R17">
         <v>2.18</v>
       </c>
       <c r="S17">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T17">
+        <v>13.5</v>
+      </c>
+      <c r="U17">
         <v>14.5</v>
       </c>
-      <c r="U17">
+      <c r="V17">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>11</v>
+      </c>
+      <c r="X17">
+        <v>15</v>
+      </c>
+      <c r="Y17">
         <v>16.5</v>
       </c>
-      <c r="V17">
-        <v>16</v>
-      </c>
-      <c r="W17">
-        <v>17.5</v>
-      </c>
-      <c r="X17">
+      <c r="Z17">
+        <v>32</v>
+      </c>
+      <c r="AA17">
+        <v>36</v>
+      </c>
+      <c r="AB17">
+        <v>12</v>
+      </c>
+      <c r="AC17">
+        <v>13</v>
+      </c>
+      <c r="AD17">
+        <v>7.4</v>
+      </c>
+      <c r="AE17">
+        <v>7.8</v>
+      </c>
+      <c r="AF17">
+        <v>11</v>
+      </c>
+      <c r="AG17">
+        <v>12</v>
+      </c>
+      <c r="AH17">
+        <v>25</v>
+      </c>
+      <c r="AI17">
         <v>28</v>
       </c>
-      <c r="Y17">
-        <v>32</v>
-      </c>
-      <c r="Z17">
-        <v>17.5</v>
-      </c>
-      <c r="AA17">
-        <v>85</v>
-      </c>
-      <c r="AB17">
-        <v>9.6</v>
-      </c>
-      <c r="AC17">
-        <v>10.5</v>
-      </c>
-      <c r="AD17">
-        <v>8</v>
-      </c>
-      <c r="AE17">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF17">
-        <v>15</v>
-      </c>
-      <c r="AG17">
-        <v>16.5</v>
-      </c>
-      <c r="AH17">
-        <v>40</v>
-      </c>
-      <c r="AI17">
-        <v>46</v>
-      </c>
       <c r="AJ17">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK17">
+        <v>19.5</v>
+      </c>
+      <c r="AL17">
+        <v>12</v>
+      </c>
+      <c r="AM17">
         <v>13</v>
-      </c>
-      <c r="AL17">
-        <v>9.4</v>
-      </c>
-      <c r="AM17">
-        <v>10</v>
       </c>
       <c r="AN17">
         <v>16</v>
@@ -4455,667 +4509,667 @@
         <v>17.5</v>
       </c>
       <c r="AP17">
+        <v>36</v>
+      </c>
+      <c r="AQ17">
+        <v>40</v>
+      </c>
+      <c r="AR17">
         <v>42</v>
       </c>
-      <c r="AQ17">
-        <v>55</v>
-      </c>
-      <c r="AR17">
-        <v>21</v>
-      </c>
       <c r="AS17">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AT17">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="AU17">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AV17">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AW17">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AX17">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AY17">
         <v>85</v>
       </c>
       <c r="AZ17">
-        <v>9.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="BA17">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="BB17">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="BC17">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="BD17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BE17">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BG17">
-        <v>232095</v>
+        <v>56967</v>
       </c>
       <c r="BH17">
-        <v>10762</v>
+        <v>127991</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="BK17" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="BL17" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="BM17" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F18">
-        <v>3.95</v>
+        <v>1.97</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>1.98</v>
       </c>
       <c r="H18">
-        <v>1.98</v>
+        <v>4.2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K18">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L18">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="N18">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="P18">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q18">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="R18">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="S18">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T18">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>16.5</v>
+      </c>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <v>18</v>
+      </c>
+      <c r="X18">
+        <v>29</v>
+      </c>
+      <c r="Y18">
+        <v>32</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>85</v>
+      </c>
+      <c r="AB18">
+        <v>9.6</v>
+      </c>
+      <c r="AC18">
+        <v>10.5</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF18">
+        <v>15.5</v>
+      </c>
+      <c r="AG18">
+        <v>16.5</v>
+      </c>
+      <c r="AH18">
+        <v>42</v>
+      </c>
+      <c r="AI18">
+        <v>48</v>
+      </c>
+      <c r="AJ18">
+        <v>11.5</v>
+      </c>
+      <c r="AK18">
+        <v>12.5</v>
+      </c>
+      <c r="AL18">
+        <v>9.4</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>16</v>
+      </c>
+      <c r="AO18">
+        <v>17.5</v>
+      </c>
+      <c r="AP18">
+        <v>40</v>
+      </c>
+      <c r="AQ18">
+        <v>55</v>
+      </c>
+      <c r="AR18">
+        <v>21</v>
+      </c>
+      <c r="AS18">
+        <v>23</v>
+      </c>
+      <c r="AT18">
+        <v>17.5</v>
+      </c>
+      <c r="AU18">
         <v>19</v>
       </c>
-      <c r="U18">
-        <v>19.5</v>
-      </c>
-      <c r="V18">
+      <c r="AV18">
+        <v>28</v>
+      </c>
+      <c r="AW18">
+        <v>32</v>
+      </c>
+      <c r="AX18">
+        <v>17.5</v>
+      </c>
+      <c r="AY18">
+        <v>80</v>
+      </c>
+      <c r="AZ18">
+        <v>10</v>
+      </c>
+      <c r="BA18">
         <v>11.5</v>
       </c>
-      <c r="W18">
-        <v>12</v>
-      </c>
-      <c r="X18">
-        <v>13</v>
-      </c>
-      <c r="Y18">
-        <v>13.5</v>
-      </c>
-      <c r="Z18">
-        <v>22</v>
-      </c>
-      <c r="AA18">
-        <v>23</v>
-      </c>
-      <c r="AB18">
-        <v>19</v>
-      </c>
-      <c r="AC18">
-        <v>19.5</v>
-      </c>
-      <c r="AD18">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE18">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF18">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG18">
-        <v>10.5</v>
-      </c>
-      <c r="AH18">
-        <v>17</v>
-      </c>
-      <c r="AI18">
-        <v>18</v>
-      </c>
-      <c r="AJ18">
-        <v>28</v>
-      </c>
-      <c r="AK18">
-        <v>32</v>
-      </c>
-      <c r="AL18">
-        <v>15</v>
-      </c>
-      <c r="AM18">
-        <v>16</v>
-      </c>
-      <c r="AN18">
-        <v>15</v>
-      </c>
-      <c r="AO18">
-        <v>16.5</v>
-      </c>
-      <c r="AP18">
-        <v>25</v>
-      </c>
-      <c r="AQ18">
-        <v>26</v>
-      </c>
-      <c r="AR18">
-        <v>60</v>
-      </c>
-      <c r="AS18">
-        <v>75</v>
-      </c>
-      <c r="AT18">
-        <v>36</v>
-      </c>
-      <c r="AU18">
-        <v>40</v>
-      </c>
-      <c r="AV18">
-        <v>38</v>
-      </c>
-      <c r="AW18">
+      <c r="BB18">
+        <v>14.5</v>
+      </c>
+      <c r="BC18">
         <v>42</v>
       </c>
-      <c r="AX18">
-        <v>60</v>
-      </c>
-      <c r="AY18">
-        <v>65</v>
-      </c>
-      <c r="AZ18">
-        <v>27</v>
-      </c>
-      <c r="BA18">
-        <v>30</v>
-      </c>
-      <c r="BB18">
-        <v>9.4</v>
-      </c>
-      <c r="BC18">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BD18">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="BE18">
         <v>980</v>
       </c>
       <c r="BF18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BG18">
-        <v>48756</v>
+        <v>232095</v>
       </c>
       <c r="BH18">
-        <v>44787</v>
+        <v>10762</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="BK18" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="BL18" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="BM18" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F19">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="G19">
+        <v>4.1</v>
+      </c>
+      <c r="H19">
+        <v>1.96</v>
+      </c>
+      <c r="I19">
+        <v>1.97</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4.2</v>
+      </c>
+      <c r="L19">
+        <v>2.52</v>
+      </c>
+      <c r="M19">
+        <v>2.6</v>
+      </c>
+      <c r="N19">
+        <v>1.63</v>
+      </c>
+      <c r="O19">
         <v>1.66</v>
       </c>
-      <c r="H19">
-        <v>5.6</v>
-      </c>
-      <c r="I19">
-        <v>5.7</v>
-      </c>
-      <c r="J19">
-        <v>4.6</v>
-      </c>
-      <c r="K19">
-        <v>4.7</v>
-      </c>
-      <c r="L19">
-        <v>2.4</v>
-      </c>
-      <c r="M19">
-        <v>2.74</v>
-      </c>
-      <c r="N19">
-        <v>1.58</v>
-      </c>
-      <c r="O19">
-        <v>1.71</v>
-      </c>
       <c r="P19">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="Q19">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R19">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="S19">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="T19">
         <v>20</v>
       </c>
       <c r="U19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="W19">
+        <v>12.5</v>
+      </c>
+      <c r="X19">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>13.5</v>
+      </c>
+      <c r="Z19">
+        <v>20</v>
+      </c>
+      <c r="AA19">
+        <v>22</v>
+      </c>
+      <c r="AB19">
+        <v>19</v>
+      </c>
+      <c r="AC19">
+        <v>20</v>
+      </c>
+      <c r="AD19">
+        <v>9</v>
+      </c>
+      <c r="AE19">
+        <v>9.4</v>
+      </c>
+      <c r="AF19">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG19">
+        <v>10.5</v>
+      </c>
+      <c r="AH19">
+        <v>16.5</v>
+      </c>
+      <c r="AI19">
+        <v>18</v>
+      </c>
+      <c r="AJ19">
+        <v>29</v>
+      </c>
+      <c r="AK19">
+        <v>32</v>
+      </c>
+      <c r="AL19">
+        <v>15</v>
+      </c>
+      <c r="AM19">
+        <v>16</v>
+      </c>
+      <c r="AN19">
+        <v>14.5</v>
+      </c>
+      <c r="AO19">
+        <v>16.5</v>
+      </c>
+      <c r="AP19">
+        <v>24</v>
+      </c>
+      <c r="AQ19">
         <v>26</v>
       </c>
-      <c r="X19">
-        <v>42</v>
-      </c>
-      <c r="Y19">
-        <v>48</v>
-      </c>
-      <c r="Z19">
-        <v>16.5</v>
-      </c>
-      <c r="AA19">
-        <v>130</v>
-      </c>
-      <c r="AB19">
-        <v>10.5</v>
-      </c>
-      <c r="AC19">
-        <v>12</v>
-      </c>
-      <c r="AD19">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE19">
-        <v>10.5</v>
-      </c>
-      <c r="AF19">
-        <v>19</v>
-      </c>
-      <c r="AG19">
-        <v>21</v>
-      </c>
-      <c r="AH19">
+      <c r="AR19">
+        <v>60</v>
+      </c>
+      <c r="AS19">
+        <v>80</v>
+      </c>
+      <c r="AT19">
+        <v>36</v>
+      </c>
+      <c r="AU19">
+        <v>40</v>
+      </c>
+      <c r="AV19">
         <v>38</v>
       </c>
-      <c r="AI19">
+      <c r="AW19">
+        <v>44</v>
+      </c>
+      <c r="AX19">
+        <v>55</v>
+      </c>
+      <c r="AY19">
         <v>65</v>
       </c>
-      <c r="AJ19">
-        <v>10</v>
-      </c>
-      <c r="AK19">
-        <v>11.5</v>
-      </c>
-      <c r="AL19">
+      <c r="AZ19">
+        <v>26</v>
+      </c>
+      <c r="BA19">
+        <v>29</v>
+      </c>
+      <c r="BB19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BC19">
         <v>9.199999999999999</v>
       </c>
-      <c r="AM19">
-        <v>10</v>
-      </c>
-      <c r="AN19">
-        <v>17</v>
-      </c>
-      <c r="AO19">
-        <v>19</v>
-      </c>
-      <c r="AP19">
-        <v>36</v>
-      </c>
-      <c r="AQ19">
-        <v>60</v>
-      </c>
-      <c r="AR19">
-        <v>15</v>
-      </c>
-      <c r="AS19">
-        <v>17</v>
-      </c>
-      <c r="AT19">
-        <v>13.5</v>
-      </c>
-      <c r="AU19">
-        <v>15</v>
-      </c>
-      <c r="AV19">
-        <v>23</v>
-      </c>
-      <c r="AW19">
-        <v>28</v>
-      </c>
-      <c r="AX19">
-        <v>15.5</v>
-      </c>
-      <c r="AY19">
+      <c r="BD19">
         <v>85</v>
-      </c>
-      <c r="AZ19">
-        <v>6</v>
-      </c>
-      <c r="BA19">
-        <v>7</v>
-      </c>
-      <c r="BB19">
-        <v>14</v>
-      </c>
-      <c r="BC19">
-        <v>55</v>
-      </c>
-      <c r="BD19">
-        <v>16</v>
       </c>
       <c r="BE19">
         <v>980</v>
       </c>
       <c r="BF19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BG19">
-        <v>46726</v>
+        <v>48756</v>
       </c>
       <c r="BH19">
-        <v>55243</v>
+        <v>44787</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="BK19" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="BL19" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="BM19" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F20">
-        <v>4.9</v>
+        <v>1.64</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="H20">
+        <v>5.5</v>
+      </c>
+      <c r="I20">
+        <v>5.7</v>
+      </c>
+      <c r="J20">
+        <v>4.6</v>
+      </c>
+      <c r="K20">
+        <v>4.8</v>
+      </c>
+      <c r="L20">
+        <v>2.5</v>
+      </c>
+      <c r="M20">
+        <v>2.74</v>
+      </c>
+      <c r="N20">
+        <v>1.58</v>
+      </c>
+      <c r="O20">
+        <v>1.65</v>
+      </c>
+      <c r="P20">
         <v>1.68</v>
       </c>
-      <c r="I20">
-        <v>1.69</v>
-      </c>
-      <c r="J20">
-        <v>4.8</v>
-      </c>
-      <c r="K20">
-        <v>4.9</v>
-      </c>
-      <c r="L20">
-        <v>3.1</v>
-      </c>
-      <c r="M20">
-        <v>3.25</v>
-      </c>
-      <c r="N20">
-        <v>1.45</v>
-      </c>
-      <c r="O20">
-        <v>1.47</v>
-      </c>
-      <c r="P20">
-        <v>1.53</v>
-      </c>
       <c r="Q20">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="R20">
-        <v>2.74</v>
+        <v>2.36</v>
       </c>
       <c r="S20">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="T20">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U20">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="V20">
+        <v>23</v>
+      </c>
+      <c r="W20">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>42</v>
+      </c>
+      <c r="Y20">
+        <v>48</v>
+      </c>
+      <c r="Z20">
+        <v>16.5</v>
+      </c>
+      <c r="AA20">
+        <v>150</v>
+      </c>
+      <c r="AB20">
+        <v>10.5</v>
+      </c>
+      <c r="AC20">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>10.5</v>
+      </c>
+      <c r="AF20">
+        <v>19</v>
+      </c>
+      <c r="AG20">
+        <v>21</v>
+      </c>
+      <c r="AH20">
+        <v>40</v>
+      </c>
+      <c r="AI20">
+        <v>60</v>
+      </c>
+      <c r="AJ20">
+        <v>10.5</v>
+      </c>
+      <c r="AK20">
+        <v>12</v>
+      </c>
+      <c r="AL20">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+      <c r="AN20">
+        <v>16.5</v>
+      </c>
+      <c r="AO20">
+        <v>19</v>
+      </c>
+      <c r="AP20">
+        <v>42</v>
+      </c>
+      <c r="AQ20">
+        <v>70</v>
+      </c>
+      <c r="AR20">
         <v>15</v>
       </c>
-      <c r="W20">
+      <c r="AS20">
+        <v>17</v>
+      </c>
+      <c r="AT20">
+        <v>13.5</v>
+      </c>
+      <c r="AU20">
+        <v>14.5</v>
+      </c>
+      <c r="AV20">
+        <v>23</v>
+      </c>
+      <c r="AW20">
+        <v>27</v>
+      </c>
+      <c r="AX20">
+        <v>15</v>
+      </c>
+      <c r="AY20">
+        <v>75</v>
+      </c>
+      <c r="AZ20">
+        <v>6</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>13.5</v>
+      </c>
+      <c r="BC20">
+        <v>48</v>
+      </c>
+      <c r="BD20">
         <v>16</v>
-      </c>
-      <c r="X20">
-        <v>13</v>
-      </c>
-      <c r="Y20">
-        <v>14.5</v>
-      </c>
-      <c r="Z20">
-        <v>18</v>
-      </c>
-      <c r="AA20">
-        <v>19</v>
-      </c>
-      <c r="AB20">
-        <v>27</v>
-      </c>
-      <c r="AC20">
-        <v>30</v>
-      </c>
-      <c r="AD20">
-        <v>11</v>
-      </c>
-      <c r="AE20">
-        <v>12</v>
-      </c>
-      <c r="AF20">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG20">
-        <v>10.5</v>
-      </c>
-      <c r="AH20">
-        <v>13.5</v>
-      </c>
-      <c r="AI20">
-        <v>14</v>
-      </c>
-      <c r="AJ20">
-        <v>42</v>
-      </c>
-      <c r="AK20">
-        <v>46</v>
-      </c>
-      <c r="AL20">
-        <v>18</v>
-      </c>
-      <c r="AM20">
-        <v>21</v>
-      </c>
-      <c r="AN20">
-        <v>15</v>
-      </c>
-      <c r="AO20">
-        <v>16.5</v>
-      </c>
-      <c r="AP20">
-        <v>20</v>
-      </c>
-      <c r="AQ20">
-        <v>22</v>
-      </c>
-      <c r="AR20">
-        <v>38</v>
-      </c>
-      <c r="AS20">
-        <v>100</v>
-      </c>
-      <c r="AT20">
-        <v>42</v>
-      </c>
-      <c r="AU20">
-        <v>46</v>
-      </c>
-      <c r="AV20">
-        <v>38</v>
-      </c>
-      <c r="AW20">
-        <v>44</v>
-      </c>
-      <c r="AX20">
-        <v>50</v>
-      </c>
-      <c r="AY20">
-        <v>55</v>
-      </c>
-      <c r="AZ20">
-        <v>25</v>
-      </c>
-      <c r="BA20">
-        <v>30</v>
-      </c>
-      <c r="BB20">
-        <v>5.5</v>
-      </c>
-      <c r="BC20">
-        <v>5.8</v>
-      </c>
-      <c r="BD20">
-        <v>23</v>
       </c>
       <c r="BE20">
         <v>980</v>
       </c>
       <c r="BF20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BG20">
-        <v>215817</v>
+        <v>46726</v>
       </c>
       <c r="BH20">
-        <v>56323</v>
+        <v>55243</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="BK20" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="BL20" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="BM20" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5123,984 +5177,984 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21">
-        <v>1.88</v>
+        <v>4.7</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H21">
-        <v>4.4</v>
+        <v>1.71</v>
       </c>
       <c r="I21">
-        <v>5.4</v>
+        <v>1.72</v>
       </c>
       <c r="J21">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="K21">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L21">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="O21">
-        <v>2.54</v>
+        <v>1.46</v>
       </c>
       <c r="P21">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="Q21">
-        <v>2.26</v>
+        <v>1.55</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="S21">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>8.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="U21">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="V21">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="W21">
+        <v>17</v>
+      </c>
+      <c r="X21">
+        <v>14</v>
+      </c>
+      <c r="Y21">
+        <v>15</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>19.5</v>
+      </c>
+      <c r="AB21">
+        <v>27</v>
+      </c>
+      <c r="AC21">
+        <v>32</v>
+      </c>
+      <c r="AD21">
+        <v>11.5</v>
+      </c>
+      <c r="AE21">
+        <v>12</v>
+      </c>
+      <c r="AF21">
+        <v>10</v>
+      </c>
+      <c r="AG21">
+        <v>10.5</v>
+      </c>
+      <c r="AH21">
+        <v>13.5</v>
+      </c>
+      <c r="AI21">
+        <v>14</v>
+      </c>
+      <c r="AJ21">
+        <v>42</v>
+      </c>
+      <c r="AK21">
+        <v>46</v>
+      </c>
+      <c r="AL21">
+        <v>18</v>
+      </c>
+      <c r="AM21">
+        <v>19.5</v>
+      </c>
+      <c r="AN21">
+        <v>15.5</v>
+      </c>
+      <c r="AO21">
+        <v>16</v>
+      </c>
+      <c r="AP21">
+        <v>20</v>
+      </c>
+      <c r="AQ21">
+        <v>22</v>
+      </c>
+      <c r="AR21">
+        <v>36</v>
+      </c>
+      <c r="AS21">
+        <v>110</v>
+      </c>
+      <c r="AT21">
+        <v>40</v>
+      </c>
+      <c r="AU21">
+        <v>44</v>
+      </c>
+      <c r="AV21">
+        <v>36</v>
+      </c>
+      <c r="AW21">
+        <v>42</v>
+      </c>
+      <c r="AX21">
+        <v>44</v>
+      </c>
+      <c r="AY21">
+        <v>55</v>
+      </c>
+      <c r="AZ21">
+        <v>23</v>
+      </c>
+      <c r="BA21">
+        <v>26</v>
+      </c>
+      <c r="BB21">
+        <v>5.6</v>
+      </c>
+      <c r="BC21">
+        <v>5.8</v>
+      </c>
+      <c r="BD21">
+        <v>60</v>
+      </c>
+      <c r="BE21">
         <v>980</v>
       </c>
-      <c r="X21">
-        <v>3.4</v>
-      </c>
-      <c r="Y21">
-        <v>40</v>
-      </c>
-      <c r="Z21">
-        <v>3.6</v>
-      </c>
-      <c r="AA21">
-        <v>140</v>
-      </c>
-      <c r="AB21">
-        <v>6.4</v>
-      </c>
-      <c r="AC21">
-        <v>980</v>
-      </c>
-      <c r="AD21">
-        <v>7</v>
-      </c>
-      <c r="AE21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF21">
-        <v>5.4</v>
-      </c>
-      <c r="AG21">
-        <v>980</v>
-      </c>
-      <c r="AH21">
-        <v>3.55</v>
-      </c>
-      <c r="AI21">
-        <v>90</v>
-      </c>
-      <c r="AJ21">
-        <v>8.6</v>
-      </c>
-      <c r="AK21">
-        <v>11.5</v>
-      </c>
-      <c r="AL21">
-        <v>9</v>
-      </c>
-      <c r="AM21">
-        <v>12</v>
-      </c>
-      <c r="AN21">
-        <v>3.25</v>
-      </c>
-      <c r="AO21">
-        <v>980</v>
-      </c>
-      <c r="AP21">
-        <v>3.55</v>
-      </c>
-      <c r="AQ21">
-        <v>110</v>
-      </c>
-      <c r="AR21">
-        <v>5.4</v>
-      </c>
-      <c r="AS21">
-        <v>24</v>
-      </c>
-      <c r="AT21">
-        <v>3.25</v>
-      </c>
-      <c r="AU21">
-        <v>27</v>
-      </c>
-      <c r="AV21">
-        <v>3.5</v>
-      </c>
-      <c r="AW21">
-        <v>60</v>
-      </c>
-      <c r="AX21">
-        <v>3.65</v>
-      </c>
-      <c r="AY21">
-        <v>200</v>
-      </c>
-      <c r="AZ21">
-        <v>3.1</v>
-      </c>
-      <c r="BA21">
-        <v>20</v>
-      </c>
-      <c r="BB21">
-        <v>3.6</v>
-      </c>
-      <c r="BC21">
-        <v>130</v>
-      </c>
-      <c r="BD21">
-        <v>3.7</v>
-      </c>
-      <c r="BE21">
-        <v>1000</v>
-      </c>
       <c r="BF21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BG21">
-        <v>4082025</v>
+        <v>215817</v>
       </c>
       <c r="BH21">
-        <v>8220578</v>
+        <v>56323</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="BK21" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="BL21" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="BM21" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F22">
-        <v>1.27</v>
+        <v>1.93</v>
       </c>
       <c r="G22">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="H22">
-        <v>2.94</v>
+        <v>4.3</v>
       </c>
       <c r="I22">
+        <v>4.7</v>
+      </c>
+      <c r="J22">
+        <v>3.4</v>
+      </c>
+      <c r="K22">
+        <v>3.7</v>
+      </c>
+      <c r="L22">
+        <v>1.65</v>
+      </c>
+      <c r="M22">
+        <v>1.75</v>
+      </c>
+      <c r="N22">
+        <v>2.32</v>
+      </c>
+      <c r="O22">
+        <v>2.54</v>
+      </c>
+      <c r="P22">
+        <v>2.1</v>
+      </c>
+      <c r="Q22">
+        <v>2.26</v>
+      </c>
+      <c r="R22">
+        <v>1.79</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>8.4</v>
+      </c>
+      <c r="U22">
+        <v>11.5</v>
+      </c>
+      <c r="V22">
+        <v>11</v>
+      </c>
+      <c r="W22">
+        <v>14</v>
+      </c>
+      <c r="X22">
+        <v>5.6</v>
+      </c>
+      <c r="Y22">
+        <v>36</v>
+      </c>
+      <c r="Z22">
+        <v>6.4</v>
+      </c>
+      <c r="AA22">
+        <v>130</v>
+      </c>
+      <c r="AB22">
+        <v>6.6</v>
+      </c>
+      <c r="AC22">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>7.2</v>
+      </c>
+      <c r="AE22">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>5.1</v>
+      </c>
+      <c r="AG22">
+        <v>21</v>
+      </c>
+      <c r="AH22">
+        <v>6.2</v>
+      </c>
+      <c r="AI22">
+        <v>80</v>
+      </c>
+      <c r="AJ22">
+        <v>9</v>
+      </c>
+      <c r="AK22">
+        <v>12</v>
+      </c>
+      <c r="AL22">
+        <v>9.4</v>
+      </c>
+      <c r="AM22">
+        <v>12.5</v>
+      </c>
+      <c r="AN22">
+        <v>5.4</v>
+      </c>
+      <c r="AO22">
         <v>980</v>
       </c>
-      <c r="J22">
-        <v>4.6</v>
-      </c>
-      <c r="K22">
-        <v>980</v>
-      </c>
-      <c r="L22">
-        <v>1.2</v>
-      </c>
-      <c r="M22">
-        <v>990</v>
-      </c>
-      <c r="N22">
-        <v>1.03</v>
-      </c>
-      <c r="O22">
+      <c r="AP22">
+        <v>6.2</v>
+      </c>
+      <c r="AQ22">
+        <v>100</v>
+      </c>
+      <c r="AR22">
+        <v>5.3</v>
+      </c>
+      <c r="AS22">
+        <v>25</v>
+      </c>
+      <c r="AT22">
+        <v>5.4</v>
+      </c>
+      <c r="AU22">
+        <v>28</v>
+      </c>
+      <c r="AV22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>60</v>
+      </c>
+      <c r="AX22">
         <v>6.4</v>
       </c>
-      <c r="P22">
-        <v>1.12</v>
-      </c>
-      <c r="Q22">
-        <v>1000</v>
-      </c>
-      <c r="R22">
-        <v>1.12</v>
-      </c>
-      <c r="S22">
-        <v>1000</v>
-      </c>
-      <c r="T22">
-        <v>1.45</v>
-      </c>
-      <c r="U22">
-        <v>1000</v>
-      </c>
-      <c r="V22">
-        <v>1.01</v>
-      </c>
-      <c r="W22">
-        <v>1000</v>
-      </c>
-      <c r="X22">
-        <v>1.01</v>
-      </c>
-      <c r="Y22">
-        <v>1000</v>
-      </c>
-      <c r="Z22">
-        <v>1.01</v>
-      </c>
-      <c r="AA22">
-        <v>1000</v>
-      </c>
-      <c r="AB22">
-        <v>1.01</v>
-      </c>
-      <c r="AC22">
-        <v>1000</v>
-      </c>
-      <c r="AD22">
-        <v>1.01</v>
-      </c>
-      <c r="AE22">
-        <v>1000</v>
-      </c>
-      <c r="AF22">
-        <v>1.01</v>
-      </c>
-      <c r="AG22">
-        <v>1000</v>
-      </c>
-      <c r="AH22">
-        <v>1.01</v>
-      </c>
-      <c r="AI22">
-        <v>1000</v>
-      </c>
-      <c r="AJ22">
-        <v>1.01</v>
-      </c>
-      <c r="AK22">
-        <v>1000</v>
-      </c>
-      <c r="AL22">
-        <v>1.01</v>
-      </c>
-      <c r="AM22">
-        <v>1000</v>
-      </c>
-      <c r="AN22">
-        <v>1.01</v>
-      </c>
-      <c r="AO22">
-        <v>1000</v>
-      </c>
-      <c r="AP22">
-        <v>1.01</v>
-      </c>
-      <c r="AQ22">
-        <v>1000</v>
-      </c>
-      <c r="AR22">
-        <v>1.01</v>
-      </c>
-      <c r="AS22">
-        <v>1000</v>
-      </c>
-      <c r="AT22">
-        <v>1.01</v>
-      </c>
-      <c r="AU22">
-        <v>1000</v>
-      </c>
-      <c r="AV22">
-        <v>1.01</v>
-      </c>
-      <c r="AW22">
-        <v>1000</v>
-      </c>
-      <c r="AX22">
-        <v>1.01</v>
-      </c>
       <c r="AY22">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AZ22">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BA22">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="BB22">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC22">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="BD22">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BG22">
-        <v>6432339</v>
+        <v>4082025</v>
       </c>
       <c r="BH22">
-        <v>8225986</v>
+        <v>8220578</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="BK22" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="BL22" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="BM22" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F23">
-        <v>2.74</v>
+        <v>1.29</v>
       </c>
       <c r="G23">
-        <v>3.55</v>
+        <v>1.39</v>
       </c>
       <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>4.9</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>2.38</v>
+      </c>
+      <c r="M23">
         <v>2.64</v>
       </c>
-      <c r="I23">
-        <v>3.45</v>
-      </c>
-      <c r="J23">
-        <v>2.9</v>
-      </c>
-      <c r="K23">
-        <v>3.95</v>
-      </c>
-      <c r="L23">
-        <v>1.56</v>
-      </c>
-      <c r="M23">
-        <v>1.77</v>
-      </c>
       <c r="N23">
-        <v>2.16</v>
+        <v>1.61</v>
       </c>
       <c r="O23">
-        <v>2.98</v>
+        <v>1.72</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BG23">
-        <v>9195442</v>
+        <v>6432339</v>
       </c>
       <c r="BH23">
-        <v>1067444</v>
+        <v>8225986</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="BK23" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F24">
-        <v>1.37</v>
+        <v>2.88</v>
       </c>
       <c r="G24">
-        <v>1.68</v>
+        <v>3.25</v>
       </c>
       <c r="H24">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="I24">
-        <v>980</v>
+        <v>2.96</v>
       </c>
       <c r="J24">
-        <v>1.21</v>
+        <v>3.05</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>3.35</v>
       </c>
       <c r="L24">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="M24">
-        <v>990</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>1.03</v>
+        <v>2.32</v>
       </c>
       <c r="O24">
+        <v>2.76</v>
+      </c>
+      <c r="P24">
+        <v>1.92</v>
+      </c>
+      <c r="Q24">
+        <v>2.26</v>
+      </c>
+      <c r="R24">
+        <v>1.79</v>
+      </c>
+      <c r="S24">
+        <v>2.1</v>
+      </c>
+      <c r="T24">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U24">
+        <v>11.5</v>
+      </c>
+      <c r="V24">
+        <v>7.8</v>
+      </c>
+      <c r="W24">
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <v>13.5</v>
+      </c>
+      <c r="Y24">
+        <v>20</v>
+      </c>
+      <c r="Z24">
+        <v>4.4</v>
+      </c>
+      <c r="AA24">
+        <v>55</v>
+      </c>
+      <c r="AB24">
+        <v>8</v>
+      </c>
+      <c r="AC24">
+        <v>12</v>
+      </c>
+      <c r="AD24">
         <v>6.4</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BG24">
-        <v>13749040</v>
+        <v>9195442</v>
       </c>
       <c r="BH24">
-        <v>330234</v>
+        <v>1067444</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="BK24" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F25">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="G25">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="H25">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="I25">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="J25">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K25">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="L25">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="M25">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>2.06</v>
+        <v>1.55</v>
       </c>
       <c r="O25">
-        <v>2.34</v>
+        <v>1.93</v>
       </c>
       <c r="P25">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="Q25">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="R25">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="S25">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>2.52</v>
       </c>
       <c r="U25">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="V25">
-        <v>13.5</v>
+        <v>3.85</v>
       </c>
       <c r="W25">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="X25">
-        <v>34</v>
+        <v>4.1</v>
       </c>
       <c r="Y25">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z25">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AA25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB25">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD25">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AE25">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AF25">
-        <v>18.5</v>
+        <v>3.85</v>
       </c>
       <c r="AG25">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AH25">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AI25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ25">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AK25">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL25">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AM25">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN25">
-        <v>19.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP25">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AQ25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR25">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AT25">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AU25">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AV25">
-        <v>34</v>
+        <v>3.9</v>
       </c>
       <c r="AW25">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AX25">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="AY25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="BA25">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="BB25">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="BC25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD25">
-        <v>5.2</v>
+        <v>1.48</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BG25">
-        <v>198128</v>
+        <v>13749040</v>
       </c>
       <c r="BH25">
-        <v>5326988</v>
+        <v>330234</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BK25" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BL25" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="BM25" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6108,393 +6162,590 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L26">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="M26">
+        <v>1.88</v>
+      </c>
+      <c r="N26">
+        <v>2.12</v>
+      </c>
+      <c r="O26">
+        <v>2.26</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>2.2</v>
+      </c>
+      <c r="R26">
+        <v>1.83</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>11</v>
+      </c>
+      <c r="U26">
+        <v>15.5</v>
+      </c>
+      <c r="V26">
+        <v>14</v>
+      </c>
+      <c r="W26">
+        <v>23</v>
+      </c>
+      <c r="X26">
+        <v>36</v>
+      </c>
+      <c r="Y26">
+        <v>65</v>
+      </c>
+      <c r="Z26">
+        <v>4.7</v>
+      </c>
+      <c r="AA26">
         <v>980</v>
       </c>
-      <c r="N26">
-        <v>1.03</v>
-      </c>
-      <c r="O26">
-        <v>6.4</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
       <c r="AB26">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>198128</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>5326988</v>
       </c>
       <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>201</v>
       </c>
       <c r="BK26" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F27">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="G27">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="H27">
-        <v>1.28</v>
+        <v>5.9</v>
       </c>
       <c r="I27">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="J27">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="K27">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L27">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="O27">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BG27">
-        <v>26076470</v>
+        <v>219457</v>
       </c>
       <c r="BH27">
-        <v>478919</v>
+        <v>7587321</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="BK27" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28">
+        <v>1.51</v>
+      </c>
+      <c r="G28">
+        <v>1.59</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>9.6</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4.6</v>
+      </c>
+      <c r="L28">
+        <v>1.77</v>
+      </c>
+      <c r="M28">
+        <v>1.85</v>
+      </c>
+      <c r="N28">
+        <v>2.18</v>
+      </c>
+      <c r="O28">
+        <v>2.3</v>
+      </c>
+      <c r="P28">
+        <v>2.1</v>
+      </c>
+      <c r="Q28">
+        <v>2.38</v>
+      </c>
+      <c r="R28">
+        <v>1.66</v>
+      </c>
+      <c r="S28">
+        <v>1.82</v>
+      </c>
+      <c r="T28">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U28">
+        <v>14</v>
+      </c>
+      <c r="V28">
+        <v>5.8</v>
+      </c>
+      <c r="W28">
+        <v>24</v>
+      </c>
+      <c r="X28">
+        <v>6.4</v>
+      </c>
+      <c r="Y28">
+        <v>75</v>
+      </c>
+      <c r="Z28">
+        <v>6.6</v>
+      </c>
+      <c r="AA28">
+        <v>1000</v>
+      </c>
+      <c r="AB28">
+        <v>6.2</v>
+      </c>
+      <c r="AC28">
+        <v>7.6</v>
+      </c>
+      <c r="AD28">
+        <v>8.6</v>
+      </c>
+      <c r="AE28">
+        <v>11</v>
+      </c>
+      <c r="AF28">
+        <v>5.8</v>
+      </c>
+      <c r="AG28">
+        <v>36</v>
+      </c>
+      <c r="AH28">
+        <v>6.6</v>
+      </c>
+      <c r="AI28">
+        <v>170</v>
+      </c>
+      <c r="AJ28">
+        <v>6.4</v>
+      </c>
+      <c r="AK28">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL28">
+        <v>9</v>
+      </c>
+      <c r="AM28">
+        <v>11.5</v>
+      </c>
+      <c r="AN28">
+        <v>5.8</v>
+      </c>
+      <c r="AO28">
+        <v>34</v>
+      </c>
+      <c r="AP28">
+        <v>6.6</v>
+      </c>
+      <c r="AQ28">
+        <v>160</v>
+      </c>
+      <c r="AR28">
+        <v>11</v>
+      </c>
+      <c r="AS28">
+        <v>15</v>
+      </c>
+      <c r="AT28">
+        <v>15.5</v>
+      </c>
+      <c r="AU28">
+        <v>20</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>55</v>
+      </c>
+      <c r="AX28">
+        <v>6.6</v>
+      </c>
+      <c r="AY28">
+        <v>1000</v>
+      </c>
+      <c r="AZ28">
+        <v>4.2</v>
+      </c>
+      <c r="BA28">
+        <v>11</v>
+      </c>
+      <c r="BB28">
+        <v>6.6</v>
+      </c>
+      <c r="BC28">
+        <v>1000</v>
+      </c>
+      <c r="BD28">
+        <v>6.8</v>
+      </c>
+      <c r="BE28">
+        <v>1000</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG28">
+        <v>26076470</v>
+      </c>
+      <c r="BH28">
+        <v>478919</v>
+      </c>
+      <c r="BI28">
+        <v>58805</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="310">
   <si>
     <t>League</t>
   </si>
@@ -244,6 +244,12 @@
     <t>Colombian Primera A</t>
   </si>
   <si>
+    <t>Venezuelan Primera Division</t>
+  </si>
+  <si>
+    <t>Bolivian Liga de Futbol Profesional</t>
+  </si>
+  <si>
     <t>Brazilian Serie A</t>
   </si>
   <si>
@@ -289,6 +295,12 @@
     <t>18:30:00</t>
   </si>
   <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
     <t>20:10:00</t>
   </si>
   <si>
@@ -352,15 +364,15 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
     <t>PAOK</t>
   </si>
   <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
     <t>Atalanta</t>
   </si>
   <si>
@@ -370,12 +382,21 @@
     <t>Independiente (Ecu)</t>
   </si>
   <si>
+    <t>Estudiantes de Merida</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
     <t>Boyaca Patriotas</t>
   </si>
   <si>
     <t>Barcelona (Ecu)</t>
   </si>
   <si>
+    <t>Aurora</t>
+  </si>
+  <si>
     <t>Botafogo</t>
   </si>
   <si>
@@ -433,15 +454,15 @@
     <t>AC Milan</t>
   </si>
   <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
     <t>Club Brugge</t>
   </si>
   <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
@@ -451,12 +472,21 @@
     <t>Mushuc Runa</t>
   </si>
   <si>
+    <t>Rayo Zuliano</t>
+  </si>
+  <si>
+    <t>San Antonio FC</t>
+  </si>
+  <si>
     <t>Ind Medellin</t>
   </si>
   <si>
     <t>El Nacional</t>
   </si>
   <si>
+    <t>Club Independiente</t>
+  </si>
+  <si>
     <t>Atletico GO</t>
   </si>
   <si>
@@ -514,15 +544,15 @@
     <t>33185564</t>
   </si>
   <si>
+    <t>33185238</t>
+  </si>
+  <si>
+    <t>33185562</t>
+  </si>
+  <si>
     <t>33185426</t>
   </si>
   <si>
-    <t>33185562</t>
-  </si>
-  <si>
-    <t>33185238</t>
-  </si>
-  <si>
     <t>33185560</t>
   </si>
   <si>
@@ -532,12 +562,21 @@
     <t>33193572</t>
   </si>
   <si>
+    <t>33201093</t>
+  </si>
+  <si>
+    <t>33201046</t>
+  </si>
+  <si>
     <t>33193688</t>
   </si>
   <si>
     <t>33194040</t>
   </si>
   <si>
+    <t>33201042</t>
+  </si>
+  <si>
     <t>33192514</t>
   </si>
   <si>
@@ -595,15 +634,15 @@
     <t>1.227478826</t>
   </si>
   <si>
+    <t>1.227472240</t>
+  </si>
+  <si>
+    <t>1.227478946</t>
+  </si>
+  <si>
     <t>1.227478376</t>
   </si>
   <si>
-    <t>1.227478946</t>
-  </si>
-  <si>
-    <t>1.227472240</t>
-  </si>
-  <si>
     <t>1.227479066</t>
   </si>
   <si>
@@ -613,12 +652,21 @@
     <t>1.227619980</t>
   </si>
   <si>
+    <t>1.227753547</t>
+  </si>
+  <si>
+    <t>1.227753304</t>
+  </si>
+  <si>
     <t>1.227625430</t>
   </si>
   <si>
     <t>1.227632540</t>
   </si>
   <si>
+    <t>1.227753419</t>
+  </si>
+  <si>
     <t>1.227599613</t>
   </si>
   <si>
@@ -676,15 +724,15 @@
     <t>1.227478810</t>
   </si>
   <si>
+    <t>1.227472224</t>
+  </si>
+  <si>
+    <t>1.227478930</t>
+  </si>
+  <si>
     <t>1.227478360</t>
   </si>
   <si>
-    <t>1.227478930</t>
-  </si>
-  <si>
-    <t>1.227472224</t>
-  </si>
-  <si>
     <t>1.227479050</t>
   </si>
   <si>
@@ -694,12 +742,21 @@
     <t>1.227620025</t>
   </si>
   <si>
+    <t>1.227753592</t>
+  </si>
+  <si>
+    <t>1.227753349</t>
+  </si>
+  <si>
     <t>1.227625475</t>
   </si>
   <si>
     <t>1.227632585</t>
   </si>
   <si>
+    <t>1.227753423</t>
+  </si>
+  <si>
     <t>1.227599649</t>
   </si>
   <si>
@@ -757,15 +814,15 @@
     <t>1.227478825</t>
   </si>
   <si>
+    <t>1.227472239</t>
+  </si>
+  <si>
+    <t>1.227478945</t>
+  </si>
+  <si>
     <t>1.227478375</t>
   </si>
   <si>
-    <t>1.227478945</t>
-  </si>
-  <si>
-    <t>1.227472239</t>
-  </si>
-  <si>
     <t>1.227479065</t>
   </si>
   <si>
@@ -775,12 +832,21 @@
     <t>1.227620064</t>
   </si>
   <si>
+    <t>1.227753631</t>
+  </si>
+  <si>
+    <t>1.227753388</t>
+  </si>
+  <si>
     <t>1.227625514</t>
   </si>
   <si>
     <t>1.227632624</t>
   </si>
   <si>
+    <t>1.227753469</t>
+  </si>
+  <si>
     <t>1.227599606</t>
   </si>
   <si>
@@ -838,15 +904,15 @@
     <t>1.227478835</t>
   </si>
   <si>
+    <t>1.227472249</t>
+  </si>
+  <si>
+    <t>1.227478955</t>
+  </si>
+  <si>
     <t>1.227478385</t>
   </si>
   <si>
-    <t>1.227478955</t>
-  </si>
-  <si>
-    <t>1.227472249</t>
-  </si>
-  <si>
     <t>1.227479075</t>
   </si>
   <si>
@@ -856,10 +922,19 @@
     <t>1.227619989</t>
   </si>
   <si>
+    <t>1.227753556</t>
+  </si>
+  <si>
+    <t>1.227753313</t>
+  </si>
+  <si>
     <t>1.227625439</t>
   </si>
   <si>
     <t>1.227632549</t>
+  </si>
+  <si>
+    <t>1.227753470</t>
   </si>
   <si>
     <t>1.227599648</t>
@@ -1226,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM28"/>
+  <dimension ref="A1:BM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,175 +1509,175 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1.37</v>
+      </c>
+      <c r="I2">
+        <v>1.41</v>
+      </c>
+      <c r="J2">
+        <v>5.2</v>
+      </c>
+      <c r="K2">
+        <v>5.9</v>
+      </c>
+      <c r="L2">
+        <v>2.3</v>
+      </c>
+      <c r="M2">
+        <v>2.4</v>
+      </c>
+      <c r="N2">
+        <v>1.71</v>
+      </c>
+      <c r="O2">
+        <v>1.76</v>
+      </c>
+      <c r="P2">
+        <v>2.08</v>
+      </c>
+      <c r="Q2">
+        <v>2.26</v>
+      </c>
+      <c r="R2">
+        <v>1.79</v>
+      </c>
+      <c r="S2">
+        <v>1.92</v>
+      </c>
+      <c r="T2">
+        <v>5.7</v>
+      </c>
+      <c r="U2">
+        <v>22</v>
+      </c>
+      <c r="V2">
+        <v>7.2</v>
+      </c>
+      <c r="W2">
+        <v>9.4</v>
+      </c>
+      <c r="X2">
+        <v>6.8</v>
+      </c>
+      <c r="Y2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>4.7</v>
+      </c>
+      <c r="AA2">
+        <v>12</v>
+      </c>
+      <c r="AB2">
+        <v>6.2</v>
+      </c>
+      <c r="AC2">
+        <v>34</v>
+      </c>
+      <c r="AD2">
+        <v>4.9</v>
+      </c>
+      <c r="AE2">
+        <v>13.5</v>
+      </c>
+      <c r="AF2">
         <v>8.6</v>
-      </c>
-      <c r="G2">
-        <v>10.5</v>
-      </c>
-      <c r="H2">
-        <v>1.4</v>
-      </c>
-      <c r="I2">
-        <v>1.47</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>6.2</v>
-      </c>
-      <c r="L2">
-        <v>2.34</v>
-      </c>
-      <c r="M2">
-        <v>2.5</v>
-      </c>
-      <c r="N2">
-        <v>1.67</v>
-      </c>
-      <c r="O2">
-        <v>1.74</v>
-      </c>
-      <c r="P2">
-        <v>1.12</v>
-      </c>
-      <c r="Q2">
-        <v>9.4</v>
-      </c>
-      <c r="R2">
-        <v>1.12</v>
-      </c>
-      <c r="S2">
-        <v>9.4</v>
-      </c>
-      <c r="T2">
-        <v>1.03</v>
-      </c>
-      <c r="U2">
-        <v>21</v>
-      </c>
-      <c r="V2">
-        <v>1.68</v>
-      </c>
-      <c r="W2">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X2">
-        <v>3.95</v>
-      </c>
-      <c r="Y2">
-        <v>9.4</v>
-      </c>
-      <c r="Z2">
-        <v>1.78</v>
-      </c>
-      <c r="AA2">
-        <v>13.5</v>
-      </c>
-      <c r="AB2">
-        <v>1.03</v>
-      </c>
-      <c r="AC2">
-        <v>32</v>
-      </c>
-      <c r="AD2">
-        <v>4.5</v>
-      </c>
-      <c r="AE2">
-        <v>13</v>
-      </c>
-      <c r="AF2">
-        <v>2.38</v>
       </c>
       <c r="AG2">
         <v>11.5</v>
       </c>
       <c r="AH2">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AI2">
         <v>16.5</v>
       </c>
       <c r="AJ2">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AK2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL2">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AM2">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AN2">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AO2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP2">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AQ2">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AR2">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>1.03</v>
+        <v>7.2</v>
       </c>
       <c r="AW2">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AX2">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AY2">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AZ2">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="BA2">
         <v>1000</v>
       </c>
       <c r="BB2">
-        <v>1.05</v>
+        <v>3.5</v>
       </c>
       <c r="BC2">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BG2">
         <v>2017903</v>
@@ -1614,16 +1689,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="BK2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="BL2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="BM2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1631,46 +1706,46 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F3">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="H3">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>9.4</v>
       </c>
       <c r="N3">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="P3">
         <v>1.01</v>
@@ -1685,25 +1760,25 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="U3">
         <v>1000</v>
       </c>
       <c r="V3">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="W3">
         <v>1000</v>
       </c>
       <c r="X3">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="Y3">
         <v>1000</v>
       </c>
       <c r="Z3">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="AA3">
         <v>1000</v>
@@ -1721,7 +1796,7 @@
         <v>1000</v>
       </c>
       <c r="AF3">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AG3">
         <v>1000</v>
@@ -1781,25 +1856,25 @@
         <v>1000</v>
       </c>
       <c r="AZ3">
+        <v>1.55</v>
+      </c>
+      <c r="BA3">
+        <v>1000</v>
+      </c>
+      <c r="BB3">
+        <v>1.55</v>
+      </c>
+      <c r="BC3">
+        <v>1000</v>
+      </c>
+      <c r="BD3">
         <v>1.01</v>
       </c>
-      <c r="BA3">
-        <v>1000</v>
-      </c>
-      <c r="BB3">
-        <v>1.01</v>
-      </c>
-      <c r="BC3">
-        <v>1000</v>
-      </c>
-      <c r="BD3">
-        <v>20</v>
-      </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BG3">
         <v>9686394</v>
@@ -1811,16 +1886,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="BK3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="BL3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="BM3" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1828,175 +1903,175 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F4">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G4">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M4">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="N4">
         <v>2.06</v>
       </c>
       <c r="O4">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="P4">
         <v>1.88</v>
       </c>
       <c r="Q4">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R4">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S4">
         <v>2.14</v>
       </c>
       <c r="T4">
-        <v>3.35</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U4">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V4">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="W4">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="X4">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="Y4">
         <v>38</v>
       </c>
       <c r="Z4">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AA4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB4">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="AC4">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AE4">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF4">
-        <v>3.65</v>
+        <v>14.5</v>
       </c>
       <c r="AG4">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AH4">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AI4">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ4">
-        <v>3.35</v>
+        <v>9.6</v>
       </c>
       <c r="AK4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL4">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="AM4">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AN4">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="AO4">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP4">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR4">
-        <v>3.8</v>
+        <v>19.5</v>
       </c>
       <c r="AS4">
         <v>29</v>
       </c>
       <c r="AT4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AU4">
         <v>29</v>
       </c>
       <c r="AV4">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AW4">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AX4">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AY4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ4">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="BA4">
         <v>21</v>
       </c>
       <c r="BB4">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BC4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD4">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="BG4">
         <v>37456793</v>
@@ -2008,16 +2083,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="BK4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="BL4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="BM4" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2025,148 +2100,148 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F5">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="G5">
-        <v>480</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="I5">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="J5">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K5">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>1.31</v>
+        <v>1.9</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>2.34</v>
       </c>
       <c r="N5">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
-        <v>4.3</v>
+        <v>1.91</v>
       </c>
       <c r="P5">
-        <v>1.12</v>
+        <v>1.64</v>
       </c>
       <c r="Q5">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="R5">
         <v>1.12</v>
       </c>
       <c r="S5">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="T5">
-        <v>1.49</v>
+        <v>13</v>
       </c>
       <c r="U5">
         <v>980</v>
       </c>
       <c r="V5">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <v>980</v>
       </c>
       <c r="X5">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="Y5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="AA5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB5">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="AC5">
         <v>980</v>
       </c>
       <c r="AD5">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE5">
         <v>980</v>
       </c>
       <c r="AF5">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="AG5">
         <v>980</v>
       </c>
       <c r="AH5">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="AI5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ5">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="AK5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL5">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="AM5">
         <v>980</v>
       </c>
       <c r="AN5">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="AO5">
         <v>980</v>
       </c>
       <c r="AP5">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="AQ5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR5">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="AU5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV5">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="AW5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX5">
         <v>21</v>
@@ -2175,25 +2250,25 @@
         <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="BA5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB5">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="BC5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="BE5">
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="BG5">
         <v>503208</v>
@@ -2205,16 +2280,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="BK5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="BL5" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="BM5" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2222,16 +2297,16 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F6">
         <v>1.65</v>
@@ -2246,19 +2321,19 @@
         <v>5.9</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
         <v>4.6</v>
       </c>
       <c r="L6">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="M6">
         <v>2.34</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="O6">
         <v>1.93</v>
@@ -2267,10 +2342,10 @@
         <v>1.81</v>
       </c>
       <c r="Q6">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R6">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S6">
         <v>2.24</v>
@@ -2282,25 +2357,25 @@
         <v>19</v>
       </c>
       <c r="V6">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="W6">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="X6">
         <v>6</v>
       </c>
       <c r="Y6">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z6">
         <v>6.4</v>
       </c>
       <c r="AA6">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC6">
         <v>10.5</v>
@@ -2312,7 +2387,7 @@
         <v>11</v>
       </c>
       <c r="AF6">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AG6">
         <v>24</v>
@@ -2321,13 +2396,13 @@
         <v>6.2</v>
       </c>
       <c r="AI6">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
         <v>8.800000000000001</v>
       </c>
       <c r="AK6">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AL6">
         <v>8.800000000000001</v>
@@ -2336,16 +2411,16 @@
         <v>11</v>
       </c>
       <c r="AN6">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO6">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP6">
         <v>6.2</v>
       </c>
       <c r="AQ6">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AR6">
         <v>14</v>
@@ -2354,34 +2429,34 @@
         <v>18.5</v>
       </c>
       <c r="AT6">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="AU6">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AV6">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AW6">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AX6">
         <v>6.4</v>
       </c>
       <c r="AY6">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AZ6">
         <v>4</v>
       </c>
       <c r="BA6">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB6">
         <v>6.2</v>
       </c>
       <c r="BC6">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="BD6">
         <v>6.8</v>
@@ -2390,7 +2465,7 @@
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BG6">
         <v>12157288</v>
@@ -2402,16 +2477,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="BK6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="BL6" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="BM6" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2419,16 +2494,16 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F7">
         <v>1.67</v>
@@ -2443,13 +2518,13 @@
         <v>5.6</v>
       </c>
       <c r="J7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7">
         <v>4.6</v>
       </c>
       <c r="L7">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="M7">
         <v>2.52</v>
@@ -2458,10 +2533,10 @@
         <v>1.66</v>
       </c>
       <c r="O7">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P7">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q7">
         <v>1.88</v>
@@ -2470,31 +2545,31 @@
         <v>2.14</v>
       </c>
       <c r="S7">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="T7">
         <v>15</v>
       </c>
       <c r="U7">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="V7">
-        <v>5.3</v>
+        <v>17.5</v>
       </c>
       <c r="W7">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="X7">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y7">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z7">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AA7">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB7">
         <v>8.800000000000001</v>
@@ -2509,16 +2584,16 @@
         <v>11</v>
       </c>
       <c r="AF7">
-        <v>5.3</v>
+        <v>16.5</v>
       </c>
       <c r="AG7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AI7">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ7">
         <v>9.4</v>
@@ -2533,61 +2608,61 @@
         <v>11.5</v>
       </c>
       <c r="AN7">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO7">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AP7">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ7">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AR7">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AS7">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AT7">
-        <v>4.9</v>
+        <v>14</v>
       </c>
       <c r="AU7">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AV7">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AW7">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AX7">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AY7">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AZ7">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="BA7">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB7">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BC7">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="BD7">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BG7">
         <v>2364082</v>
@@ -2599,16 +2674,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="BK7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="BL7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="BM7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2616,37 +2691,37 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F8">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>3.05</v>
       </c>
-      <c r="I8">
-        <v>3.15</v>
-      </c>
       <c r="J8">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8">
         <v>3.7</v>
       </c>
       <c r="L8">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="M8">
         <v>2.28</v>
@@ -2655,43 +2730,43 @@
         <v>1.79</v>
       </c>
       <c r="O8">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="P8">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q8">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R8">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="S8">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T8">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U8">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V8">
         <v>13.5</v>
       </c>
       <c r="W8">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X8">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA8">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB8">
         <v>12</v>
@@ -2721,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="AK8">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL8">
         <v>10.5</v>
@@ -2733,7 +2808,7 @@
         <v>15</v>
       </c>
       <c r="AO8">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP8">
         <v>34</v>
@@ -2751,22 +2826,22 @@
         <v>22</v>
       </c>
       <c r="AU8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV8">
         <v>30</v>
       </c>
       <c r="AW8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY8">
         <v>75</v>
       </c>
       <c r="AZ8">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA8">
         <v>17.5</v>
@@ -2775,16 +2850,16 @@
         <v>22</v>
       </c>
       <c r="BC8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BD8">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="BE8">
         <v>980</v>
       </c>
       <c r="BF8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BG8">
         <v>44790</v>
@@ -2796,16 +2871,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="BK8" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="BL8" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="BM8" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2813,130 +2888,130 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F9">
+        <v>1.4</v>
+      </c>
+      <c r="G9">
         <v>1.41</v>
       </c>
-      <c r="G9">
-        <v>1.44</v>
-      </c>
       <c r="H9">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I9">
         <v>11.5</v>
       </c>
       <c r="J9">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K9">
         <v>5.2</v>
       </c>
       <c r="L9">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="M9">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="N9">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="P9">
+        <v>2.24</v>
+      </c>
+      <c r="Q9">
         <v>2.4</v>
       </c>
-      <c r="Q9">
-        <v>2.52</v>
-      </c>
       <c r="R9">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S9">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="T9">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U9">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="V9">
         <v>24</v>
       </c>
       <c r="W9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="X9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y9">
         <v>95</v>
       </c>
       <c r="Z9">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA9">
         <v>980</v>
       </c>
       <c r="AB9">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC9">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE9">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AF9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH9">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI9">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AJ9">
         <v>6.6</v>
       </c>
       <c r="AK9">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AL9">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ9">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AR9">
         <v>10</v>
@@ -2945,43 +3020,43 @@
         <v>11</v>
       </c>
       <c r="AT9">
+        <v>14</v>
+      </c>
+      <c r="AU9">
         <v>15.5</v>
       </c>
-      <c r="AU9">
-        <v>16.5</v>
-      </c>
       <c r="AV9">
+        <v>36</v>
+      </c>
+      <c r="AW9">
+        <v>46</v>
+      </c>
+      <c r="AX9">
+        <v>24</v>
+      </c>
+      <c r="AY9">
+        <v>200</v>
+      </c>
+      <c r="AZ9">
+        <v>5.9</v>
+      </c>
+      <c r="BA9">
+        <v>7</v>
+      </c>
+      <c r="BB9">
         <v>13.5</v>
       </c>
-      <c r="AW9">
-        <v>65</v>
-      </c>
-      <c r="AX9">
-        <v>12.5</v>
-      </c>
-      <c r="AY9">
-        <v>320</v>
-      </c>
-      <c r="AZ9">
-        <v>7.2</v>
-      </c>
-      <c r="BA9">
-        <v>8</v>
-      </c>
-      <c r="BB9">
-        <v>12</v>
-      </c>
       <c r="BC9">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="BD9">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BG9">
         <v>676467</v>
@@ -2993,16 +3068,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="BK9" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="BL9" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="BM9" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3010,175 +3085,175 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F10">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="H10">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J10">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K10">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="L10">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M10">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N10">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O10">
         <v>2.8</v>
       </c>
       <c r="P10">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R10">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="S10">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="T10">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="U10">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V10">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="W10">
         <v>12</v>
       </c>
       <c r="X10">
-        <v>3.9</v>
+        <v>14.5</v>
       </c>
       <c r="Y10">
         <v>25</v>
       </c>
       <c r="Z10">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AA10">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB10">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC10">
         <v>10.5</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="AE10">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF10">
-        <v>3.65</v>
+        <v>10.5</v>
       </c>
       <c r="AG10">
         <v>18</v>
       </c>
       <c r="AH10">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AI10">
         <v>55</v>
       </c>
       <c r="AJ10">
-        <v>3.7</v>
+        <v>11.5</v>
       </c>
       <c r="AK10">
         <v>19</v>
       </c>
       <c r="AL10">
-        <v>3.55</v>
+        <v>9.6</v>
       </c>
       <c r="AM10">
+        <v>16</v>
+      </c>
+      <c r="AN10">
         <v>15.5</v>
-      </c>
-      <c r="AN10">
-        <v>3.95</v>
       </c>
       <c r="AO10">
         <v>27</v>
       </c>
       <c r="AP10">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AS10">
         <v>50</v>
       </c>
       <c r="AT10">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AU10">
         <v>44</v>
       </c>
       <c r="AV10">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AW10">
         <v>75</v>
       </c>
       <c r="AX10">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BA10">
         <v>44</v>
       </c>
       <c r="BB10">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="BC10">
         <v>65</v>
       </c>
       <c r="BD10">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BG10">
         <v>5170870</v>
@@ -3190,16 +3265,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="BK10" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="BL10" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="BM10" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3207,175 +3282,175 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F11">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="G11">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I11">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J11">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K11">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L11">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M11">
         <v>1.61</v>
       </c>
       <c r="N11">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q11">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R11">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T11">
+        <v>6.6</v>
+      </c>
+      <c r="U11">
+        <v>980</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>980</v>
+      </c>
+      <c r="X11">
+        <v>3.4</v>
+      </c>
+      <c r="Y11">
+        <v>980</v>
+      </c>
+      <c r="Z11">
+        <v>1.5</v>
+      </c>
+      <c r="AA11">
+        <v>1000</v>
+      </c>
+      <c r="AB11">
+        <v>5.4</v>
+      </c>
+      <c r="AC11">
+        <v>980</v>
+      </c>
+      <c r="AD11">
         <v>3.85</v>
       </c>
-      <c r="U11">
+      <c r="AE11">
+        <v>7.2</v>
+      </c>
+      <c r="AF11">
+        <v>6.2</v>
+      </c>
+      <c r="AG11">
+        <v>980</v>
+      </c>
+      <c r="AH11">
+        <v>1.51</v>
+      </c>
+      <c r="AI11">
+        <v>1000</v>
+      </c>
+      <c r="AJ11">
         <v>8.6</v>
       </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>13.5</v>
-      </c>
-      <c r="X11">
-        <v>1.29</v>
-      </c>
-      <c r="Y11">
-        <v>40</v>
-      </c>
-      <c r="Z11">
-        <v>1.31</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>5.3</v>
-      </c>
-      <c r="AC11">
-        <v>7</v>
-      </c>
-      <c r="AD11">
-        <v>3.8</v>
-      </c>
-      <c r="AE11">
-        <v>8.4</v>
-      </c>
-      <c r="AF11">
-        <v>2.62</v>
-      </c>
-      <c r="AG11">
-        <v>25</v>
-      </c>
-      <c r="AH11">
-        <v>1.31</v>
-      </c>
-      <c r="AI11">
-        <v>1000</v>
-      </c>
-      <c r="AJ11">
-        <v>4.3</v>
-      </c>
       <c r="AK11">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AL11">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="AM11">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AN11">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="AO11">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AQ11">
         <v>1000</v>
       </c>
       <c r="AR11">
-        <v>2.44</v>
+        <v>6.4</v>
       </c>
       <c r="AS11">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU11">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AV11">
-        <v>1.33</v>
+        <v>3.55</v>
       </c>
       <c r="AW11">
         <v>1000</v>
       </c>
       <c r="AX11">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="BA11">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="BB11">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BG11">
         <v>41860831</v>
@@ -3387,16 +3462,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="BK11" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="BL11" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="BM11" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3404,28 +3479,28 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F12">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="G12">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H12">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>5.4</v>
@@ -3434,76 +3509,76 @@
         <v>6.2</v>
       </c>
       <c r="L12">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M12">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="N12">
         <v>1.53</v>
       </c>
       <c r="O12">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P12">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q12">
+        <v>1.98</v>
+      </c>
+      <c r="R12">
         <v>2.02</v>
       </c>
-      <c r="R12">
-        <v>1.98</v>
-      </c>
       <c r="S12">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T12">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="U12">
         <v>980</v>
       </c>
       <c r="V12">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="W12">
         <v>980</v>
       </c>
       <c r="X12">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y12">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="Z12">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB12">
         <v>9.4</v>
       </c>
       <c r="AC12">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD12">
         <v>10.5</v>
       </c>
       <c r="AE12">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF12">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AG12">
         <v>980</v>
       </c>
       <c r="AH12">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AI12">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ12">
         <v>8.199999999999999</v>
@@ -3518,16 +3593,16 @@
         <v>11.5</v>
       </c>
       <c r="AN12">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO12">
         <v>980</v>
       </c>
       <c r="AP12">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AQ12">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AR12">
         <v>10</v>
@@ -3542,37 +3617,37 @@
         <v>15.5</v>
       </c>
       <c r="AV12">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AW12">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AX12">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AY12">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AZ12">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="BA12">
         <v>5.2</v>
       </c>
       <c r="BB12">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="BC12">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="BD12">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BG12">
         <v>5344868</v>
@@ -3584,16 +3659,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="BK12" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="BL12" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="BM12" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3601,16 +3676,16 @@
         <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <v>2.2</v>
@@ -3619,13 +3694,13 @@
         <v>2.36</v>
       </c>
       <c r="H13">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13">
         <v>3.85</v>
@@ -3655,121 +3730,121 @@
         <v>2.48</v>
       </c>
       <c r="T13">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="U13">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="V13">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="W13">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="X13">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y13">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z13">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AA13">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD13">
-        <v>3.25</v>
+        <v>7.8</v>
       </c>
       <c r="AE13">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF13">
         <v>11</v>
       </c>
       <c r="AG13">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AI13">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ13">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AK13">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AL13">
-        <v>3.35</v>
+        <v>9.4</v>
       </c>
       <c r="AM13">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AO13">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AQ13">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AR13">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AS13">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AT13">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AU13">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AV13">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AW13">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AX13">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="BA13">
         <v>18</v>
       </c>
       <c r="BB13">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BC13">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="BD13">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BG13">
         <v>7196232</v>
@@ -3781,16 +3856,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="BK13" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="BL13" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="BM13" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3798,22 +3873,22 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F14">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G14">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H14">
         <v>3.5</v>
@@ -3825,49 +3900,49 @@
         <v>3.25</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
         <v>1.68</v>
       </c>
       <c r="M14">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="N14">
+        <v>2.2</v>
+      </c>
+      <c r="O14">
+        <v>2.48</v>
+      </c>
+      <c r="P14">
+        <v>1.96</v>
+      </c>
+      <c r="Q14">
+        <v>2.14</v>
+      </c>
+      <c r="R14">
+        <v>1.88</v>
+      </c>
+      <c r="S14">
         <v>2.06</v>
       </c>
-      <c r="O14">
-        <v>2.46</v>
-      </c>
-      <c r="P14">
-        <v>1.89</v>
-      </c>
-      <c r="Q14">
-        <v>9.4</v>
-      </c>
-      <c r="R14">
-        <v>1.12</v>
-      </c>
-      <c r="S14">
-        <v>9.4</v>
-      </c>
       <c r="T14">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="U14">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V14">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X14">
-        <v>1.77</v>
+        <v>1.26</v>
       </c>
       <c r="Y14">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z14">
         <v>1.17</v>
@@ -3876,97 +3951,97 @@
         <v>1000</v>
       </c>
       <c r="AB14">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AC14">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD14">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE14">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF14">
-        <v>1.17</v>
+        <v>5.4</v>
       </c>
       <c r="AG14">
         <v>17.5</v>
       </c>
       <c r="AH14">
-        <v>4.4</v>
+        <v>1.17</v>
       </c>
       <c r="AI14">
         <v>1000</v>
       </c>
       <c r="AJ14">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AK14">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="AM14">
         <v>12.5</v>
       </c>
       <c r="AN14">
-        <v>5.2</v>
+        <v>1.13</v>
       </c>
       <c r="AO14">
         <v>23</v>
       </c>
       <c r="AP14">
+        <v>1.11</v>
+      </c>
+      <c r="AQ14">
+        <v>1000</v>
+      </c>
+      <c r="AR14">
         <v>1.15</v>
-      </c>
-      <c r="AQ14">
-        <v>1000</v>
-      </c>
-      <c r="AR14">
-        <v>1.18</v>
       </c>
       <c r="AS14">
         <v>32</v>
       </c>
       <c r="AT14">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AV14">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AW14">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX14">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AY14">
         <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="BA14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB14">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BC14">
         <v>1000</v>
       </c>
       <c r="BD14">
-        <v>6.8</v>
+        <v>1.19</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BG14">
         <v>4231683</v>
@@ -3978,16 +4053,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="BK14" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="BL14" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="BM14" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3995,61 +4070,61 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G15">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H15">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="I15">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J15">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K15">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L15">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="M15">
         <v>2.3</v>
       </c>
       <c r="N15">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O15">
         <v>2.02</v>
       </c>
       <c r="P15">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q15">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R15">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="S15">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T15">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="U15">
         <v>980</v>
@@ -4061,40 +4136,40 @@
         <v>980</v>
       </c>
       <c r="X15">
+        <v>4.4</v>
+      </c>
+      <c r="Y15">
+        <v>980</v>
+      </c>
+      <c r="Z15">
+        <v>1.58</v>
+      </c>
+      <c r="AA15">
+        <v>980</v>
+      </c>
+      <c r="AB15">
+        <v>5.3</v>
+      </c>
+      <c r="AC15">
+        <v>980</v>
+      </c>
+      <c r="AD15">
+        <v>4.2</v>
+      </c>
+      <c r="AE15">
+        <v>980</v>
+      </c>
+      <c r="AF15">
         <v>4.3</v>
       </c>
-      <c r="Y15">
-        <v>11.5</v>
-      </c>
-      <c r="Z15">
-        <v>2.02</v>
-      </c>
-      <c r="AA15">
-        <v>18.5</v>
-      </c>
-      <c r="AB15">
-        <v>5.2</v>
-      </c>
-      <c r="AC15">
-        <v>980</v>
-      </c>
-      <c r="AD15">
-        <v>4.1</v>
-      </c>
-      <c r="AE15">
-        <v>980</v>
-      </c>
-      <c r="AF15">
-        <v>4.2</v>
-      </c>
       <c r="AG15">
         <v>980</v>
       </c>
       <c r="AH15">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AI15">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AJ15">
         <v>1.1</v>
@@ -4145,16 +4220,16 @@
         <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="BA15">
         <v>1000</v>
       </c>
       <c r="BB15">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="BC15">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="BD15">
         <v>1.1</v>
@@ -4163,7 +4238,7 @@
         <v>1000</v>
       </c>
       <c r="BF15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BG15">
         <v>13638535</v>
@@ -4175,16 +4250,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="BK15" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="BL15" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="BM15" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4192,70 +4267,70 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F16">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G16">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I16">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J16">
+        <v>3.65</v>
+      </c>
+      <c r="K16">
         <v>3.7</v>
-      </c>
-      <c r="K16">
-        <v>3.75</v>
       </c>
       <c r="L16">
         <v>2.22</v>
       </c>
       <c r="M16">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="N16">
         <v>1.8</v>
       </c>
       <c r="O16">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P16">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R16">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="S16">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T16">
+        <v>15.5</v>
+      </c>
+      <c r="U16">
         <v>16</v>
-      </c>
-      <c r="U16">
-        <v>17</v>
       </c>
       <c r="V16">
         <v>13.5</v>
       </c>
       <c r="W16">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X16">
         <v>20</v>
@@ -4279,7 +4354,7 @@
         <v>7.8</v>
       </c>
       <c r="AE16">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF16">
         <v>12</v>
@@ -4291,7 +4366,7 @@
         <v>27</v>
       </c>
       <c r="AI16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ16">
         <v>15.5</v>
@@ -4333,13 +4408,13 @@
         <v>30</v>
       </c>
       <c r="AW16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX16">
         <v>65</v>
       </c>
       <c r="AY16">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ16">
         <v>15</v>
@@ -4351,16 +4426,16 @@
         <v>20</v>
       </c>
       <c r="BC16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD16">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="BE16">
         <v>980</v>
       </c>
       <c r="BF16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BG16">
         <v>52457652</v>
@@ -4372,16 +4447,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="BK16" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="BL16" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="BM16" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4389,28 +4464,28 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F17">
+        <v>2.96</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>3.05</v>
-      </c>
       <c r="H17">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I17">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J17">
         <v>3.55</v>
@@ -4419,19 +4494,19 @@
         <v>3.6</v>
       </c>
       <c r="L17">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="M17">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="P17">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q17">
         <v>1.84</v>
@@ -4440,25 +4515,25 @@
         <v>2.18</v>
       </c>
       <c r="S17">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T17">
+        <v>13</v>
+      </c>
+      <c r="U17">
         <v>13.5</v>
-      </c>
-      <c r="U17">
-        <v>14.5</v>
       </c>
       <c r="V17">
         <v>10</v>
       </c>
       <c r="W17">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X17">
         <v>15</v>
       </c>
       <c r="Y17">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z17">
         <v>32</v>
@@ -4467,16 +4542,16 @@
         <v>36</v>
       </c>
       <c r="AB17">
+        <v>11.5</v>
+      </c>
+      <c r="AC17">
         <v>12</v>
       </c>
-      <c r="AC17">
-        <v>13</v>
-      </c>
       <c r="AD17">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE17">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF17">
         <v>11</v>
@@ -4488,7 +4563,7 @@
         <v>25</v>
       </c>
       <c r="AI17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ17">
         <v>18.5</v>
@@ -4518,7 +4593,7 @@
         <v>42</v>
       </c>
       <c r="AS17">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AT17">
         <v>30</v>
@@ -4533,10 +4608,10 @@
         <v>44</v>
       </c>
       <c r="AX17">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AY17">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AZ17">
         <v>26</v>
@@ -4545,19 +4620,19 @@
         <v>29</v>
       </c>
       <c r="BB17">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BC17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BE17">
         <v>1000</v>
       </c>
       <c r="BF17" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BG17">
         <v>56967</v>
@@ -4569,16 +4644,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="BK17" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="BL17" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="BM17" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4586,196 +4661,196 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F18">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="G18">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="H18">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="I18">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="J18">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="K18">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L18">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="M18">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="N18">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="O18">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P18">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q18">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R18">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="S18">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U18">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="V18">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="W18">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="X18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Y18">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA18">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AB18">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC18">
+        <v>11.5</v>
+      </c>
+      <c r="AD18">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE18">
         <v>10.5</v>
       </c>
-      <c r="AD18">
-        <v>8</v>
-      </c>
-      <c r="AE18">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AF18">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG18">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AH18">
         <v>42</v>
       </c>
       <c r="AI18">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AJ18">
+        <v>10.5</v>
+      </c>
+      <c r="AK18">
         <v>11.5</v>
       </c>
-      <c r="AK18">
-        <v>12.5</v>
-      </c>
       <c r="AL18">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM18">
         <v>10</v>
       </c>
       <c r="AN18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO18">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AQ18">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AR18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AS18">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AT18">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AU18">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AV18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AW18">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AX18">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AY18">
         <v>80</v>
       </c>
       <c r="AZ18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA18">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="BB18">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BC18">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="BD18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BE18">
         <v>980</v>
       </c>
       <c r="BF18" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BG18">
-        <v>232095</v>
+        <v>46726</v>
       </c>
       <c r="BH18">
-        <v>10762</v>
+        <v>55243</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="BK18" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="BL18" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="BM18" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4783,43 +4858,43 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F19">
+        <v>3.95</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="G19">
+      <c r="H19">
+        <v>1.97</v>
+      </c>
+      <c r="I19">
+        <v>1.98</v>
+      </c>
+      <c r="J19">
         <v>4.1</v>
-      </c>
-      <c r="H19">
-        <v>1.96</v>
-      </c>
-      <c r="I19">
-        <v>1.97</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
       </c>
       <c r="K19">
         <v>4.2</v>
       </c>
       <c r="L19">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="N19">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O19">
         <v>1.66</v>
@@ -4828,49 +4903,49 @@
         <v>1.61</v>
       </c>
       <c r="Q19">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R19">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="S19">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V19">
         <v>12</v>
       </c>
       <c r="W19">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X19">
         <v>13</v>
       </c>
       <c r="Y19">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB19">
         <v>19</v>
       </c>
       <c r="AC19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD19">
         <v>9</v>
       </c>
       <c r="AE19">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF19">
         <v>9.800000000000001</v>
@@ -4882,10 +4957,10 @@
         <v>16.5</v>
       </c>
       <c r="AI19">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK19">
         <v>32</v>
@@ -4900,7 +4975,7 @@
         <v>14.5</v>
       </c>
       <c r="AO19">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP19">
         <v>24</v>
@@ -4909,16 +4984,16 @@
         <v>26</v>
       </c>
       <c r="AR19">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AS19">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AT19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AU19">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AV19">
         <v>38</v>
@@ -4927,31 +5002,31 @@
         <v>44</v>
       </c>
       <c r="AX19">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY19">
         <v>65</v>
       </c>
       <c r="AZ19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA19">
         <v>29</v>
       </c>
       <c r="BB19">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC19">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BD19">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="BE19">
         <v>980</v>
       </c>
       <c r="BF19" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BG19">
         <v>48756</v>
@@ -4963,16 +5038,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="BK19" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="BL19" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="BM19" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4980,112 +5055,112 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F20">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="G20">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="H20">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="I20">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="J20">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="K20">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L20">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="M20">
-        <v>2.74</v>
+        <v>2.24</v>
       </c>
       <c r="N20">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="O20">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="P20">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="Q20">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="R20">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="S20">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="T20">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U20">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="V20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Y20">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z20">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA20">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AB20">
+        <v>9.4</v>
+      </c>
+      <c r="AC20">
         <v>10.5</v>
       </c>
-      <c r="AC20">
-        <v>12</v>
-      </c>
       <c r="AD20">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE20">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI20">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ20">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK20">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL20">
         <v>9.199999999999999</v>
@@ -5094,82 +5169,82 @@
         <v>10</v>
       </c>
       <c r="AN20">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20">
         <v>42</v>
       </c>
       <c r="AQ20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR20">
+        <v>18.5</v>
+      </c>
+      <c r="AS20">
+        <v>20</v>
+      </c>
+      <c r="AT20">
+        <v>16.5</v>
+      </c>
+      <c r="AU20">
+        <v>18</v>
+      </c>
+      <c r="AV20">
+        <v>28</v>
+      </c>
+      <c r="AW20">
+        <v>32</v>
+      </c>
+      <c r="AX20">
+        <v>13.5</v>
+      </c>
+      <c r="AY20">
+        <v>90</v>
+      </c>
+      <c r="AZ20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA20">
+        <v>11</v>
+      </c>
+      <c r="BB20">
+        <v>12</v>
+      </c>
+      <c r="BC20">
+        <v>50</v>
+      </c>
+      <c r="BD20">
         <v>15</v>
       </c>
-      <c r="AS20">
-        <v>17</v>
-      </c>
-      <c r="AT20">
-        <v>13.5</v>
-      </c>
-      <c r="AU20">
-        <v>14.5</v>
-      </c>
-      <c r="AV20">
-        <v>23</v>
-      </c>
-      <c r="AW20">
-        <v>27</v>
-      </c>
-      <c r="AX20">
-        <v>15</v>
-      </c>
-      <c r="AY20">
-        <v>75</v>
-      </c>
-      <c r="AZ20">
-        <v>6</v>
-      </c>
-      <c r="BA20">
-        <v>7</v>
-      </c>
-      <c r="BB20">
-        <v>13.5</v>
-      </c>
-      <c r="BC20">
-        <v>48</v>
-      </c>
-      <c r="BD20">
-        <v>16</v>
-      </c>
       <c r="BE20">
         <v>980</v>
       </c>
       <c r="BF20" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BG20">
-        <v>46726</v>
+        <v>232095</v>
       </c>
       <c r="BH20">
-        <v>55243</v>
+        <v>10762</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="BK20" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="BL20" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="BM20" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5177,34 +5252,34 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F21">
         <v>4.7</v>
       </c>
       <c r="G21">
+        <v>4.8</v>
+      </c>
+      <c r="H21">
+        <v>1.69</v>
+      </c>
+      <c r="I21">
+        <v>1.7</v>
+      </c>
+      <c r="J21">
         <v>4.9</v>
       </c>
-      <c r="H21">
-        <v>1.71</v>
-      </c>
-      <c r="I21">
-        <v>1.72</v>
-      </c>
-      <c r="J21">
-        <v>4.8</v>
-      </c>
       <c r="K21">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>3.2</v>
@@ -5213,25 +5288,25 @@
         <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="O21">
         <v>1.46</v>
       </c>
       <c r="P21">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q21">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R21">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U21">
         <v>32</v>
@@ -5240,31 +5315,31 @@
         <v>15</v>
       </c>
       <c r="W21">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X21">
         <v>14</v>
       </c>
       <c r="Y21">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z21">
+        <v>17.5</v>
+      </c>
+      <c r="AA21">
         <v>18</v>
       </c>
-      <c r="AA21">
-        <v>19.5</v>
-      </c>
       <c r="AB21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC21">
         <v>32</v>
       </c>
       <c r="AD21">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE21">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF21">
         <v>10</v>
@@ -5276,7 +5351,7 @@
         <v>13.5</v>
       </c>
       <c r="AI21">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ21">
         <v>42</v>
@@ -5285,7 +5360,7 @@
         <v>46</v>
       </c>
       <c r="AL21">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM21">
         <v>19.5</v>
@@ -5300,7 +5375,7 @@
         <v>20</v>
       </c>
       <c r="AQ21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR21">
         <v>36</v>
@@ -5318,10 +5393,10 @@
         <v>36</v>
       </c>
       <c r="AW21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AY21">
         <v>55</v>
@@ -5330,22 +5405,22 @@
         <v>23</v>
       </c>
       <c r="BA21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB21">
+        <v>5.4</v>
+      </c>
+      <c r="BC21">
         <v>5.6</v>
       </c>
-      <c r="BC21">
-        <v>5.8</v>
-      </c>
       <c r="BD21">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="BE21">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="BF21" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BG21">
         <v>215817</v>
@@ -5357,16 +5432,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="BK21" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="BL21" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="BM21" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5374,175 +5449,175 @@
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F22">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="G22">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="H22">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J22">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K22">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M22">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N22">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="O22">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="P22">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q22">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R22">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U22">
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <v>9.6</v>
+      </c>
+      <c r="W22">
+        <v>12</v>
+      </c>
+      <c r="X22">
+        <v>6.6</v>
+      </c>
+      <c r="Y22">
+        <v>26</v>
+      </c>
+      <c r="Z22">
+        <v>7.2</v>
+      </c>
+      <c r="AA22">
+        <v>80</v>
+      </c>
+      <c r="AB22">
+        <v>6.8</v>
+      </c>
+      <c r="AC22">
         <v>8.4</v>
       </c>
-      <c r="U22">
-        <v>11.5</v>
-      </c>
-      <c r="V22">
-        <v>11</v>
-      </c>
-      <c r="W22">
-        <v>14</v>
-      </c>
-      <c r="X22">
+      <c r="AD22">
+        <v>6.8</v>
+      </c>
+      <c r="AE22">
+        <v>8.4</v>
+      </c>
+      <c r="AF22">
         <v>5.6</v>
       </c>
-      <c r="Y22">
-        <v>36</v>
-      </c>
-      <c r="Z22">
-        <v>6.4</v>
-      </c>
-      <c r="AA22">
-        <v>130</v>
-      </c>
-      <c r="AB22">
-        <v>6.6</v>
-      </c>
-      <c r="AC22">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD22">
-        <v>7.2</v>
-      </c>
-      <c r="AE22">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF22">
-        <v>5.1</v>
-      </c>
       <c r="AG22">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH22">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AI22">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ22">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK22">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL22">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AM22">
         <v>12.5</v>
       </c>
       <c r="AN22">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO22">
         <v>980</v>
       </c>
       <c r="AP22">
+        <v>7.2</v>
+      </c>
+      <c r="AQ22">
+        <v>85</v>
+      </c>
+      <c r="AR22">
         <v>6.2</v>
       </c>
-      <c r="AQ22">
-        <v>100</v>
-      </c>
-      <c r="AR22">
-        <v>5.3</v>
-      </c>
       <c r="AS22">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AT22">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AU22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AV22">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AW22">
         <v>60</v>
       </c>
       <c r="AX22">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AY22">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AZ22">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BA22">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BB22">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BC22">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="BD22">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BG22">
         <v>4082025</v>
@@ -5554,16 +5629,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="BK22" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="BL22" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="BM22" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5571,79 +5646,79 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F23">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G23">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J23">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L23">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="M23">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="N23">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O23">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P23">
-        <v>1.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q23">
-        <v>9.4</v>
+        <v>2.18</v>
       </c>
       <c r="R23">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>9.4</v>
+        <v>1.99</v>
       </c>
       <c r="T23">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="U23">
         <v>24</v>
       </c>
       <c r="V23">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="W23">
         <v>1000</v>
       </c>
       <c r="X23">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="Y23">
         <v>1000</v>
       </c>
       <c r="Z23">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AA23">
         <v>1000</v>
@@ -5652,94 +5727,94 @@
         <v>4</v>
       </c>
       <c r="AC23">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD23">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AE23">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF23">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AG23">
         <v>1000</v>
       </c>
       <c r="AH23">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AI23">
         <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AK23">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AL23">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="AM23">
         <v>12</v>
       </c>
       <c r="AN23">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="AO23">
         <v>1000</v>
       </c>
       <c r="AP23">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AQ23">
         <v>1000</v>
       </c>
       <c r="AR23">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AS23">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AT23">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AU23">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AV23">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AW23">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX23">
-        <v>1.03</v>
+        <v>1.41</v>
       </c>
       <c r="AY23">
         <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="BA23">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="BB23">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="BC23">
         <v>1000</v>
       </c>
       <c r="BD23">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BG23">
         <v>6432339</v>
@@ -5751,1001 +5826,1592 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="BK23" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="BL23" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="BM23" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F24">
-        <v>2.88</v>
+        <v>1.82</v>
       </c>
       <c r="G24">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="H24">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>2.96</v>
+        <v>5.9</v>
       </c>
       <c r="J24">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K24">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L24">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="M24">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="N24">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="O24">
-        <v>2.76</v>
+        <v>2.2</v>
       </c>
       <c r="P24">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="Q24">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="R24">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="T24">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="U24">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="V24">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="W24">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="X24">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="Y24">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z24">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AA24">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB24">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AC24">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD24">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE24">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AF24">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AG24">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH24">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="AI24">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AK24">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL24">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AM24">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AN24">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AO24">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AP24">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ24">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AR24">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS24">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AT24">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU24">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AV24">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AW24">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AX24">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AY24">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="BA24">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="BB24">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="BC24">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="BD24">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BG24">
-        <v>9195442</v>
+        <v>7838019</v>
       </c>
       <c r="BH24">
-        <v>1067444</v>
+        <v>46783501</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="BK24" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="BL24" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="BM24" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F25">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="G25">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="H25">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J25">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="K25">
-        <v>7.6</v>
+        <v>950</v>
       </c>
       <c r="L25">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="N25">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="O25">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="P25">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="Q25">
         <v>1000</v>
       </c>
       <c r="R25">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="S25">
         <v>1000</v>
       </c>
       <c r="T25">
+        <v>1.29</v>
+      </c>
+      <c r="U25">
+        <v>1000</v>
+      </c>
+      <c r="V25">
+        <v>2.98</v>
+      </c>
+      <c r="W25">
+        <v>1000</v>
+      </c>
+      <c r="X25">
+        <v>2.54</v>
+      </c>
+      <c r="Y25">
+        <v>1000</v>
+      </c>
+      <c r="Z25">
+        <v>3.2</v>
+      </c>
+      <c r="AA25">
+        <v>1000</v>
+      </c>
+      <c r="AB25">
         <v>2.52</v>
       </c>
-      <c r="U25">
-        <v>26</v>
-      </c>
-      <c r="V25">
+      <c r="AC25">
+        <v>1000</v>
+      </c>
+      <c r="AD25">
         <v>3.85</v>
       </c>
-      <c r="W25">
-        <v>36</v>
-      </c>
-      <c r="X25">
-        <v>4.1</v>
-      </c>
-      <c r="Y25">
-        <v>1000</v>
-      </c>
-      <c r="Z25">
-        <v>4.2</v>
-      </c>
-      <c r="AA25">
-        <v>1000</v>
-      </c>
-      <c r="AB25">
-        <v>7.2</v>
-      </c>
-      <c r="AC25">
-        <v>12</v>
-      </c>
-      <c r="AD25">
+      <c r="AE25">
+        <v>1000</v>
+      </c>
+      <c r="AF25">
+        <v>4.7</v>
+      </c>
+      <c r="AG25">
+        <v>1000</v>
+      </c>
+      <c r="AH25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AI25">
+        <v>1000</v>
+      </c>
+      <c r="AJ25">
+        <v>2.86</v>
+      </c>
+      <c r="AK25">
+        <v>1000</v>
+      </c>
+      <c r="AL25">
+        <v>2.98</v>
+      </c>
+      <c r="AM25">
+        <v>1000</v>
+      </c>
+      <c r="AN25">
+        <v>4.5</v>
+      </c>
+      <c r="AO25">
+        <v>1000</v>
+      </c>
+      <c r="AP25">
+        <v>13.5</v>
+      </c>
+      <c r="AQ25">
+        <v>1000</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>1000</v>
+      </c>
+      <c r="AT25">
+        <v>5.2</v>
+      </c>
+      <c r="AU25">
+        <v>1000</v>
+      </c>
+      <c r="AV25">
         <v>8.6</v>
       </c>
-      <c r="AE25">
-        <v>14</v>
-      </c>
-      <c r="AF25">
-        <v>3.85</v>
-      </c>
-      <c r="AG25">
-        <v>36</v>
-      </c>
-      <c r="AH25">
-        <v>4.1</v>
-      </c>
-      <c r="AI25">
-        <v>1000</v>
-      </c>
-      <c r="AJ25">
-        <v>7</v>
-      </c>
-      <c r="AK25">
-        <v>11.5</v>
-      </c>
-      <c r="AL25">
-        <v>7.6</v>
-      </c>
-      <c r="AM25">
-        <v>12.5</v>
-      </c>
-      <c r="AN25">
-        <v>3.75</v>
-      </c>
-      <c r="AO25">
-        <v>30</v>
-      </c>
-      <c r="AP25">
-        <v>4.1</v>
-      </c>
-      <c r="AQ25">
-        <v>1000</v>
-      </c>
-      <c r="AR25">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AS25">
-        <v>16</v>
-      </c>
-      <c r="AT25">
-        <v>11</v>
-      </c>
-      <c r="AU25">
-        <v>18</v>
-      </c>
-      <c r="AV25">
-        <v>3.9</v>
-      </c>
       <c r="AW25">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AX25">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="AY25">
         <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="BA25">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="BB25">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="BC25">
         <v>1000</v>
       </c>
       <c r="BD25">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BG25">
-        <v>13749040</v>
+        <v>329419</v>
       </c>
       <c r="BH25">
-        <v>330234</v>
+        <v>10992747</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BK25" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="BL25" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="BM25" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F26">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G26">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="I26">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="J26">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="K26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L26">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M26">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="N26">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="O26">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q26">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R26">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T26">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U26">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="V26">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="W26">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="X26">
+        <v>19.5</v>
+      </c>
+      <c r="Y26">
+        <v>29</v>
+      </c>
+      <c r="Z26">
+        <v>5.4</v>
+      </c>
+      <c r="AA26">
+        <v>90</v>
+      </c>
+      <c r="AB26">
+        <v>7.2</v>
+      </c>
+      <c r="AC26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>6.6</v>
+      </c>
+      <c r="AE26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF26">
+        <v>13</v>
+      </c>
+      <c r="AG26">
+        <v>19.5</v>
+      </c>
+      <c r="AH26">
+        <v>5.3</v>
+      </c>
+      <c r="AI26">
+        <v>65</v>
+      </c>
+      <c r="AJ26">
+        <v>11.5</v>
+      </c>
+      <c r="AK26">
+        <v>16</v>
+      </c>
+      <c r="AL26">
+        <v>10</v>
+      </c>
+      <c r="AM26">
+        <v>13</v>
+      </c>
+      <c r="AN26">
+        <v>16</v>
+      </c>
+      <c r="AO26">
+        <v>27</v>
+      </c>
+      <c r="AP26">
+        <v>5.4</v>
+      </c>
+      <c r="AQ26">
+        <v>90</v>
+      </c>
+      <c r="AR26">
+        <v>5</v>
+      </c>
+      <c r="AS26">
+        <v>38</v>
+      </c>
+      <c r="AT26">
+        <v>5.2</v>
+      </c>
+      <c r="AU26">
         <v>36</v>
       </c>
-      <c r="Y26">
-        <v>65</v>
-      </c>
-      <c r="Z26">
-        <v>4.7</v>
-      </c>
-      <c r="AA26">
-        <v>980</v>
-      </c>
-      <c r="AB26">
-        <v>6.8</v>
-      </c>
-      <c r="AC26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE26">
-        <v>11</v>
-      </c>
-      <c r="AF26">
-        <v>18.5</v>
-      </c>
-      <c r="AG26">
+      <c r="AV26">
+        <v>5.3</v>
+      </c>
+      <c r="AW26">
+        <v>70</v>
+      </c>
+      <c r="AX26">
+        <v>5.6</v>
+      </c>
+      <c r="AY26">
+        <v>200</v>
+      </c>
+      <c r="AZ26">
+        <v>4.9</v>
+      </c>
+      <c r="BA26">
         <v>32</v>
       </c>
-      <c r="AH26">
-        <v>5</v>
-      </c>
-      <c r="AI26">
-        <v>130</v>
-      </c>
-      <c r="AJ26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK26">
-        <v>11</v>
-      </c>
-      <c r="AL26">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM26">
-        <v>12.5</v>
-      </c>
-      <c r="AN26">
-        <v>20</v>
-      </c>
-      <c r="AO26">
-        <v>30</v>
-      </c>
-      <c r="AP26">
-        <v>5</v>
-      </c>
-      <c r="AQ26">
-        <v>980</v>
-      </c>
-      <c r="AR26">
-        <v>11.5</v>
-      </c>
-      <c r="AS26">
-        <v>19.5</v>
-      </c>
-      <c r="AT26">
-        <v>16.5</v>
-      </c>
-      <c r="AU26">
-        <v>23</v>
-      </c>
-      <c r="AV26">
-        <v>34</v>
-      </c>
-      <c r="AW26">
-        <v>55</v>
-      </c>
-      <c r="AX26">
-        <v>4.7</v>
-      </c>
-      <c r="AY26">
-        <v>980</v>
-      </c>
-      <c r="AZ26">
-        <v>3.5</v>
-      </c>
-      <c r="BA26">
-        <v>13</v>
-      </c>
       <c r="BB26">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="BC26">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="BD26">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BG26">
-        <v>198128</v>
+        <v>9195442</v>
       </c>
       <c r="BH26">
-        <v>5326988</v>
+        <v>1067444</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BK26" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="BL26" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="BM26" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F27">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="G27">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="H27">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I27">
-        <v>870</v>
+        <v>10.5</v>
       </c>
       <c r="J27">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K27">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L27">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="N27">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="O27">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="P27">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="Q27">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="R27">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="S27">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="T27">
-        <v>1.49</v>
+        <v>3.85</v>
       </c>
       <c r="U27">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="V27">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="X27">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="Y27">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z27">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="AA27">
         <v>1000</v>
       </c>
       <c r="AB27">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AC27">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD27">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AE27">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF27">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AG27">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH27">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AI27">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK27">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AL27">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AM27">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AN27">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AO27">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AP27">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AQ27">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AR27">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS27">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AT27">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AU27">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AV27">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AW27">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX27">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AY27">
         <v>1000</v>
       </c>
       <c r="AZ27">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="BA27">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="BB27">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="BC27">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="BD27">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="BG27">
-        <v>219457</v>
+        <v>13749040</v>
       </c>
       <c r="BH27">
-        <v>7587321</v>
+        <v>330234</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="BK27" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="BL27" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="BM27" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F28">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="G28">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="I28">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="K28">
+        <v>4.8</v>
+      </c>
+      <c r="L28">
+        <v>1.27</v>
+      </c>
+      <c r="M28">
+        <v>55</v>
+      </c>
+      <c r="N28">
+        <v>1.02</v>
+      </c>
+      <c r="O28">
         <v>4.6</v>
       </c>
-      <c r="L28">
-        <v>1.77</v>
-      </c>
-      <c r="M28">
-        <v>1.85</v>
-      </c>
-      <c r="N28">
-        <v>2.18</v>
-      </c>
-      <c r="O28">
-        <v>2.3</v>
-      </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="Q28">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="R28">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="S28">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="T28">
-        <v>9.800000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="U28">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="V28">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="W28">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="X28">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="Y28">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z28">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AA28">
         <v>1000</v>
       </c>
       <c r="AB28">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AC28">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD28">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AE28">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AF28">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AG28">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH28">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AI28">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AK28">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AL28">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AM28">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AN28">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AO28">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AP28">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ28">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AR28">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AS28">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AT28">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU28">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AV28">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AW28">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AX28">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AY28">
         <v>1000</v>
       </c>
       <c r="AZ28">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BA28">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="BB28">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BC28">
         <v>1000</v>
       </c>
       <c r="BD28">
-        <v>6.8</v>
+        <v>1.03</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="BG28">
-        <v>26076470</v>
+        <v>893608</v>
       </c>
       <c r="BH28">
-        <v>478919</v>
+        <v>40477205</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="BK28" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="BL28" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="BM28" t="s">
-        <v>284</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29">
+        <v>1.64</v>
+      </c>
+      <c r="G29">
+        <v>1.7</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>6.8</v>
+      </c>
+      <c r="J29">
+        <v>3.9</v>
+      </c>
+      <c r="K29">
+        <v>4.2</v>
+      </c>
+      <c r="L29">
+        <v>1.86</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2.16</v>
+      </c>
+      <c r="P29">
+        <v>1.98</v>
+      </c>
+      <c r="Q29">
+        <v>2.2</v>
+      </c>
+      <c r="R29">
+        <v>1.83</v>
+      </c>
+      <c r="S29">
+        <v>2.04</v>
+      </c>
+      <c r="T29">
+        <v>11.5</v>
+      </c>
+      <c r="U29">
+        <v>15.5</v>
+      </c>
+      <c r="V29">
+        <v>13.5</v>
+      </c>
+      <c r="W29">
+        <v>23</v>
+      </c>
+      <c r="X29">
+        <v>36</v>
+      </c>
+      <c r="Y29">
+        <v>60</v>
+      </c>
+      <c r="Z29">
+        <v>4.5</v>
+      </c>
+      <c r="AA29">
+        <v>980</v>
+      </c>
+      <c r="AB29">
+        <v>6.2</v>
+      </c>
+      <c r="AC29">
+        <v>9</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>11</v>
+      </c>
+      <c r="AF29">
+        <v>18</v>
+      </c>
+      <c r="AG29">
+        <v>32</v>
+      </c>
+      <c r="AH29">
+        <v>4.7</v>
+      </c>
+      <c r="AI29">
+        <v>120</v>
+      </c>
+      <c r="AJ29">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK29">
+        <v>11</v>
+      </c>
+      <c r="AL29">
+        <v>8.6</v>
+      </c>
+      <c r="AM29">
+        <v>12.5</v>
+      </c>
+      <c r="AN29">
+        <v>18</v>
+      </c>
+      <c r="AO29">
+        <v>30</v>
+      </c>
+      <c r="AP29">
+        <v>4.7</v>
+      </c>
+      <c r="AQ29">
+        <v>130</v>
+      </c>
+      <c r="AR29">
+        <v>12</v>
+      </c>
+      <c r="AS29">
+        <v>19.5</v>
+      </c>
+      <c r="AT29">
+        <v>17</v>
+      </c>
+      <c r="AU29">
+        <v>23</v>
+      </c>
+      <c r="AV29">
+        <v>34</v>
+      </c>
+      <c r="AW29">
+        <v>55</v>
+      </c>
+      <c r="AX29">
+        <v>4.5</v>
+      </c>
+      <c r="AY29">
+        <v>980</v>
+      </c>
+      <c r="AZ29">
+        <v>3.4</v>
+      </c>
+      <c r="BA29">
+        <v>13.5</v>
+      </c>
+      <c r="BB29">
+        <v>4.4</v>
+      </c>
+      <c r="BC29">
+        <v>980</v>
+      </c>
+      <c r="BD29">
+        <v>4.5</v>
+      </c>
+      <c r="BE29">
+        <v>1000</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG29">
+        <v>198128</v>
+      </c>
+      <c r="BH29">
+        <v>5326988</v>
+      </c>
+      <c r="BI29">
+        <v>58805</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30">
+        <v>1.29</v>
+      </c>
+      <c r="G30">
+        <v>1.38</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>17.5</v>
+      </c>
+      <c r="J30">
+        <v>4.6</v>
+      </c>
+      <c r="K30">
+        <v>330</v>
+      </c>
+      <c r="L30">
+        <v>1.98</v>
+      </c>
+      <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>1.71</v>
+      </c>
+      <c r="O30">
+        <v>2.02</v>
+      </c>
+      <c r="P30">
+        <v>2.12</v>
+      </c>
+      <c r="Q30">
+        <v>2.94</v>
+      </c>
+      <c r="R30">
+        <v>1.52</v>
+      </c>
+      <c r="S30">
+        <v>1.9</v>
+      </c>
+      <c r="T30">
+        <v>1.08</v>
+      </c>
+      <c r="U30">
+        <v>20</v>
+      </c>
+      <c r="V30">
+        <v>1.05</v>
+      </c>
+      <c r="W30">
+        <v>1000</v>
+      </c>
+      <c r="X30">
+        <v>1.03</v>
+      </c>
+      <c r="Y30">
+        <v>1000</v>
+      </c>
+      <c r="Z30">
+        <v>1.07</v>
+      </c>
+      <c r="AA30">
+        <v>1000</v>
+      </c>
+      <c r="AB30">
+        <v>6.4</v>
+      </c>
+      <c r="AC30">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>3.4</v>
+      </c>
+      <c r="AE30">
+        <v>15.5</v>
+      </c>
+      <c r="AF30">
+        <v>1.07</v>
+      </c>
+      <c r="AG30">
+        <v>1000</v>
+      </c>
+      <c r="AH30">
+        <v>1.07</v>
+      </c>
+      <c r="AI30">
+        <v>1000</v>
+      </c>
+      <c r="AJ30">
+        <v>5.8</v>
+      </c>
+      <c r="AK30">
+        <v>8.6</v>
+      </c>
+      <c r="AL30">
+        <v>3.3</v>
+      </c>
+      <c r="AM30">
+        <v>13.5</v>
+      </c>
+      <c r="AN30">
+        <v>1.04</v>
+      </c>
+      <c r="AO30">
+        <v>1000</v>
+      </c>
+      <c r="AP30">
+        <v>1.07</v>
+      </c>
+      <c r="AQ30">
+        <v>1000</v>
+      </c>
+      <c r="AR30">
+        <v>3.25</v>
+      </c>
+      <c r="AS30">
+        <v>12.5</v>
+      </c>
+      <c r="AT30">
+        <v>1.08</v>
+      </c>
+      <c r="AU30">
+        <v>20</v>
+      </c>
+      <c r="AV30">
+        <v>1.03</v>
+      </c>
+      <c r="AW30">
+        <v>1000</v>
+      </c>
+      <c r="AX30">
+        <v>1.07</v>
+      </c>
+      <c r="AY30">
+        <v>1000</v>
+      </c>
+      <c r="AZ30">
+        <v>1.08</v>
+      </c>
+      <c r="BA30">
+        <v>7.8</v>
+      </c>
+      <c r="BB30">
+        <v>1.01</v>
+      </c>
+      <c r="BC30">
+        <v>1000</v>
+      </c>
+      <c r="BD30">
+        <v>1.03</v>
+      </c>
+      <c r="BE30">
+        <v>1000</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG30">
+        <v>219457</v>
+      </c>
+      <c r="BH30">
+        <v>7587321</v>
+      </c>
+      <c r="BI30">
+        <v>58805</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>278</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31">
+        <v>1.7</v>
+      </c>
+      <c r="G31">
+        <v>1.78</v>
+      </c>
+      <c r="H31">
+        <v>5.8</v>
+      </c>
+      <c r="I31">
+        <v>6.2</v>
+      </c>
+      <c r="J31">
+        <v>3.65</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>1.71</v>
+      </c>
+      <c r="M31">
+        <v>1.87</v>
+      </c>
+      <c r="N31">
+        <v>2.16</v>
+      </c>
+      <c r="O31">
+        <v>2.4</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>2.26</v>
+      </c>
+      <c r="R31">
+        <v>1.74</v>
+      </c>
+      <c r="S31">
+        <v>1.91</v>
+      </c>
+      <c r="T31">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U31">
+        <v>12.5</v>
+      </c>
+      <c r="V31">
+        <v>15</v>
+      </c>
+      <c r="W31">
+        <v>18</v>
+      </c>
+      <c r="X31">
+        <v>7.4</v>
+      </c>
+      <c r="Y31">
+        <v>48</v>
+      </c>
+      <c r="Z31">
+        <v>8.4</v>
+      </c>
+      <c r="AA31">
+        <v>170</v>
+      </c>
+      <c r="AB31">
+        <v>6</v>
+      </c>
+      <c r="AC31">
+        <v>7.4</v>
+      </c>
+      <c r="AD31">
+        <v>7.8</v>
+      </c>
+      <c r="AE31">
+        <v>9.4</v>
+      </c>
+      <c r="AF31">
+        <v>6.4</v>
+      </c>
+      <c r="AG31">
+        <v>34</v>
+      </c>
+      <c r="AH31">
+        <v>8</v>
+      </c>
+      <c r="AI31">
+        <v>100</v>
+      </c>
+      <c r="AJ31">
+        <v>8</v>
+      </c>
+      <c r="AK31">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AL31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM31">
+        <v>11</v>
+      </c>
+      <c r="AN31">
+        <v>19.5</v>
+      </c>
+      <c r="AO31">
+        <v>32</v>
+      </c>
+      <c r="AP31">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>120</v>
+      </c>
+      <c r="AR31">
+        <v>14.5</v>
+      </c>
+      <c r="AS31">
+        <v>19</v>
+      </c>
+      <c r="AT31">
+        <v>15.5</v>
+      </c>
+      <c r="AU31">
+        <v>23</v>
+      </c>
+      <c r="AV31">
+        <v>7.6</v>
+      </c>
+      <c r="AW31">
+        <v>55</v>
+      </c>
+      <c r="AX31">
+        <v>8.4</v>
+      </c>
+      <c r="AY31">
+        <v>190</v>
+      </c>
+      <c r="AZ31">
+        <v>5.5</v>
+      </c>
+      <c r="BA31">
+        <v>14.5</v>
+      </c>
+      <c r="BB31">
+        <v>6.8</v>
+      </c>
+      <c r="BC31">
+        <v>140</v>
+      </c>
+      <c r="BD31">
+        <v>7.2</v>
+      </c>
+      <c r="BE31">
+        <v>1000</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG31">
+        <v>26076470</v>
+      </c>
+      <c r="BH31">
+        <v>478919</v>
+      </c>
+      <c r="BI31">
+        <v>58805</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
@@ -1524,7 +1524,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H2">
         <v>1.37</v>
@@ -1533,40 +1533,40 @@
         <v>1.41</v>
       </c>
       <c r="J2">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K2">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M2">
         <v>2.4</v>
       </c>
       <c r="N2">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O2">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="P2">
         <v>2.08</v>
       </c>
       <c r="Q2">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R2">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="S2">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T2">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="U2">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="V2">
         <v>7.2</v>
@@ -1575,25 +1575,25 @@
         <v>9.4</v>
       </c>
       <c r="X2">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y2">
         <v>8.800000000000001</v>
       </c>
       <c r="Z2">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>12</v>
       </c>
       <c r="AB2">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC2">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AD2">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AE2">
         <v>13.5</v>
@@ -1605,61 +1605,61 @@
         <v>11.5</v>
       </c>
       <c r="AH2">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AI2">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AJ2">
+        <v>4.4</v>
+      </c>
+      <c r="AK2">
+        <v>980</v>
+      </c>
+      <c r="AL2">
         <v>7</v>
       </c>
-      <c r="AK2">
-        <v>100</v>
-      </c>
-      <c r="AL2">
-        <v>6.4</v>
-      </c>
       <c r="AM2">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AN2">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO2">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AP2">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AQ2">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AR2">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="AU2">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV2">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="AW2">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AX2">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY2">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AZ2">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA2">
         <v>1000</v>
@@ -1668,10 +1668,10 @@
         <v>3.5</v>
       </c>
       <c r="BC2">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="BD2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1733,7 +1733,7 @@
         <v>3.9</v>
       </c>
       <c r="K3">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>2.1</v>
@@ -1796,7 +1796,7 @@
         <v>1000</v>
       </c>
       <c r="AF3">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="AG3">
         <v>1000</v>
@@ -1915,46 +1915,46 @@
         <v>132</v>
       </c>
       <c r="F4">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G4">
         <v>2.12</v>
       </c>
       <c r="H4">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>4.9</v>
       </c>
       <c r="J4">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4">
         <v>3.75</v>
       </c>
       <c r="L4">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="M4">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="P4">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q4">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R4">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="T4">
         <v>9.199999999999999</v>
@@ -1969,28 +1969,28 @@
         <v>17</v>
       </c>
       <c r="X4">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>38</v>
       </c>
       <c r="Z4">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AA4">
         <v>980</v>
       </c>
       <c r="AB4">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC4">
         <v>9</v>
       </c>
       <c r="AD4">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AF4">
         <v>14.5</v>
@@ -1999,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="AH4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI4">
         <v>980</v>
@@ -2014,16 +2014,16 @@
         <v>9</v>
       </c>
       <c r="AM4">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN4">
         <v>17</v>
       </c>
       <c r="AO4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP4">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AQ4">
         <v>980</v>
@@ -2038,34 +2038,34 @@
         <v>19</v>
       </c>
       <c r="AU4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV4">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AW4">
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AY4">
         <v>980</v>
       </c>
       <c r="AZ4">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BA4">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BB4">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BC4">
         <v>980</v>
       </c>
       <c r="BD4">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2118,13 +2118,13 @@
         <v>3.3</v>
       </c>
       <c r="H5">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="I5">
         <v>2.52</v>
       </c>
       <c r="J5">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -2148,13 +2148,13 @@
         <v>1.77</v>
       </c>
       <c r="R5">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
       <c r="S5">
-        <v>9.4</v>
+        <v>3.65</v>
       </c>
       <c r="T5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <v>980</v>
@@ -2172,13 +2172,13 @@
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AA5">
         <v>980</v>
       </c>
       <c r="AB5">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AC5">
         <v>980</v>
@@ -2196,19 +2196,19 @@
         <v>980</v>
       </c>
       <c r="AH5">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AI5">
         <v>980</v>
       </c>
       <c r="AJ5">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AK5">
         <v>980</v>
       </c>
       <c r="AL5">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="AM5">
         <v>980</v>
@@ -2226,19 +2226,19 @@
         <v>980</v>
       </c>
       <c r="AR5">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AU5">
         <v>980</v>
       </c>
       <c r="AV5">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW5">
         <v>980</v>
@@ -2247,10 +2247,10 @@
         <v>21</v>
       </c>
       <c r="AY5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ5">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BA5">
         <v>980</v>
@@ -2262,7 +2262,7 @@
         <v>980</v>
       </c>
       <c r="BD5">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2318,7 +2318,7 @@
         <v>5.2</v>
       </c>
       <c r="I6">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>4.1</v>
@@ -2357,19 +2357,19 @@
         <v>19</v>
       </c>
       <c r="V6">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="W6">
         <v>980</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Y6">
         <v>980</v>
       </c>
       <c r="Z6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AA6">
         <v>980</v>
@@ -2387,13 +2387,13 @@
         <v>11</v>
       </c>
       <c r="AF6">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG6">
         <v>24</v>
       </c>
       <c r="AH6">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -2402,7 +2402,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK6">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL6">
         <v>8.800000000000001</v>
@@ -2411,13 +2411,13 @@
         <v>11</v>
       </c>
       <c r="AN6">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO6">
         <v>23</v>
       </c>
       <c r="AP6">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AQ6">
         <v>980</v>
@@ -2429,37 +2429,37 @@
         <v>18.5</v>
       </c>
       <c r="AT6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AU6">
         <v>18.5</v>
       </c>
       <c r="AV6">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AW6">
         <v>980</v>
       </c>
       <c r="AX6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BA6">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB6">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2548,7 +2548,7 @@
         <v>2.42</v>
       </c>
       <c r="T7">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U7">
         <v>980</v>
@@ -2560,13 +2560,13 @@
         <v>980</v>
       </c>
       <c r="X7">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y7">
         <v>980</v>
       </c>
       <c r="Z7">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA7">
         <v>980</v>
@@ -2590,7 +2590,7 @@
         <v>22</v>
       </c>
       <c r="AH7">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI7">
         <v>980</v>
@@ -2605,16 +2605,16 @@
         <v>8.4</v>
       </c>
       <c r="AM7">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN7">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO7">
         <v>980</v>
       </c>
       <c r="AP7">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ7">
         <v>980</v>
@@ -2632,19 +2632,19 @@
         <v>18</v>
       </c>
       <c r="AV7">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AW7">
         <v>980</v>
       </c>
       <c r="AX7">
-        <v>6.6</v>
+        <v>26</v>
       </c>
       <c r="AY7">
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BA7">
         <v>8.800000000000001</v>
@@ -2656,7 +2656,7 @@
         <v>980</v>
       </c>
       <c r="BD7">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2703,13 +2703,13 @@
         <v>136</v>
       </c>
       <c r="F8">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G8">
         <v>2.54</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I8">
         <v>3.05</v>
@@ -2718,13 +2718,13 @@
         <v>3.65</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
         <v>2.16</v>
       </c>
       <c r="M8">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="N8">
         <v>1.79</v>
@@ -2736,10 +2736,10 @@
         <v>1.67</v>
       </c>
       <c r="Q8">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R8">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="S8">
         <v>2.5</v>
@@ -2748,22 +2748,22 @@
         <v>15.5</v>
       </c>
       <c r="U8">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="V8">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W8">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X8">
         <v>19.5</v>
       </c>
       <c r="Y8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA8">
         <v>60</v>
@@ -2787,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="AH8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8">
         <v>30</v>
@@ -2796,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="AK8">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL8">
         <v>10.5</v>
@@ -2817,16 +2817,16 @@
         <v>38</v>
       </c>
       <c r="AR8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AV8">
         <v>30</v>
@@ -2838,25 +2838,25 @@
         <v>60</v>
       </c>
       <c r="AY8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ8">
         <v>16</v>
       </c>
       <c r="BA8">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="BB8">
         <v>22</v>
       </c>
       <c r="BC8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BD8">
-        <v>18.5</v>
+        <v>180</v>
       </c>
       <c r="BE8">
-        <v>980</v>
+        <v>850</v>
       </c>
       <c r="BF8" t="s">
         <v>166</v>
@@ -2900,67 +2900,67 @@
         <v>137</v>
       </c>
       <c r="F9">
+        <v>1.38</v>
+      </c>
+      <c r="G9">
         <v>1.4</v>
       </c>
-      <c r="G9">
-        <v>1.41</v>
-      </c>
       <c r="H9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I9">
         <v>11.5</v>
       </c>
       <c r="J9">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K9">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L9">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="O9">
         <v>1.87</v>
       </c>
       <c r="P9">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q9">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R9">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S9">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U9">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W9">
         <v>28</v>
       </c>
       <c r="X9">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y9">
         <v>95</v>
       </c>
       <c r="Z9">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AA9">
         <v>980</v>
@@ -2972,19 +2972,19 @@
         <v>7.6</v>
       </c>
       <c r="AD9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE9">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AF9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG9">
         <v>40</v>
       </c>
       <c r="AH9">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AI9">
         <v>180</v>
@@ -2993,22 +2993,22 @@
         <v>6.6</v>
       </c>
       <c r="AK9">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AL9">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM9">
         <v>10.5</v>
       </c>
       <c r="AN9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO9">
         <v>32</v>
       </c>
       <c r="AP9">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AQ9">
         <v>160</v>
@@ -3029,28 +3029,28 @@
         <v>36</v>
       </c>
       <c r="AW9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AX9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AY9">
         <v>200</v>
       </c>
       <c r="AZ9">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="BA9">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BB9">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="BC9">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="BD9">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G10">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H10">
         <v>3.05</v>
@@ -3109,7 +3109,7 @@
         <v>3.4</v>
       </c>
       <c r="J10">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K10">
         <v>3.15</v>
@@ -3118,7 +3118,7 @@
         <v>1.56</v>
       </c>
       <c r="M10">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N10">
         <v>2.36</v>
@@ -3139,58 +3139,58 @@
         <v>1.99</v>
       </c>
       <c r="T10">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="U10">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="V10">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="W10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X10">
         <v>14.5</v>
       </c>
       <c r="Y10">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z10">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AA10">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB10">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC10">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD10">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE10">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF10">
         <v>10.5</v>
       </c>
       <c r="AG10">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH10">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AI10">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ10">
         <v>11.5</v>
       </c>
       <c r="AK10">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AL10">
         <v>9.6</v>
@@ -3199,55 +3199,55 @@
         <v>16</v>
       </c>
       <c r="AN10">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO10">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AP10">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="AQ10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR10">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AS10">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AT10">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AU10">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AV10">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AW10">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AX10">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="BA10">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="BB10">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="BC10">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="BD10">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3294,157 +3294,157 @@
         <v>139</v>
       </c>
       <c r="F11">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G11">
         <v>2.12</v>
       </c>
       <c r="H11">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I11">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J11">
         <v>2.98</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L11">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M11">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N11">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O11">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q11">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="R11">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S11">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="U11">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
       <c r="W11">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="X11">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y11">
         <v>980</v>
       </c>
       <c r="Z11">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AC11">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AD11">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="AE11">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF11">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG11">
         <v>980</v>
       </c>
       <c r="AH11">
-        <v>1.51</v>
+        <v>7.6</v>
       </c>
       <c r="AI11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK11">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AL11">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM11">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AN11">
-        <v>1.53</v>
+        <v>7</v>
       </c>
       <c r="AO11">
         <v>980</v>
       </c>
       <c r="AP11">
-        <v>1.49</v>
+        <v>7.8</v>
       </c>
       <c r="AQ11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR11">
+        <v>6.6</v>
+      </c>
+      <c r="AS11">
+        <v>980</v>
+      </c>
+      <c r="AT11">
+        <v>6.8</v>
+      </c>
+      <c r="AU11">
+        <v>980</v>
+      </c>
+      <c r="AV11">
+        <v>7.4</v>
+      </c>
+      <c r="AW11">
+        <v>980</v>
+      </c>
+      <c r="AX11">
+        <v>8</v>
+      </c>
+      <c r="AY11">
+        <v>1000</v>
+      </c>
+      <c r="AZ11">
         <v>6.4</v>
       </c>
-      <c r="AS11">
-        <v>980</v>
-      </c>
-      <c r="AT11">
-        <v>1.46</v>
-      </c>
-      <c r="AU11">
-        <v>980</v>
-      </c>
-      <c r="AV11">
-        <v>3.55</v>
-      </c>
-      <c r="AW11">
-        <v>1000</v>
-      </c>
-      <c r="AX11">
-        <v>1.52</v>
-      </c>
-      <c r="AY11">
-        <v>1000</v>
-      </c>
-      <c r="AZ11">
-        <v>1.55</v>
-      </c>
       <c r="BA11">
         <v>980</v>
       </c>
       <c r="BB11">
-        <v>1.55</v>
+        <v>7.8</v>
       </c>
       <c r="BC11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD11">
-        <v>1.53</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3497,10 +3497,10 @@
         <v>1.42</v>
       </c>
       <c r="H12">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J12">
         <v>5.4</v>
@@ -3512,7 +3512,7 @@
         <v>2.5</v>
       </c>
       <c r="M12">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
         <v>1.53</v>
@@ -3521,10 +3521,10 @@
         <v>1.67</v>
       </c>
       <c r="P12">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q12">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R12">
         <v>2.02</v>
@@ -3533,25 +3533,25 @@
         <v>2.18</v>
       </c>
       <c r="T12">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U12">
         <v>980</v>
       </c>
       <c r="V12">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="W12">
         <v>980</v>
       </c>
       <c r="X12">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Y12">
         <v>980</v>
       </c>
       <c r="Z12">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA12">
         <v>980</v>
@@ -3569,13 +3569,13 @@
         <v>14.5</v>
       </c>
       <c r="AF12">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG12">
         <v>980</v>
       </c>
       <c r="AH12">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AI12">
         <v>980</v>
@@ -3593,13 +3593,13 @@
         <v>11.5</v>
       </c>
       <c r="AN12">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO12">
         <v>980</v>
       </c>
       <c r="AP12">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ12">
         <v>980</v>
@@ -3617,13 +3617,13 @@
         <v>15.5</v>
       </c>
       <c r="AV12">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW12">
         <v>980</v>
       </c>
       <c r="AX12">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AY12">
         <v>980</v>
@@ -3632,16 +3632,16 @@
         <v>3.15</v>
       </c>
       <c r="BA12">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="BB12">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BC12">
         <v>980</v>
       </c>
       <c r="BD12">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3730,25 +3730,25 @@
         <v>2.48</v>
       </c>
       <c r="T13">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="U13">
         <v>980</v>
       </c>
       <c r="V13">
-        <v>3.95</v>
+        <v>13</v>
       </c>
       <c r="W13">
         <v>980</v>
       </c>
       <c r="X13">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y13">
         <v>980</v>
       </c>
       <c r="Z13">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA13">
         <v>980</v>
@@ -3766,19 +3766,19 @@
         <v>980</v>
       </c>
       <c r="AF13">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG13">
         <v>980</v>
       </c>
       <c r="AH13">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AI13">
         <v>980</v>
       </c>
       <c r="AJ13">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AK13">
         <v>980</v>
@@ -3790,19 +3790,19 @@
         <v>980</v>
       </c>
       <c r="AN13">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO13">
         <v>980</v>
       </c>
       <c r="AP13">
+        <v>4.6</v>
+      </c>
+      <c r="AQ13">
+        <v>980</v>
+      </c>
+      <c r="AR13">
         <v>4.4</v>
-      </c>
-      <c r="AQ13">
-        <v>980</v>
-      </c>
-      <c r="AR13">
-        <v>4.2</v>
       </c>
       <c r="AS13">
         <v>980</v>
@@ -3814,31 +3814,31 @@
         <v>980</v>
       </c>
       <c r="AV13">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AW13">
         <v>980</v>
       </c>
       <c r="AX13">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AY13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ13">
         <v>3.7</v>
       </c>
       <c r="BA13">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="BB13">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BC13">
         <v>980</v>
       </c>
       <c r="BD13">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3885,19 +3885,19 @@
         <v>142</v>
       </c>
       <c r="F14">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G14">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J14">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K14">
         <v>3.6</v>
@@ -3906,16 +3906,16 @@
         <v>1.68</v>
       </c>
       <c r="M14">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O14">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="P14">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q14">
         <v>2.14</v>
@@ -3924,100 +3924,100 @@
         <v>1.88</v>
       </c>
       <c r="S14">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T14">
-        <v>1.26</v>
+        <v>4.8</v>
       </c>
       <c r="U14">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="V14">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="W14">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="X14">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="Y14">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z14">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AA14">
         <v>1000</v>
       </c>
       <c r="AB14">
-        <v>1.26</v>
+        <v>7.2</v>
       </c>
       <c r="AC14">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD14">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE14">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AF14">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG14">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH14">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AI14">
         <v>1000</v>
       </c>
       <c r="AJ14">
+        <v>5.2</v>
+      </c>
+      <c r="AK14">
+        <v>980</v>
+      </c>
+      <c r="AL14">
         <v>5</v>
       </c>
-      <c r="AK14">
-        <v>14</v>
-      </c>
-      <c r="AL14">
-        <v>4.8</v>
-      </c>
       <c r="AM14">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AN14">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AO14">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="AQ14">
         <v>1000</v>
       </c>
       <c r="AR14">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AS14">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AT14">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="AU14">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AV14">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AW14">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AX14">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="AY14">
         <v>1000</v>
@@ -4026,16 +4026,16 @@
         <v>1.55</v>
       </c>
       <c r="BA14">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="BB14">
         <v>1.55</v>
       </c>
       <c r="BC14">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD14">
-        <v>1.19</v>
+        <v>1.59</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -4088,31 +4088,31 @@
         <v>6.4</v>
       </c>
       <c r="H15">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I15">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J15">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K15">
         <v>4.9</v>
       </c>
       <c r="L15">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="N15">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O15">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="P15">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q15">
         <v>2.04</v>
@@ -4142,7 +4142,7 @@
         <v>980</v>
       </c>
       <c r="Z15">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AA15">
         <v>980</v>
@@ -4166,7 +4166,7 @@
         <v>980</v>
       </c>
       <c r="AH15">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="AI15">
         <v>980</v>
@@ -4285,10 +4285,10 @@
         <v>2.48</v>
       </c>
       <c r="H16">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J16">
         <v>3.65</v>
@@ -4312,19 +4312,19 @@
         <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R16">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="S16">
         <v>2.54</v>
       </c>
       <c r="T16">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U16">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="V16">
         <v>13.5</v>
@@ -4420,16 +4420,16 @@
         <v>15</v>
       </c>
       <c r="BA16">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BB16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC16">
         <v>24</v>
       </c>
       <c r="BD16">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="BE16">
         <v>980</v>
@@ -4476,16 +4476,16 @@
         <v>145</v>
       </c>
       <c r="F17">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
+        <v>2.58</v>
+      </c>
+      <c r="I17">
         <v>2.6</v>
-      </c>
-      <c r="I17">
-        <v>2.62</v>
       </c>
       <c r="J17">
         <v>3.55</v>
@@ -4518,22 +4518,22 @@
         <v>2.28</v>
       </c>
       <c r="T17">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U17">
         <v>13.5</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W17">
         <v>10.5</v>
       </c>
       <c r="X17">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y17">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z17">
         <v>32</v>
@@ -4545,19 +4545,19 @@
         <v>11.5</v>
       </c>
       <c r="AC17">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD17">
         <v>7.6</v>
       </c>
       <c r="AE17">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF17">
         <v>11</v>
       </c>
       <c r="AG17">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH17">
         <v>25</v>
@@ -4566,7 +4566,7 @@
         <v>27</v>
       </c>
       <c r="AJ17">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK17">
         <v>19.5</v>
@@ -4617,19 +4617,19 @@
         <v>26</v>
       </c>
       <c r="BA17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB17">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BC17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="BE17">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF17" t="s">
         <v>175</v>
@@ -4673,13 +4673,13 @@
         <v>146</v>
       </c>
       <c r="F18">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G18">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H18">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I18">
         <v>5.7</v>
@@ -4688,22 +4688,22 @@
         <v>4.6</v>
       </c>
       <c r="K18">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L18">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="M18">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="N18">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O18">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P18">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q18">
         <v>1.74</v>
@@ -4712,7 +4712,7 @@
         <v>2.34</v>
       </c>
       <c r="S18">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T18">
         <v>20</v>
@@ -4727,13 +4727,13 @@
         <v>25</v>
       </c>
       <c r="X18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y18">
         <v>48</v>
       </c>
       <c r="Z18">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA18">
         <v>140</v>
@@ -4742,7 +4742,7 @@
         <v>10.5</v>
       </c>
       <c r="AC18">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD18">
         <v>9.800000000000001</v>
@@ -4760,7 +4760,7 @@
         <v>42</v>
       </c>
       <c r="AI18">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18">
         <v>10.5</v>
@@ -4775,7 +4775,7 @@
         <v>10</v>
       </c>
       <c r="AN18">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO18">
         <v>19</v>
@@ -4784,7 +4784,7 @@
         <v>42</v>
       </c>
       <c r="AQ18">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR18">
         <v>15</v>
@@ -4793,7 +4793,7 @@
         <v>16.5</v>
       </c>
       <c r="AT18">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AU18">
         <v>14.5</v>
@@ -4805,7 +4805,7 @@
         <v>27</v>
       </c>
       <c r="AX18">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AY18">
         <v>80</v>
@@ -4823,7 +4823,7 @@
         <v>55</v>
       </c>
       <c r="BD18">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="BE18">
         <v>980</v>
@@ -4888,31 +4888,31 @@
         <v>4.2</v>
       </c>
       <c r="L19">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="M19">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="N19">
         <v>1.64</v>
       </c>
       <c r="O19">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P19">
         <v>1.61</v>
       </c>
       <c r="Q19">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R19">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="S19">
         <v>2.64</v>
       </c>
       <c r="T19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U19">
         <v>23</v>
@@ -4924,7 +4924,7 @@
         <v>13</v>
       </c>
       <c r="X19">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y19">
         <v>14</v>
@@ -4936,19 +4936,19 @@
         <v>23</v>
       </c>
       <c r="AB19">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD19">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE19">
         <v>9.199999999999999</v>
       </c>
       <c r="AF19">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG19">
         <v>10.5</v>
@@ -4960,31 +4960,31 @@
         <v>17.5</v>
       </c>
       <c r="AJ19">
+        <v>27</v>
+      </c>
+      <c r="AK19">
         <v>28</v>
-      </c>
-      <c r="AK19">
-        <v>32</v>
       </c>
       <c r="AL19">
         <v>15</v>
       </c>
       <c r="AM19">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN19">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO19">
         <v>15.5</v>
       </c>
       <c r="AP19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR19">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AS19">
         <v>75</v>
@@ -4993,7 +4993,7 @@
         <v>32</v>
       </c>
       <c r="AU19">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AV19">
         <v>38</v>
@@ -5002,7 +5002,7 @@
         <v>44</v>
       </c>
       <c r="AX19">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY19">
         <v>65</v>
@@ -5011,19 +5011,19 @@
         <v>27</v>
       </c>
       <c r="BA19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB19">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC19">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BD19">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="BE19">
-        <v>980</v>
+        <v>850</v>
       </c>
       <c r="BF19" t="s">
         <v>177</v>
@@ -5070,7 +5070,7 @@
         <v>1.85</v>
       </c>
       <c r="G20">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H20">
         <v>4.7</v>
@@ -5082,7 +5082,7 @@
         <v>3.95</v>
       </c>
       <c r="K20">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <v>2.14</v>
@@ -5097,7 +5097,7 @@
         <v>1.88</v>
       </c>
       <c r="P20">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5106,13 +5106,13 @@
         <v>2.22</v>
       </c>
       <c r="S20">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T20">
         <v>15</v>
       </c>
       <c r="U20">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="V20">
         <v>17</v>
@@ -5127,10 +5127,10 @@
         <v>36</v>
       </c>
       <c r="Z20">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AA20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB20">
         <v>9.4</v>
@@ -5151,16 +5151,16 @@
         <v>18</v>
       </c>
       <c r="AH20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI20">
         <v>55</v>
       </c>
       <c r="AJ20">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK20">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL20">
         <v>9.199999999999999</v>
@@ -5199,25 +5199,25 @@
         <v>32</v>
       </c>
       <c r="AX20">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="AY20">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AZ20">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BA20">
         <v>11</v>
       </c>
       <c r="BB20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC20">
         <v>50</v>
       </c>
       <c r="BD20">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="BE20">
         <v>980</v>
@@ -5264,16 +5264,16 @@
         <v>149</v>
       </c>
       <c r="F21">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H21">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="I21">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J21">
         <v>4.9</v>
@@ -5282,37 +5282,37 @@
         <v>5</v>
       </c>
       <c r="L21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
         <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="O21">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P21">
         <v>1.53</v>
       </c>
       <c r="Q21">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R21">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="S21">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V21">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W21">
         <v>16.5</v>
@@ -5321,16 +5321,16 @@
         <v>14</v>
       </c>
       <c r="Y21">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z21">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC21">
         <v>32</v>
@@ -5339,7 +5339,7 @@
         <v>12</v>
       </c>
       <c r="AE21">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF21">
         <v>10</v>
@@ -5354,16 +5354,16 @@
         <v>14.5</v>
       </c>
       <c r="AJ21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK21">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL21">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM21">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN21">
         <v>15.5</v>
@@ -5378,22 +5378,22 @@
         <v>21</v>
       </c>
       <c r="AR21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AS21">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT21">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AU21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AV21">
         <v>36</v>
       </c>
       <c r="AW21">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX21">
         <v>48</v>
@@ -5402,22 +5402,22 @@
         <v>55</v>
       </c>
       <c r="AZ21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BA21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB21">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="BC21">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="BD21">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="BE21">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="BF21" t="s">
         <v>179</v>
@@ -5461,43 +5461,43 @@
         <v>150</v>
       </c>
       <c r="F22">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G22">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H22">
         <v>3.7</v>
       </c>
       <c r="I22">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J22">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L22">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M22">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="N22">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O22">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="P22">
         <v>2.06</v>
       </c>
       <c r="Q22">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R22">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S22">
         <v>1.95</v>
@@ -5521,7 +5521,7 @@
         <v>26</v>
       </c>
       <c r="Z22">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA22">
         <v>80</v>
@@ -5536,22 +5536,22 @@
         <v>6.8</v>
       </c>
       <c r="AE22">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AF22">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AG22">
         <v>17.5</v>
       </c>
       <c r="AH22">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI22">
         <v>60</v>
       </c>
       <c r="AJ22">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK22">
         <v>13.5</v>
@@ -5569,49 +5569,49 @@
         <v>980</v>
       </c>
       <c r="AP22">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AQ22">
         <v>85</v>
       </c>
       <c r="AR22">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AS22">
         <v>32</v>
       </c>
       <c r="AT22">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AU22">
         <v>32</v>
       </c>
       <c r="AV22">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AW22">
         <v>60</v>
       </c>
       <c r="AX22">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AY22">
         <v>190</v>
       </c>
       <c r="AZ22">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BA22">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BB22">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BC22">
         <v>75</v>
       </c>
       <c r="BD22">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5664,19 +5664,19 @@
         <v>1.37</v>
       </c>
       <c r="H23">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I23">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J23">
         <v>5.3</v>
       </c>
       <c r="K23">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L23">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="M23">
         <v>2.7</v>
@@ -5685,37 +5685,37 @@
         <v>1.58</v>
       </c>
       <c r="O23">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P23">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S23">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>1.42</v>
+        <v>5.9</v>
       </c>
       <c r="U23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V23">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="W23">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="X23">
         <v>4.2</v>
       </c>
       <c r="Y23">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z23">
         <v>4.2</v>
@@ -5724,91 +5724,91 @@
         <v>1000</v>
       </c>
       <c r="AB23">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD23">
-        <v>1.47</v>
+        <v>5.1</v>
       </c>
       <c r="AE23">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF23">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG23">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH23">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AI23">
         <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="AK23">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AL23">
-        <v>1.68</v>
+        <v>4.6</v>
       </c>
       <c r="AM23">
         <v>12</v>
       </c>
       <c r="AN23">
-        <v>1.42</v>
+        <v>6.2</v>
       </c>
       <c r="AO23">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AP23">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ23">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AR23">
-        <v>1.68</v>
+        <v>4.6</v>
       </c>
       <c r="AS23">
         <v>12</v>
       </c>
       <c r="AT23">
-        <v>1.34</v>
+        <v>5.1</v>
       </c>
       <c r="AU23">
         <v>15.5</v>
       </c>
       <c r="AV23">
-        <v>1.37</v>
+        <v>6.4</v>
       </c>
       <c r="AW23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX23">
-        <v>1.41</v>
+        <v>7.2</v>
       </c>
       <c r="AY23">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AZ23">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="BA23">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="BB23">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="BC23">
         <v>1000</v>
       </c>
       <c r="BD23">
-        <v>1.42</v>
+        <v>7.6</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5858,31 +5858,31 @@
         <v>1.82</v>
       </c>
       <c r="G24">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="I24">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="K24">
         <v>3.9</v>
       </c>
       <c r="L24">
-        <v>1.84</v>
+        <v>1.27</v>
       </c>
       <c r="M24">
-        <v>2.14</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="O24">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="P24">
         <v>1.01</v>
@@ -5897,7 +5897,7 @@
         <v>1000</v>
       </c>
       <c r="T24">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U24">
         <v>1000</v>
@@ -6052,10 +6052,10 @@
         <v>153</v>
       </c>
       <c r="F25">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G25">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H25">
         <v>12</v>
@@ -6064,7 +6064,7 @@
         <v>1000</v>
       </c>
       <c r="J25">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K25">
         <v>950</v>
@@ -6076,7 +6076,7 @@
         <v>1000</v>
       </c>
       <c r="N25">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="O25">
         <v>1.45</v>
@@ -6094,97 +6094,97 @@
         <v>1000</v>
       </c>
       <c r="T25">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="U25">
         <v>1000</v>
       </c>
       <c r="V25">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="W25">
         <v>1000</v>
       </c>
       <c r="X25">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="Y25">
         <v>1000</v>
       </c>
       <c r="Z25">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AA25">
         <v>1000</v>
       </c>
       <c r="AB25">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AC25">
         <v>1000</v>
       </c>
       <c r="AD25">
+        <v>3.7</v>
+      </c>
+      <c r="AE25">
+        <v>1000</v>
+      </c>
+      <c r="AF25">
+        <v>5</v>
+      </c>
+      <c r="AG25">
+        <v>1000</v>
+      </c>
+      <c r="AH25">
+        <v>5.6</v>
+      </c>
+      <c r="AI25">
+        <v>1000</v>
+      </c>
+      <c r="AJ25">
+        <v>2.7</v>
+      </c>
+      <c r="AK25">
+        <v>1000</v>
+      </c>
+      <c r="AL25">
+        <v>4.1</v>
+      </c>
+      <c r="AM25">
+        <v>1000</v>
+      </c>
+      <c r="AN25">
+        <v>6.6</v>
+      </c>
+      <c r="AO25">
+        <v>1000</v>
+      </c>
+      <c r="AP25">
+        <v>6.2</v>
+      </c>
+      <c r="AQ25">
+        <v>1000</v>
+      </c>
+      <c r="AR25">
         <v>3.85</v>
       </c>
-      <c r="AE25">
-        <v>1000</v>
-      </c>
-      <c r="AF25">
-        <v>4.7</v>
-      </c>
-      <c r="AG25">
-        <v>1000</v>
-      </c>
-      <c r="AH25">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AI25">
-        <v>1000</v>
-      </c>
-      <c r="AJ25">
-        <v>2.86</v>
-      </c>
-      <c r="AK25">
-        <v>1000</v>
-      </c>
-      <c r="AL25">
-        <v>2.98</v>
-      </c>
-      <c r="AM25">
-        <v>1000</v>
-      </c>
-      <c r="AN25">
-        <v>4.5</v>
-      </c>
-      <c r="AO25">
-        <v>1000</v>
-      </c>
-      <c r="AP25">
-        <v>13.5</v>
-      </c>
-      <c r="AQ25">
-        <v>1000</v>
-      </c>
-      <c r="AR25">
-        <v>3</v>
-      </c>
       <c r="AS25">
         <v>1000</v>
       </c>
       <c r="AT25">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AW25">
         <v>1000</v>
       </c>
       <c r="AX25">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY25">
         <v>1000</v>
@@ -6249,10 +6249,10 @@
         <v>154</v>
       </c>
       <c r="F26">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G26">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
         <v>3.4</v>
@@ -6327,7 +6327,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF26">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG26">
         <v>19.5</v>
@@ -6369,7 +6369,7 @@
         <v>38</v>
       </c>
       <c r="AT26">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AU26">
         <v>36</v>
@@ -6449,13 +6449,13 @@
         <v>1.42</v>
       </c>
       <c r="G27">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H27">
         <v>6.2</v>
       </c>
       <c r="I27">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J27">
         <v>4.3</v>
@@ -6464,7 +6464,7 @@
         <v>6.6</v>
       </c>
       <c r="L27">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="M27">
         <v>2.54</v>
@@ -6473,7 +6473,7 @@
         <v>1.64</v>
       </c>
       <c r="O27">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="P27">
         <v>1.72</v>
@@ -6518,7 +6518,7 @@
         <v>12</v>
       </c>
       <c r="AD27">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE27">
         <v>14</v>
@@ -6643,19 +6643,19 @@
         <v>156</v>
       </c>
       <c r="F28">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G28">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H28">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I28">
         <v>5.9</v>
       </c>
       <c r="J28">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="K28">
         <v>4.8</v>
@@ -6691,91 +6691,91 @@
         <v>1000</v>
       </c>
       <c r="V28">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="W28">
         <v>1000</v>
       </c>
       <c r="X28">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
         <v>1000</v>
       </c>
       <c r="Z28">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AA28">
         <v>1000</v>
       </c>
       <c r="AB28">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="AC28">
         <v>1000</v>
       </c>
       <c r="AD28">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="AE28">
         <v>1000</v>
       </c>
       <c r="AF28">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AG28">
         <v>1000</v>
       </c>
       <c r="AH28">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AI28">
         <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="AK28">
         <v>1000</v>
       </c>
       <c r="AL28">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AM28">
         <v>1000</v>
       </c>
       <c r="AN28">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AO28">
         <v>1000</v>
       </c>
       <c r="AP28">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AQ28">
         <v>1000</v>
       </c>
       <c r="AR28">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="AS28">
         <v>1000</v>
       </c>
       <c r="AT28">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AU28">
         <v>1000</v>
       </c>
       <c r="AV28">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AW28">
         <v>1000</v>
       </c>
       <c r="AX28">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AY28">
         <v>1000</v>
@@ -6840,7 +6840,7 @@
         <v>157</v>
       </c>
       <c r="F29">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G29">
         <v>1.7</v>
@@ -6870,7 +6870,7 @@
         <v>2.16</v>
       </c>
       <c r="P29">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6879,7 +6879,7 @@
         <v>1.83</v>
       </c>
       <c r="S29">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T29">
         <v>11.5</v>
@@ -6894,7 +6894,7 @@
         <v>23</v>
       </c>
       <c r="X29">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y29">
         <v>60</v>
@@ -6924,13 +6924,13 @@
         <v>32</v>
       </c>
       <c r="AH29">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AI29">
         <v>120</v>
       </c>
       <c r="AJ29">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK29">
         <v>11</v>
@@ -6942,13 +6942,13 @@
         <v>12.5</v>
       </c>
       <c r="AN29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO29">
         <v>30</v>
       </c>
       <c r="AP29">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AQ29">
         <v>130</v>
@@ -6966,7 +6966,7 @@
         <v>23</v>
       </c>
       <c r="AV29">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AW29">
         <v>55</v>
@@ -7040,22 +7040,22 @@
         <v>1.29</v>
       </c>
       <c r="G30">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K30">
-        <v>330</v>
+        <v>7.8</v>
       </c>
       <c r="L30">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="M30">
         <v>2.4</v>
@@ -7064,40 +7064,40 @@
         <v>1.71</v>
       </c>
       <c r="O30">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="P30">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="Q30">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="R30">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="T30">
-        <v>1.08</v>
+        <v>3.65</v>
       </c>
       <c r="U30">
         <v>20</v>
       </c>
       <c r="V30">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="W30">
         <v>1000</v>
       </c>
       <c r="X30">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="Y30">
         <v>1000</v>
       </c>
       <c r="Z30">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AA30">
         <v>1000</v>
@@ -7109,19 +7109,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD30">
-        <v>3.4</v>
+        <v>9.4</v>
       </c>
       <c r="AE30">
         <v>15.5</v>
       </c>
       <c r="AF30">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AG30">
         <v>1000</v>
       </c>
       <c r="AH30">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AI30">
         <v>1000</v>
@@ -7133,43 +7133,43 @@
         <v>8.6</v>
       </c>
       <c r="AL30">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM30">
         <v>13.5</v>
       </c>
       <c r="AN30">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="AO30">
         <v>1000</v>
       </c>
       <c r="AP30">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30">
         <v>1000</v>
       </c>
       <c r="AR30">
-        <v>3.25</v>
+        <v>7.6</v>
       </c>
       <c r="AS30">
         <v>12.5</v>
       </c>
       <c r="AT30">
-        <v>1.08</v>
+        <v>3.65</v>
       </c>
       <c r="AU30">
         <v>20</v>
       </c>
       <c r="AV30">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="AW30">
         <v>1000</v>
       </c>
       <c r="AX30">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AY30">
         <v>1000</v>
@@ -7178,16 +7178,16 @@
         <v>1.08</v>
       </c>
       <c r="BA30">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB30">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="BC30">
         <v>1000</v>
       </c>
       <c r="BD30">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7237,7 +7237,7 @@
         <v>1.7</v>
       </c>
       <c r="G31">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H31">
         <v>5.8</v>
@@ -7255,22 +7255,22 @@
         <v>1.71</v>
       </c>
       <c r="M31">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="N31">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="O31">
         <v>2.4</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q31">
         <v>2.26</v>
       </c>
       <c r="R31">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="S31">
         <v>1.91</v>
@@ -7300,7 +7300,7 @@
         <v>170</v>
       </c>
       <c r="AB31">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC31">
         <v>7.4</v>
@@ -7312,10 +7312,10 @@
         <v>9.4</v>
       </c>
       <c r="AF31">
-        <v>6.4</v>
+        <v>18.5</v>
       </c>
       <c r="AG31">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AH31">
         <v>8</v>
@@ -7330,7 +7330,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AL31">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AM31">
         <v>11</v>
@@ -7339,7 +7339,7 @@
         <v>19.5</v>
       </c>
       <c r="AO31">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AP31">
         <v>8.199999999999999</v>
@@ -7354,7 +7354,7 @@
         <v>19</v>
       </c>
       <c r="AT31">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AU31">
         <v>23</v>
@@ -7372,19 +7372,19 @@
         <v>190</v>
       </c>
       <c r="AZ31">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BA31">
         <v>14.5</v>
       </c>
       <c r="BB31">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="BC31">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="BD31">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="BE31">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
   <si>
     <t>League</t>
   </si>
@@ -496,87 +496,6 @@
     <t>Deportivo Pasto</t>
   </si>
   <si>
-    <t>33192612</t>
-  </si>
-  <si>
-    <t>33200575</t>
-  </si>
-  <si>
-    <t>33192836</t>
-  </si>
-  <si>
-    <t>33195286</t>
-  </si>
-  <si>
-    <t>33184953</t>
-  </si>
-  <si>
-    <t>33192486</t>
-  </si>
-  <si>
-    <t>33185425</t>
-  </si>
-  <si>
-    <t>33185236</t>
-  </si>
-  <si>
-    <t>33193352</t>
-  </si>
-  <si>
-    <t>33193360</t>
-  </si>
-  <si>
-    <t>33185206</t>
-  </si>
-  <si>
-    <t>33185205</t>
-  </si>
-  <si>
-    <t>33199082</t>
-  </si>
-  <si>
-    <t>33195236</t>
-  </si>
-  <si>
-    <t>33185553</t>
-  </si>
-  <si>
-    <t>33185564</t>
-  </si>
-  <si>
-    <t>33185238</t>
-  </si>
-  <si>
-    <t>33185562</t>
-  </si>
-  <si>
-    <t>33185426</t>
-  </si>
-  <si>
-    <t>33185560</t>
-  </si>
-  <si>
-    <t>33193687</t>
-  </si>
-  <si>
-    <t>33193572</t>
-  </si>
-  <si>
-    <t>33201093</t>
-  </si>
-  <si>
-    <t>33201046</t>
-  </si>
-  <si>
-    <t>33193688</t>
-  </si>
-  <si>
-    <t>33194040</t>
-  </si>
-  <si>
-    <t>33201042</t>
-  </si>
-  <si>
     <t>33192514</t>
   </si>
   <si>
@@ -586,87 +505,6 @@
     <t>33193686</t>
   </si>
   <si>
-    <t>1.227602750</t>
-  </si>
-  <si>
-    <t>1.227749552</t>
-  </si>
-  <si>
-    <t>1.227605479</t>
-  </si>
-  <si>
-    <t>1.227657314</t>
-  </si>
-  <si>
-    <t>1.227468098</t>
-  </si>
-  <si>
-    <t>1.227600422</t>
-  </si>
-  <si>
-    <t>1.227478222</t>
-  </si>
-  <si>
-    <t>1.227472120</t>
-  </si>
-  <si>
-    <t>1.227617785</t>
-  </si>
-  <si>
-    <t>1.227617695</t>
-  </si>
-  <si>
-    <t>1.227471236</t>
-  </si>
-  <si>
-    <t>1.227471344</t>
-  </si>
-  <si>
-    <t>1.227720946</t>
-  </si>
-  <si>
-    <t>1.227651625</t>
-  </si>
-  <si>
-    <t>1.227479186</t>
-  </si>
-  <si>
-    <t>1.227478826</t>
-  </si>
-  <si>
-    <t>1.227472240</t>
-  </si>
-  <si>
-    <t>1.227478946</t>
-  </si>
-  <si>
-    <t>1.227478376</t>
-  </si>
-  <si>
-    <t>1.227479066</t>
-  </si>
-  <si>
-    <t>1.227625340</t>
-  </si>
-  <si>
-    <t>1.227619980</t>
-  </si>
-  <si>
-    <t>1.227753547</t>
-  </si>
-  <si>
-    <t>1.227753304</t>
-  </si>
-  <si>
-    <t>1.227625430</t>
-  </si>
-  <si>
-    <t>1.227632540</t>
-  </si>
-  <si>
-    <t>1.227753419</t>
-  </si>
-  <si>
     <t>1.227599613</t>
   </si>
   <si>
@@ -676,87 +514,6 @@
     <t>1.227625520</t>
   </si>
   <si>
-    <t>1.227602795</t>
-  </si>
-  <si>
-    <t>1.227749597</t>
-  </si>
-  <si>
-    <t>1.227605524</t>
-  </si>
-  <si>
-    <t>1.227657359</t>
-  </si>
-  <si>
-    <t>1.227468108</t>
-  </si>
-  <si>
-    <t>1.227600467</t>
-  </si>
-  <si>
-    <t>1.227478206</t>
-  </si>
-  <si>
-    <t>1.227472104</t>
-  </si>
-  <si>
-    <t>1.227617830</t>
-  </si>
-  <si>
-    <t>1.227617740</t>
-  </si>
-  <si>
-    <t>1.227471246</t>
-  </si>
-  <si>
-    <t>1.227471354</t>
-  </si>
-  <si>
-    <t>1.227720991</t>
-  </si>
-  <si>
-    <t>1.227651670</t>
-  </si>
-  <si>
-    <t>1.227479170</t>
-  </si>
-  <si>
-    <t>1.227478810</t>
-  </si>
-  <si>
-    <t>1.227472224</t>
-  </si>
-  <si>
-    <t>1.227478930</t>
-  </si>
-  <si>
-    <t>1.227478360</t>
-  </si>
-  <si>
-    <t>1.227479050</t>
-  </si>
-  <si>
-    <t>1.227625385</t>
-  </si>
-  <si>
-    <t>1.227620025</t>
-  </si>
-  <si>
-    <t>1.227753592</t>
-  </si>
-  <si>
-    <t>1.227753349</t>
-  </si>
-  <si>
-    <t>1.227625475</t>
-  </si>
-  <si>
-    <t>1.227632585</t>
-  </si>
-  <si>
-    <t>1.227753423</t>
-  </si>
-  <si>
     <t>1.227599649</t>
   </si>
   <si>
@@ -766,87 +523,6 @@
     <t>1.227625565</t>
   </si>
   <si>
-    <t>1.227602834</t>
-  </si>
-  <si>
-    <t>1.227749636</t>
-  </si>
-  <si>
-    <t>1.227605563</t>
-  </si>
-  <si>
-    <t>1.227657398</t>
-  </si>
-  <si>
-    <t>1.227468097</t>
-  </si>
-  <si>
-    <t>1.227600506</t>
-  </si>
-  <si>
-    <t>1.227478221</t>
-  </si>
-  <si>
-    <t>1.227472119</t>
-  </si>
-  <si>
-    <t>1.227617869</t>
-  </si>
-  <si>
-    <t>1.227617779</t>
-  </si>
-  <si>
-    <t>1.227471235</t>
-  </si>
-  <si>
-    <t>1.227471343</t>
-  </si>
-  <si>
-    <t>1.227721030</t>
-  </si>
-  <si>
-    <t>1.227651709</t>
-  </si>
-  <si>
-    <t>1.227479185</t>
-  </si>
-  <si>
-    <t>1.227478825</t>
-  </si>
-  <si>
-    <t>1.227472239</t>
-  </si>
-  <si>
-    <t>1.227478945</t>
-  </si>
-  <si>
-    <t>1.227478375</t>
-  </si>
-  <si>
-    <t>1.227479065</t>
-  </si>
-  <si>
-    <t>1.227625424</t>
-  </si>
-  <si>
-    <t>1.227620064</t>
-  </si>
-  <si>
-    <t>1.227753631</t>
-  </si>
-  <si>
-    <t>1.227753388</t>
-  </si>
-  <si>
-    <t>1.227625514</t>
-  </si>
-  <si>
-    <t>1.227632624</t>
-  </si>
-  <si>
-    <t>1.227753469</t>
-  </si>
-  <si>
     <t>1.227599606</t>
   </si>
   <si>
@@ -854,87 +530,6 @@
   </si>
   <si>
     <t>1.227625604</t>
-  </si>
-  <si>
-    <t>1.227602759</t>
-  </si>
-  <si>
-    <t>1.227749561</t>
-  </si>
-  <si>
-    <t>1.227605488</t>
-  </si>
-  <si>
-    <t>1.227657323</t>
-  </si>
-  <si>
-    <t>1.227468107</t>
-  </si>
-  <si>
-    <t>1.227600431</t>
-  </si>
-  <si>
-    <t>1.227478231</t>
-  </si>
-  <si>
-    <t>1.227472129</t>
-  </si>
-  <si>
-    <t>1.227617794</t>
-  </si>
-  <si>
-    <t>1.227617704</t>
-  </si>
-  <si>
-    <t>1.227471245</t>
-  </si>
-  <si>
-    <t>1.227471353</t>
-  </si>
-  <si>
-    <t>1.227720955</t>
-  </si>
-  <si>
-    <t>1.227651634</t>
-  </si>
-  <si>
-    <t>1.227479195</t>
-  </si>
-  <si>
-    <t>1.227478835</t>
-  </si>
-  <si>
-    <t>1.227472249</t>
-  </si>
-  <si>
-    <t>1.227478955</t>
-  </si>
-  <si>
-    <t>1.227478385</t>
-  </si>
-  <si>
-    <t>1.227479075</t>
-  </si>
-  <si>
-    <t>1.227625349</t>
-  </si>
-  <si>
-    <t>1.227619989</t>
-  </si>
-  <si>
-    <t>1.227753556</t>
-  </si>
-  <si>
-    <t>1.227753313</t>
-  </si>
-  <si>
-    <t>1.227625439</t>
-  </si>
-  <si>
-    <t>1.227632549</t>
-  </si>
-  <si>
-    <t>1.227753470</t>
   </si>
   <si>
     <t>1.227599648</t>
@@ -1676,8 +1271,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>160</v>
+      <c r="BF2">
+        <v>33192612</v>
       </c>
       <c r="BG2">
         <v>2017903</v>
@@ -1688,17 +1283,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>280</v>
+      <c r="BJ2">
+        <v>1.22760275</v>
+      </c>
+      <c r="BK2">
+        <v>1.227602795</v>
+      </c>
+      <c r="BL2">
+        <v>1.227602834</v>
+      </c>
+      <c r="BM2">
+        <v>1.227602759</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1873,8 +1468,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>161</v>
+      <c r="BF3">
+        <v>33200575</v>
       </c>
       <c r="BG3">
         <v>9686394</v>
@@ -1885,17 +1480,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>281</v>
+      <c r="BJ3">
+        <v>1.227749552</v>
+      </c>
+      <c r="BK3">
+        <v>1.227749597</v>
+      </c>
+      <c r="BL3">
+        <v>1.227749636</v>
+      </c>
+      <c r="BM3">
+        <v>1.227749561</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2070,8 +1665,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>162</v>
+      <c r="BF4">
+        <v>33192836</v>
       </c>
       <c r="BG4">
         <v>37456793</v>
@@ -2082,17 +1677,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>282</v>
+      <c r="BJ4">
+        <v>1.227605479</v>
+      </c>
+      <c r="BK4">
+        <v>1.227605524</v>
+      </c>
+      <c r="BL4">
+        <v>1.227605563</v>
+      </c>
+      <c r="BM4">
+        <v>1.227605488</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2267,8 +1862,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>163</v>
+      <c r="BF5">
+        <v>33195286</v>
       </c>
       <c r="BG5">
         <v>503208</v>
@@ -2279,17 +1874,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>283</v>
+      <c r="BJ5">
+        <v>1.227657314</v>
+      </c>
+      <c r="BK5">
+        <v>1.227657359</v>
+      </c>
+      <c r="BL5">
+        <v>1.227657398</v>
+      </c>
+      <c r="BM5">
+        <v>1.227657323</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2464,8 +2059,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>164</v>
+      <c r="BF6">
+        <v>33184953</v>
       </c>
       <c r="BG6">
         <v>12157288</v>
@@ -2476,17 +2071,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>194</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>284</v>
+      <c r="BJ6">
+        <v>1.227468098</v>
+      </c>
+      <c r="BK6">
+        <v>1.227468108</v>
+      </c>
+      <c r="BL6">
+        <v>1.227468097</v>
+      </c>
+      <c r="BM6">
+        <v>1.227468107</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2661,8 +2256,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>165</v>
+      <c r="BF7">
+        <v>33192486</v>
       </c>
       <c r="BG7">
         <v>2364082</v>
@@ -2673,17 +2268,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>285</v>
+      <c r="BJ7">
+        <v>1.227600422</v>
+      </c>
+      <c r="BK7">
+        <v>1.227600467</v>
+      </c>
+      <c r="BL7">
+        <v>1.227600506</v>
+      </c>
+      <c r="BM7">
+        <v>1.227600431</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2858,8 +2453,8 @@
       <c r="BE8">
         <v>850</v>
       </c>
-      <c r="BF8" t="s">
-        <v>166</v>
+      <c r="BF8">
+        <v>33185425</v>
       </c>
       <c r="BG8">
         <v>44790</v>
@@ -2870,17 +2465,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>286</v>
+      <c r="BJ8">
+        <v>1.227478222</v>
+      </c>
+      <c r="BK8">
+        <v>1.227478206</v>
+      </c>
+      <c r="BL8">
+        <v>1.227478221</v>
+      </c>
+      <c r="BM8">
+        <v>1.227478231</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3055,8 +2650,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>167</v>
+      <c r="BF9">
+        <v>33185236</v>
       </c>
       <c r="BG9">
         <v>676467</v>
@@ -3067,17 +2662,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>287</v>
+      <c r="BJ9">
+        <v>1.22747212</v>
+      </c>
+      <c r="BK9">
+        <v>1.227472104</v>
+      </c>
+      <c r="BL9">
+        <v>1.227472119</v>
+      </c>
+      <c r="BM9">
+        <v>1.227472129</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3252,8 +2847,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>168</v>
+      <c r="BF10">
+        <v>33193352</v>
       </c>
       <c r="BG10">
         <v>5170870</v>
@@ -3264,17 +2859,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>288</v>
+      <c r="BJ10">
+        <v>1.227617785</v>
+      </c>
+      <c r="BK10">
+        <v>1.22761783</v>
+      </c>
+      <c r="BL10">
+        <v>1.227617869</v>
+      </c>
+      <c r="BM10">
+        <v>1.227617794</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3449,8 +3044,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>169</v>
+      <c r="BF11">
+        <v>33193360</v>
       </c>
       <c r="BG11">
         <v>41860831</v>
@@ -3461,17 +3056,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>289</v>
+      <c r="BJ11">
+        <v>1.227617695</v>
+      </c>
+      <c r="BK11">
+        <v>1.22761774</v>
+      </c>
+      <c r="BL11">
+        <v>1.227617779</v>
+      </c>
+      <c r="BM11">
+        <v>1.227617704</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3646,8 +3241,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>170</v>
+      <c r="BF12">
+        <v>33185206</v>
       </c>
       <c r="BG12">
         <v>5344868</v>
@@ -3658,17 +3253,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>290</v>
+      <c r="BJ12">
+        <v>1.227471236</v>
+      </c>
+      <c r="BK12">
+        <v>1.227471246</v>
+      </c>
+      <c r="BL12">
+        <v>1.227471235</v>
+      </c>
+      <c r="BM12">
+        <v>1.227471245</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3843,8 +3438,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>171</v>
+      <c r="BF13">
+        <v>33185205</v>
       </c>
       <c r="BG13">
         <v>7196232</v>
@@ -3855,17 +3450,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>291</v>
+      <c r="BJ13">
+        <v>1.227471344</v>
+      </c>
+      <c r="BK13">
+        <v>1.227471354</v>
+      </c>
+      <c r="BL13">
+        <v>1.227471343</v>
+      </c>
+      <c r="BM13">
+        <v>1.227471353</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4040,8 +3635,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>172</v>
+      <c r="BF14">
+        <v>33199082</v>
       </c>
       <c r="BG14">
         <v>4231683</v>
@@ -4052,17 +3647,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>292</v>
+      <c r="BJ14">
+        <v>1.227720946</v>
+      </c>
+      <c r="BK14">
+        <v>1.227720991</v>
+      </c>
+      <c r="BL14">
+        <v>1.22772103</v>
+      </c>
+      <c r="BM14">
+        <v>1.227720955</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4237,8 +3832,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>173</v>
+      <c r="BF15">
+        <v>33195236</v>
       </c>
       <c r="BG15">
         <v>13638535</v>
@@ -4249,17 +3844,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>293</v>
+      <c r="BJ15">
+        <v>1.227651625</v>
+      </c>
+      <c r="BK15">
+        <v>1.22765167</v>
+      </c>
+      <c r="BL15">
+        <v>1.227651709</v>
+      </c>
+      <c r="BM15">
+        <v>1.227651634</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4434,8 +4029,8 @@
       <c r="BE16">
         <v>980</v>
       </c>
-      <c r="BF16" t="s">
-        <v>174</v>
+      <c r="BF16">
+        <v>33185553</v>
       </c>
       <c r="BG16">
         <v>52457652</v>
@@ -4446,17 +4041,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>294</v>
+      <c r="BJ16">
+        <v>1.227479186</v>
+      </c>
+      <c r="BK16">
+        <v>1.22747917</v>
+      </c>
+      <c r="BL16">
+        <v>1.227479185</v>
+      </c>
+      <c r="BM16">
+        <v>1.227479195</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4631,8 +4226,8 @@
       <c r="BE17">
         <v>980</v>
       </c>
-      <c r="BF17" t="s">
-        <v>175</v>
+      <c r="BF17">
+        <v>33185564</v>
       </c>
       <c r="BG17">
         <v>56967</v>
@@ -4643,17 +4238,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>265</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>295</v>
+      <c r="BJ17">
+        <v>1.227478826</v>
+      </c>
+      <c r="BK17">
+        <v>1.22747881</v>
+      </c>
+      <c r="BL17">
+        <v>1.227478825</v>
+      </c>
+      <c r="BM17">
+        <v>1.227478835</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4828,8 +4423,8 @@
       <c r="BE18">
         <v>980</v>
       </c>
-      <c r="BF18" t="s">
-        <v>176</v>
+      <c r="BF18">
+        <v>33185238</v>
       </c>
       <c r="BG18">
         <v>46726</v>
@@ -4840,17 +4435,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>296</v>
+      <c r="BJ18">
+        <v>1.22747224</v>
+      </c>
+      <c r="BK18">
+        <v>1.227472224</v>
+      </c>
+      <c r="BL18">
+        <v>1.227472239</v>
+      </c>
+      <c r="BM18">
+        <v>1.227472249</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5025,8 +4620,8 @@
       <c r="BE19">
         <v>850</v>
       </c>
-      <c r="BF19" t="s">
-        <v>177</v>
+      <c r="BF19">
+        <v>33185562</v>
       </c>
       <c r="BG19">
         <v>48756</v>
@@ -5037,17 +4632,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>237</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>297</v>
+      <c r="BJ19">
+        <v>1.227478946</v>
+      </c>
+      <c r="BK19">
+        <v>1.22747893</v>
+      </c>
+      <c r="BL19">
+        <v>1.227478945</v>
+      </c>
+      <c r="BM19">
+        <v>1.227478955</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5222,8 +4817,8 @@
       <c r="BE20">
         <v>980</v>
       </c>
-      <c r="BF20" t="s">
-        <v>178</v>
+      <c r="BF20">
+        <v>33185426</v>
       </c>
       <c r="BG20">
         <v>232095</v>
@@ -5234,17 +4829,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>238</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>268</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>298</v>
+      <c r="BJ20">
+        <v>1.227478376</v>
+      </c>
+      <c r="BK20">
+        <v>1.22747836</v>
+      </c>
+      <c r="BL20">
+        <v>1.227478375</v>
+      </c>
+      <c r="BM20">
+        <v>1.227478385</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5419,8 +5014,8 @@
       <c r="BE21">
         <v>280</v>
       </c>
-      <c r="BF21" t="s">
-        <v>179</v>
+      <c r="BF21">
+        <v>33185560</v>
       </c>
       <c r="BG21">
         <v>215817</v>
@@ -5431,17 +5026,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>299</v>
+      <c r="BJ21">
+        <v>1.227479066</v>
+      </c>
+      <c r="BK21">
+        <v>1.22747905</v>
+      </c>
+      <c r="BL21">
+        <v>1.227479065</v>
+      </c>
+      <c r="BM21">
+        <v>1.227479075</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5616,8 +5211,8 @@
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>180</v>
+      <c r="BF22">
+        <v>33193687</v>
       </c>
       <c r="BG22">
         <v>4082025</v>
@@ -5628,17 +5223,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>210</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>300</v>
+      <c r="BJ22">
+        <v>1.22762534</v>
+      </c>
+      <c r="BK22">
+        <v>1.227625385</v>
+      </c>
+      <c r="BL22">
+        <v>1.227625424</v>
+      </c>
+      <c r="BM22">
+        <v>1.227625349</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5813,8 +5408,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>181</v>
+      <c r="BF23">
+        <v>33193572</v>
       </c>
       <c r="BG23">
         <v>6432339</v>
@@ -5825,17 +5420,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>211</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>301</v>
+      <c r="BJ23">
+        <v>1.22761998</v>
+      </c>
+      <c r="BK23">
+        <v>1.227620025</v>
+      </c>
+      <c r="BL23">
+        <v>1.227620064</v>
+      </c>
+      <c r="BM23">
+        <v>1.227619989</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6010,8 +5605,8 @@
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>182</v>
+      <c r="BF24">
+        <v>33201093</v>
       </c>
       <c r="BG24">
         <v>7838019</v>
@@ -6022,17 +5617,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>212</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>272</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>302</v>
+      <c r="BJ24">
+        <v>1.227753547</v>
+      </c>
+      <c r="BK24">
+        <v>1.227753592</v>
+      </c>
+      <c r="BL24">
+        <v>1.227753631</v>
+      </c>
+      <c r="BM24">
+        <v>1.227753556</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6207,8 +5802,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>183</v>
+      <c r="BF25">
+        <v>33201046</v>
       </c>
       <c r="BG25">
         <v>329419</v>
@@ -6219,17 +5814,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>303</v>
+      <c r="BJ25">
+        <v>1.227753304</v>
+      </c>
+      <c r="BK25">
+        <v>1.227753349</v>
+      </c>
+      <c r="BL25">
+        <v>1.227753388</v>
+      </c>
+      <c r="BM25">
+        <v>1.227753313</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6404,8 +5999,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>184</v>
+      <c r="BF26">
+        <v>33193688</v>
       </c>
       <c r="BG26">
         <v>9195442</v>
@@ -6416,17 +6011,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>244</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>304</v>
+      <c r="BJ26">
+        <v>1.22762543</v>
+      </c>
+      <c r="BK26">
+        <v>1.227625475</v>
+      </c>
+      <c r="BL26">
+        <v>1.227625514</v>
+      </c>
+      <c r="BM26">
+        <v>1.227625439</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6601,8 +6196,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>185</v>
+      <c r="BF27">
+        <v>33194040</v>
       </c>
       <c r="BG27">
         <v>13749040</v>
@@ -6613,17 +6208,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>215</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>275</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>305</v>
+      <c r="BJ27">
+        <v>1.22763254</v>
+      </c>
+      <c r="BK27">
+        <v>1.227632585</v>
+      </c>
+      <c r="BL27">
+        <v>1.227632624</v>
+      </c>
+      <c r="BM27">
+        <v>1.227632549</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6798,8 +6393,8 @@
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>186</v>
+      <c r="BF28">
+        <v>33201042</v>
       </c>
       <c r="BG28">
         <v>893608</v>
@@ -6810,17 +6405,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>216</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>246</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>276</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>306</v>
+      <c r="BJ28">
+        <v>1.227753419</v>
+      </c>
+      <c r="BK28">
+        <v>1.227753423</v>
+      </c>
+      <c r="BL28">
+        <v>1.227753469</v>
+      </c>
+      <c r="BM28">
+        <v>1.22775347</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6840,163 +6435,163 @@
         <v>157</v>
       </c>
       <c r="F29">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="G29">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="I29">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="J29">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K29">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L29">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="P29">
         <v>2.02</v>
       </c>
       <c r="Q29">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R29">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T29">
+        <v>10.5</v>
+      </c>
+      <c r="U29">
         <v>11.5</v>
       </c>
-      <c r="U29">
-        <v>15.5</v>
-      </c>
       <c r="V29">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W29">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X29">
         <v>34</v>
       </c>
       <c r="Y29">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Z29">
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="AA29">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AB29">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AC29">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD29">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AE29">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF29">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG29">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AH29">
-        <v>4.9</v>
+        <v>50</v>
       </c>
       <c r="AI29">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ29">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK29">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL29">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM29">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AN29">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO29">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AP29">
-        <v>4.9</v>
+        <v>75</v>
       </c>
       <c r="AQ29">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AR29">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AS29">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU29">
+        <v>21</v>
+      </c>
+      <c r="AV29">
+        <v>38</v>
+      </c>
+      <c r="AW29">
+        <v>42</v>
+      </c>
+      <c r="AX29">
         <v>23</v>
       </c>
-      <c r="AV29">
-        <v>32</v>
-      </c>
-      <c r="AW29">
-        <v>55</v>
-      </c>
-      <c r="AX29">
-        <v>4.5</v>
-      </c>
       <c r="AY29">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ29">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="BA29">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BB29">
-        <v>4.4</v>
+        <v>27</v>
       </c>
       <c r="BC29">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="BD29">
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="BG29">
         <v>198128</v>
@@ -7008,16 +6603,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="BK29" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="BL29" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="BM29" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7037,40 +6632,40 @@
         <v>158</v>
       </c>
       <c r="F30">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="G30">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="K30">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="L30">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="N30">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="O30">
-        <v>2.54</v>
+        <v>1.93</v>
       </c>
       <c r="P30">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q30">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R30">
         <v>1.63</v>
@@ -7079,25 +6674,25 @@
         <v>1.74</v>
       </c>
       <c r="T30">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="U30">
         <v>20</v>
       </c>
       <c r="V30">
-        <v>1.33</v>
+        <v>4.3</v>
       </c>
       <c r="W30">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="X30">
-        <v>1.17</v>
+        <v>4.7</v>
       </c>
       <c r="Y30">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="Z30">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AA30">
         <v>1000</v>
@@ -7109,91 +6704,91 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD30">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AE30">
         <v>15.5</v>
       </c>
       <c r="AF30">
-        <v>1.26</v>
+        <v>4.5</v>
       </c>
       <c r="AG30">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH30">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AI30">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AJ30">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AK30">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AL30">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="AM30">
         <v>13.5</v>
       </c>
       <c r="AN30">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AO30">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AP30">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AQ30">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AR30">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AS30">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AT30">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AU30">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AV30">
-        <v>1.23</v>
+        <v>4.5</v>
       </c>
       <c r="AW30">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX30">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="AY30">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AZ30">
-        <v>1.08</v>
+        <v>2.9</v>
       </c>
       <c r="BA30">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB30">
-        <v>1.15</v>
+        <v>4.8</v>
       </c>
       <c r="BC30">
         <v>1000</v>
       </c>
       <c r="BD30">
-        <v>1.15</v>
+        <v>4.8</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="BG30">
         <v>219457</v>
@@ -7205,16 +6800,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="BK30" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="BL30" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="BM30" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7234,163 +6829,163 @@
         <v>159</v>
       </c>
       <c r="F31">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="G31">
+        <v>1.48</v>
+      </c>
+      <c r="H31">
+        <v>9.6</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>4.4</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>1.87</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>2.16</v>
+      </c>
+      <c r="P31">
+        <v>2.3</v>
+      </c>
+      <c r="Q31">
+        <v>2.48</v>
+      </c>
+      <c r="R31">
+        <v>1.68</v>
+      </c>
+      <c r="S31">
         <v>1.77</v>
       </c>
-      <c r="H31">
-        <v>5.8</v>
-      </c>
-      <c r="I31">
-        <v>6.2</v>
-      </c>
-      <c r="J31">
-        <v>3.65</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>1.71</v>
-      </c>
-      <c r="M31">
-        <v>1.82</v>
-      </c>
-      <c r="N31">
-        <v>2.22</v>
-      </c>
-      <c r="O31">
-        <v>2.4</v>
-      </c>
-      <c r="P31">
-        <v>2.1</v>
-      </c>
-      <c r="Q31">
-        <v>2.26</v>
-      </c>
-      <c r="R31">
-        <v>1.79</v>
-      </c>
-      <c r="S31">
-        <v>1.91</v>
-      </c>
       <c r="T31">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="U31">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="V31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="W31">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="X31">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="Y31">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="Z31">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AA31">
-        <v>170</v>
+        <v>540</v>
       </c>
       <c r="AB31">
         <v>6.4</v>
       </c>
       <c r="AC31">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD31">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AE31">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AF31">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AG31">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AH31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI31">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AJ31">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AK31">
+        <v>7.2</v>
+      </c>
+      <c r="AL31">
         <v>9.800000000000001</v>
       </c>
-      <c r="AL31">
-        <v>8.6</v>
-      </c>
       <c r="AM31">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN31">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AO31">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AP31">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AQ31">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AR31">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AS31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AT31">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AU31">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AV31">
-        <v>7.6</v>
+        <v>40</v>
       </c>
       <c r="AW31">
         <v>55</v>
       </c>
       <c r="AX31">
+        <v>13</v>
+      </c>
+      <c r="AY31">
+        <v>1000</v>
+      </c>
+      <c r="AZ31">
+        <v>6.6</v>
+      </c>
+      <c r="BA31">
         <v>8.4</v>
       </c>
-      <c r="AY31">
-        <v>190</v>
-      </c>
-      <c r="AZ31">
-        <v>5.4</v>
-      </c>
-      <c r="BA31">
-        <v>14.5</v>
-      </c>
       <c r="BB31">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="BC31">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="BD31">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="BG31">
         <v>26076470</v>
@@ -7402,16 +6997,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="BK31" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="BL31" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="BM31" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="160">
   <si>
     <t>League</t>
   </si>
@@ -494,51 +494,6 @@
   </si>
   <si>
     <t>Deportivo Pasto</t>
-  </si>
-  <si>
-    <t>33192514</t>
-  </si>
-  <si>
-    <t>33196260</t>
-  </si>
-  <si>
-    <t>33193686</t>
-  </si>
-  <si>
-    <t>1.227599613</t>
-  </si>
-  <si>
-    <t>1.227679123</t>
-  </si>
-  <si>
-    <t>1.227625520</t>
-  </si>
-  <si>
-    <t>1.227599649</t>
-  </si>
-  <si>
-    <t>1.227679168</t>
-  </si>
-  <si>
-    <t>1.227625565</t>
-  </si>
-  <si>
-    <t>1.227599606</t>
-  </si>
-  <si>
-    <t>1.227679207</t>
-  </si>
-  <si>
-    <t>1.227625604</t>
-  </si>
-  <si>
-    <t>1.227599648</t>
-  </si>
-  <si>
-    <t>1.227679132</t>
-  </si>
-  <si>
-    <t>1.227625529</t>
   </si>
 </sst>
 </file>
@@ -6590,8 +6545,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>160</v>
+      <c r="BF29">
+        <v>33192514</v>
       </c>
       <c r="BG29">
         <v>198128</v>
@@ -6602,17 +6557,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>163</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>172</v>
+      <c r="BJ29">
+        <v>1.227599613</v>
+      </c>
+      <c r="BK29">
+        <v>1.227599649</v>
+      </c>
+      <c r="BL29">
+        <v>1.227599606</v>
+      </c>
+      <c r="BM29">
+        <v>1.227599648</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -6787,8 +6742,8 @@
       <c r="BE30">
         <v>1000</v>
       </c>
-      <c r="BF30" t="s">
-        <v>161</v>
+      <c r="BF30">
+        <v>33196260</v>
       </c>
       <c r="BG30">
         <v>219457</v>
@@ -6799,17 +6754,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>173</v>
+      <c r="BJ30">
+        <v>1.227679123</v>
+      </c>
+      <c r="BK30">
+        <v>1.227679168</v>
+      </c>
+      <c r="BL30">
+        <v>1.227679207</v>
+      </c>
+      <c r="BM30">
+        <v>1.227679132</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6984,8 +6939,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>162</v>
+      <c r="BF31">
+        <v>33193686</v>
       </c>
       <c r="BG31">
         <v>26076470</v>
@@ -6996,17 +6951,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>171</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>174</v>
+      <c r="BJ31">
+        <v>1.22762552</v>
+      </c>
+      <c r="BK31">
+        <v>1.227625565</v>
+      </c>
+      <c r="BL31">
+        <v>1.227625604</v>
+      </c>
+      <c r="BM31">
+        <v>1.227625529</v>
       </c>
     </row>
   </sheetData>
